--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mobile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>1. Login</t>
   </si>
@@ -133,6 +134,9 @@
   <si>
     <t>Theo Vùng</t>
   </si>
+  <si>
+    <t>Tự lấy theo CH001-Đại Lý Minh Thành</t>
+  </si>
 </sst>
 </file>
 
@@ -190,6 +194,5004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="431800"/>
+          <a:ext cx="5054600" cy="7289800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="1562100"/>
+          <a:ext cx="4749800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Điểm Danh bắt đầu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="2260600"/>
+          <a:ext cx="4749800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Điểm Danh kết thúc</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="2933700"/>
+          <a:ext cx="4749800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Báo cáo lắp đặt POSM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="3670300"/>
+          <a:ext cx="4749800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Danh sách cửa hàng thực hiện</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="1778000"/>
+          <a:ext cx="3619500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9055100" y="381000"/>
+          <a:ext cx="5054600" cy="7289800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10490200" y="1562100"/>
+          <a:ext cx="2298700" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Thời gian điểm Danh</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>192151</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="718466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10464800" y="2020951"/>
+          <a:ext cx="2298700" cy="718466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8:00</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30974</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10452100" y="2875774"/>
+          <a:ext cx="2298700" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nhấp thêm lần nữa hiển thị dialog xác nhận là '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Bạn đã điểm danh dữ liệu sẽ ghi đè? Bạn có đồng ý?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16929100" y="241300"/>
+          <a:ext cx="5054600" cy="7289800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18542000" y="1422400"/>
+          <a:ext cx="2298700" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Thời gian điểm Danh</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52451</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="718466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18516600" y="1881251"/>
+          <a:ext cx="2298700" cy="718466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17:00</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>94474</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18503900" y="2736074"/>
+          <a:ext cx="2298700" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nhấp thêm lần nữa hiển thị dialog xác nhận là '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Bạn đã điểm danh dữ liệu sẽ ghi đè? Bạn có đồng ý?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5422900" y="2476500"/>
+          <a:ext cx="11506200" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95033"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9080500" y="7975600"/>
+          <a:ext cx="5054600" cy="7289800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Elbow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5422900" y="3149600"/>
+          <a:ext cx="3657600" cy="8470900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9385300" y="8509000"/>
+          <a:ext cx="1498600" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM Loại 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925300" y="8521700"/>
+          <a:ext cx="1498600" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM Loại 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9398000" y="9893300"/>
+          <a:ext cx="1498600" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM Loại 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11938000" y="9906000"/>
+          <a:ext cx="1498600" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM Loại 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="11328400"/>
+          <a:ext cx="1498600" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM Loại 5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11950700" y="11341100"/>
+          <a:ext cx="1498600" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM Loại 6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15265400" y="7988300"/>
+          <a:ext cx="5054600" cy="11722100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Elbow Connector 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13423900" y="9004300"/>
+          <a:ext cx="1841500" cy="4845050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510000" y="8229600"/>
+          <a:ext cx="2298700" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15443200" y="8661400"/>
+          <a:ext cx="4762500" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15443200" y="11315700"/>
+          <a:ext cx="4737100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tỉnh/Thành Phố</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15443200" y="10261600"/>
+          <a:ext cx="4737100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Quận/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Huyện</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15443200" y="10807700"/>
+          <a:ext cx="4737100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Phường/Xã</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15443200" y="9232900"/>
+          <a:ext cx="4737100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Số nhà</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15443200" y="9740900"/>
+          <a:ext cx="4737100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tên Đường</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Right Brace 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20459700" y="9232900"/>
+          <a:ext cx="317500" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>197920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1485900" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15455900" y="11983520"/>
+          <a:ext cx="1485900" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hình ảnh địa chỉ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19164300" y="12306300"/>
+          <a:ext cx="1054100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Camera</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15735300" y="12369800"/>
+          <a:ext cx="1866900" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh (max 2 tấm)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>109020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1485900" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15494000" y="13113820"/>
+          <a:ext cx="1485900" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hình ảnh POST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>45520</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1485900" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15506700" y="13456720"/>
+          <a:ext cx="1485900" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15481300" y="13474700"/>
+          <a:ext cx="4762500" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Số lượng POSM (nếu chọn 2)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>197920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1206500" cy="271980"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15481300" y="14015520"/>
+          <a:ext cx="1206500" cy="271980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POSM 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15506700" y="14351000"/>
+          <a:ext cx="1346200" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh trước</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="14363700"/>
+          <a:ext cx="1244600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh Sau</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18567400" y="14363700"/>
+          <a:ext cx="1244600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh trái</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15532100" y="15049500"/>
+          <a:ext cx="1295400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh phải</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="15049500"/>
+          <a:ext cx="1295400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Khu quà tặng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18592800" y="15049500"/>
+          <a:ext cx="1295400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Trao quà</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Right Brace 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20523200" y="14325600"/>
+          <a:ext cx="165100" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18973800" y="18986500"/>
+          <a:ext cx="1244600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Gửi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>169880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2324100" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17881600" y="11752280"/>
+          <a:ext cx="2324100" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kinh độ: 11111111, Vĩ độ: 3333333</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>94474</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22123400" y="15944074"/>
+          <a:ext cx="2298700" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dữ liệu sẽ gửi về trung tâm bạn có đồng ý không?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Trường hợp người có submit rồi mà submit lại thì dử liệu sẽ ghi đè</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>164807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Elbow Connector 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20218400" y="16420807"/>
+          <a:ext cx="1905000" cy="2813343"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>96320</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1206500" cy="271980"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15519400" y="15742720"/>
+          <a:ext cx="1206500" cy="271980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POSM 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15544800" y="16078200"/>
+          <a:ext cx="1346200" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh trước</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17106900" y="16090900"/>
+          <a:ext cx="1244600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh Sau</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="TextBox 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18605500" y="16090900"/>
+          <a:ext cx="1244600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh trái</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15570200" y="16776700"/>
+          <a:ext cx="1295400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hình ảnh phải</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17106900" y="16776700"/>
+          <a:ext cx="1295400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Khu quà tặng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18630900" y="16776700"/>
+          <a:ext cx="1295400" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Trao quà</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="558800" y="8255000"/>
+          <a:ext cx="5054600" cy="7289800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Elbow Connector 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="82" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5422900" y="3886200"/>
+          <a:ext cx="190500" cy="8013700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 220000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119080</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="558800" y="8450280"/>
+          <a:ext cx="1447800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ngày 10/12/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>200707</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="TextBox 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="8735107"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>124507</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="9065307"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48307</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="TextBox 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="9395507"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>188007</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="TextBox 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812800" y="9738407"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>4780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="TextBox 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="10164780"/>
+          <a:ext cx="1447800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ngày 10/12/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>86407</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="10449607"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="10779807"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 93"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="11110007"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>73707</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="11452907"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>106380</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="11891980"/>
+          <a:ext cx="1447800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ngày 10/12/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>188007</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="12176807"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>111807</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="TextBox 97"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="12507007"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>35607</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="12837207"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>175307</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="TextBox 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="13180107"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +5459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
@@ -722,4 +5724,26 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="AV52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P65" sqref="P65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="52" spans="48:48" x14ac:dyDescent="0.2">
+      <c r="AV52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ledang/Documents/_Project Lists/StaffTracking/Document/Fit&amp;Gap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,6 +192,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1091,87 +1094,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9080500" y="7975600"/>
-          <a:ext cx="5054600" cy="7289800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Elbow Connector 28"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="24" idx="1"/>
+          <a:endCxn id="38" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5422900" y="3149600"/>
-          <a:ext cx="3657600" cy="8470900"/>
+          <a:off x="5492173" y="3218873"/>
+          <a:ext cx="9969500" cy="10944514"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 16300"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1197,26 +1146,137 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15265400" y="7988300"/>
+          <a:ext cx="5054600" cy="11722100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510000" y="8229600"/>
+          <a:ext cx="2298700" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9385300" y="8509000"/>
-          <a:ext cx="1498600" cy="965200"/>
+          <a:off x="15443200" y="8661400"/>
+          <a:ext cx="4762500" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,7 +1313,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>POSM Loại 1</a:t>
+            <a:t>CH99999</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1262,26 +1322,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11925300" y="8521700"/>
-          <a:ext cx="1498600" cy="965200"/>
+          <a:off x="15443200" y="11315700"/>
+          <a:ext cx="4737100" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,7 +1378,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>POSM Loại 2</a:t>
+            <a:t>Tỉnh/Thành Phố</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1327,26 +1387,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9398000" y="9893300"/>
-          <a:ext cx="1498600" cy="965200"/>
+          <a:off x="15443200" y="10261600"/>
+          <a:ext cx="4737100" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1383,8 +1443,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>POSM Loại 3</a:t>
-          </a:r>
+            <a:t>Quận/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Huyện</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1392,26 +1457,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvPr id="47" name="TextBox 46"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11938000" y="9906000"/>
-          <a:ext cx="1498600" cy="965200"/>
+          <a:off x="15443200" y="10807700"/>
+          <a:ext cx="4737100" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1448,7 +1513,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>POSM Loại 4</a:t>
+            <a:t>Phường/Xã</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1457,26 +1522,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9410700" y="11328400"/>
-          <a:ext cx="1498600" cy="965200"/>
+          <a:off x="15443200" y="9232900"/>
+          <a:ext cx="4737100" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,7 +1578,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>POSM Loại 5</a:t>
+            <a:t>Số nhà</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1522,26 +1587,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvPr id="49" name="TextBox 48"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11950700" y="11341100"/>
-          <a:ext cx="1498600" cy="965200"/>
+          <a:off x="15443200" y="9740900"/>
+          <a:ext cx="4737100" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,7 +1643,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>POSM Loại 6</a:t>
+            <a:t>Tên Đường</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1587,45 +1652,43 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvPr id="50" name="Right Brace 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15265400" y="7988300"/>
-          <a:ext cx="5054600" cy="11722100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
+          <a:off x="20459700" y="9232900"/>
+          <a:ext cx="317500" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
+        </a:lnRef>
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1639,73 +1702,23 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Elbow Connector 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13423900" y="9004300"/>
-          <a:ext cx="1841500" cy="4845050"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2298700" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="TextBox 42"/>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>197920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1485900" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16510000" y="8229600"/>
-          <a:ext cx="2298700" cy="264560"/>
+          <a:off x="15455900" y="11983520"/>
+          <a:ext cx="1485900" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1739,7 +1752,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Cửa hàng</a:t>
+            <a:t>Hình ảnh địa chỉ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1748,26 +1761,26 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TextBox 43"/>
+        <xdr:cNvPr id="52" name="TextBox 51"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15443200" y="8661400"/>
-          <a:ext cx="4762500" cy="355600"/>
+          <a:off x="19164300" y="12306300"/>
+          <a:ext cx="1054100" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,7 +1817,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CH001-Đại lý Minh Thành</a:t>
+            <a:t>Camera</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1813,26 +1826,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvPr id="53" name="TextBox 52"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15443200" y="11315700"/>
-          <a:ext cx="4737100" cy="355600"/>
+          <a:off x="15735300" y="12369800"/>
+          <a:ext cx="1866900" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,35 +1882,146 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Tỉnh/Thành Phố</a:t>
+            <a:t>Hình ảnh (max 2 tấm)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>109020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1485900" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15494000" y="13113820"/>
+          <a:ext cx="1485900" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hình ảnh POST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>45520</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1485900" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15506700" y="13456720"/>
+          <a:ext cx="1485900" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvPr id="56" name="TextBox 55"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15443200" y="10261600"/>
-          <a:ext cx="4737100" cy="355600"/>
+          <a:off x="15481300" y="13474700"/>
+          <a:ext cx="4762500" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1934,40 +2058,100 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Quận/</a:t>
+            <a:t>Chọn</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Huyện</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t> loại </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>197920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1206500" cy="271980"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15481300" y="14015520"/>
+          <a:ext cx="1206500" cy="271980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POSM Loại 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="TextBox 46"/>
+        <xdr:cNvPr id="58" name="TextBox 57"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15443200" y="10807700"/>
-          <a:ext cx="4737100" cy="355600"/>
+          <a:off x="15506700" y="14351000"/>
+          <a:ext cx="1346200" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2004,8 +2188,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Phường/Xã</a:t>
-          </a:r>
+            <a:t>Ảnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2013,26 +2202,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvPr id="60" name="TextBox 59"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15443200" y="9232900"/>
-          <a:ext cx="4737100" cy="355600"/>
+          <a:off x="17068800" y="14363700"/>
+          <a:ext cx="1244600" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2068,9 +2257,30 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Số nhà</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ảnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2078,26 +2288,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="TextBox 48"/>
+        <xdr:cNvPr id="61" name="TextBox 60"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15443200" y="9740900"/>
-          <a:ext cx="4737100" cy="355600"/>
+          <a:off x="18567400" y="14363700"/>
+          <a:ext cx="1244600" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,9 +2343,30 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Tên Đường</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ảnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2143,135 +2374,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Right Brace 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20459700" y="9232900"/>
-          <a:ext cx="317500" cy="2451100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>197920</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1485900" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="TextBox 50"/>
+        <xdr:cNvPr id="62" name="TextBox 61"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15455900" y="11983520"/>
-          <a:ext cx="1485900" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Hình ảnh địa chỉ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="TextBox 51"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19164300" y="12306300"/>
-          <a:ext cx="1054100" cy="495300"/>
+          <a:off x="15532100" y="15049500"/>
+          <a:ext cx="1295400" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2308,7 +2430,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Camera</a:t>
+            <a:t>+</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2317,26 +2439,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Right Brace 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20523200" y="14325600"/>
+          <a:ext cx="165100" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="TextBox 52"/>
+        <xdr:cNvPr id="66" name="TextBox 65"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15735300" y="12369800"/>
-          <a:ext cx="1866900" cy="495300"/>
+          <a:off x="18973800" y="18986500"/>
+          <a:ext cx="1244600" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2373,746 +2547,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh (max 2 tấm)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>109020</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1485900" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="TextBox 53"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15494000" y="13113820"/>
-          <a:ext cx="1485900" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Hình ảnh POST</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>45520</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1485900" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="TextBox 54"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15506700" y="13456720"/>
-          <a:ext cx="1485900" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="TextBox 55"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15481300" y="13474700"/>
-          <a:ext cx="4762500" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Số lượng POSM (nếu chọn 2)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>197920</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1206500" cy="271980"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="TextBox 56"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15481300" y="14015520"/>
-          <a:ext cx="1206500" cy="271980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>POSM 1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15506700" y="14351000"/>
-          <a:ext cx="1346200" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh trước</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="TextBox 59"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17068800" y="14363700"/>
-          <a:ext cx="1244600" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh Sau</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="TextBox 60"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18567400" y="14363700"/>
-          <a:ext cx="1244600" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh trái</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="TextBox 61"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15532100" y="15049500"/>
-          <a:ext cx="1295400" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh phải</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="TextBox 62"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17068800" y="15049500"/>
-          <a:ext cx="1295400" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Khu quà tặng</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="TextBox 63"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18592800" y="15049500"/>
-          <a:ext cx="1295400" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Trao quà</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Right Brace 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20523200" y="14325600"/>
-          <a:ext cx="165100" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="TextBox 65"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18973800" y="18986500"/>
-          <a:ext cx="1244600" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
             <a:t>Gửi</a:t>
           </a:r>
         </a:p>
@@ -3181,10 +2615,10 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>94474</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2298700" cy="953466"/>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2298700" cy="609013"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="TextBox 67"/>
@@ -3192,8 +2626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22123400" y="15944074"/>
-          <a:ext cx="2298700" cy="953466"/>
+          <a:off x="22278975" y="15868650"/>
+          <a:ext cx="2298700" cy="609013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3238,49 +2672,40 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Trường hợp người có submit rồi mà submit lại thì dử liệu sẽ ghi đè</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>164807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="Elbow Connector 68"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="66" idx="3"/>
-          <a:endCxn id="68" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="20218400" y="16420807"/>
-          <a:ext cx="1905000" cy="2813343"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+        <a:xfrm flipH="1">
+          <a:off x="19992975" y="18935700"/>
+          <a:ext cx="368300" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62069"/>
+            <a:gd name="adj2" fmla="val 54600"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3301,453 +2726,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>96320</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1206500" cy="271980"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="TextBox 74"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15519400" y="15742720"/>
-          <a:ext cx="1206500" cy="271980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>POSM 2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="TextBox 75"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15544800" y="16078200"/>
-          <a:ext cx="1346200" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh trước</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="TextBox 76"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17106900" y="16090900"/>
-          <a:ext cx="1244600" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh Sau</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="TextBox 77"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18605500" y="16090900"/>
-          <a:ext cx="1244600" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh trái</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="TextBox 78"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15570200" y="16776700"/>
-          <a:ext cx="1295400" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hình ảnh phải</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="TextBox 79"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17106900" y="16776700"/>
-          <a:ext cx="1295400" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Khu quà tặng</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="TextBox 80"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18630900" y="16776700"/>
-          <a:ext cx="1295400" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Trao quà</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5186,6 +4164,2425 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>85206</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>26323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23466137" y="20608636"/>
+          <a:ext cx="8138160" cy="3108960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>48225</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>206595</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4337020" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23462407" y="20572777"/>
+          <a:ext cx="4337020" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>CH63123-01/01/2018 3:20:20PM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Brace 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24438428" y="8041821"/>
+          <a:ext cx="639536" cy="11851821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>390136</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>170721</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6540381" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25536136" y="13437685"/>
+          <a:ext cx="6540381" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Save data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Local Device</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>51953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348672</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>1153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2879436" y="22496317"/>
+          <a:ext cx="1521691" cy="988291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>POSM Loại 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20669250" y="11753850"/>
+          <a:ext cx="1047750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1386533" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21897975" y="11610975"/>
+          <a:ext cx="1386533" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tọa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> độ lấy từ Diveice</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Isosceles Triangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="20120373" y="13529897"/>
+          <a:ext cx="126206" cy="145622"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Line Callout 2 (Border and Accent Bar) 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23853321" y="7538356"/>
+          <a:ext cx="6449786" cy="1224643"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentBorderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 112500"/>
+            <a:gd name="adj6" fmla="val -78735"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1. Trường</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hợp: Cửa hàng chỉ định =&gt; Load thông tin cửa hàng By Code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Trường hợp Cửa hàng ngoài chỉ định (Cửa hàng mới) =&gt; Cho nhập TEXT (Mã-Tên Cửa HÀng; Số nhà; Tên đường; Quận/Huyện; Phường Xã; Tỉnh/Thành Phố)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="TextBox 112"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="4441825"/>
+          <a:ext cx="4784725" cy="425450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Danh sách cửa hàng chưa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Submit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Rectangle 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="15748000"/>
+          <a:ext cx="5089525" cy="7175500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>138130</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="TextBox 116"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="15940105"/>
+          <a:ext cx="1447800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ngày 10/12/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19732</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="TextBox 117"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746125" y="16221757"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>143557</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="TextBox 118"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746125" y="16545607"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>67357</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="TextBox 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="16869457"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7032</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="TextBox 120"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="796925" y="17209182"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>23830</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="TextBox 121"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="530225" y="17626030"/>
+          <a:ext cx="1447800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ngày 10/12/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>105457</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="TextBox 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="17907682"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>29257</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="TextBox 123"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="18231532"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>156257</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="TextBox 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="758825" y="18558557"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>92757</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="TextBox 125"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784225" y="18895107"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>125430</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="TextBox 126"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606425" y="19327830"/>
+          <a:ext cx="1447800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ngày 10/12/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>7032</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="TextBox 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="19609482"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>130857</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="TextBox 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="19933332"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>54657</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="TextBox 129"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="835025" y="20257182"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>194357</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3479800" cy="332693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="TextBox 130"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="860425" y="20596907"/>
+          <a:ext cx="3479800" cy="332693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cửa hàng: CH001-Đại lý Minh Thành</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Elbow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="3"/>
+          <a:endCxn id="116" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5432425" y="4654550"/>
+          <a:ext cx="200025" cy="14681200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 604762"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="TextBox 136"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="22148800"/>
+          <a:ext cx="1254125" cy="488950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Gửi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Rectangle 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15430500" y="21964650"/>
+          <a:ext cx="5829300" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>291289</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>197935</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3036922" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16855264" y="22000660"/>
+          <a:ext cx="3036922" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="10160">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Ảnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="10160">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> selfie</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="10160">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="30000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="TextBox 140"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19783425" y="26349325"/>
+          <a:ext cx="1254125" cy="488950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Chụp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Right Arrow 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27824206" y="20125765"/>
+          <a:ext cx="5053853" cy="134470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>158524</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114691</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5076198" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rectangle 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32879700" y="19680162"/>
+          <a:ext cx="5076198" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Process in server</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5459,28 +6856,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -5488,32 +6885,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -5530,7 +6927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N24" t="s">
         <v>7</v>
       </c>
@@ -5541,22 +6938,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>5</v>
       </c>
@@ -5564,22 +6961,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -5587,127 +6984,127 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>16</v>
       </c>
@@ -5730,13 +7127,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y86" sqref="Y86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="52" spans="48:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="48:48" x14ac:dyDescent="0.25">
       <c r="AV52" t="s">
         <v>35</v>
       </c>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOPER\MyGIT\DolphinSolutions\My Projects\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mobile" sheetId="2" r:id="rId2"/>
+    <sheet name="Mobile App" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -6583,6 +6584,1060 @@
             </a:rPr>
             <a:t>Process in server</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335973</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72697</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393373" y="1371601"/>
+          <a:ext cx="10709524" cy="22104625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>503486</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>187600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18592800" y="990600"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8186</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>35200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="25984200"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>389186</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>73300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18478500" y="25831800"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>389186</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>35200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33566100" y="26174700"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122486</xdr:colOff>
+      <xdr:row>658</xdr:row>
+      <xdr:rowOff>149500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="102298500"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>655886</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>73300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="78028800"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>427286</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>35200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34290000" y="50939700"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>427286</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>111400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34290000" y="73875900"/>
+          <a:ext cx="10714286" cy="23200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22812375" y="16335375"/>
+          <a:ext cx="6048375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40767000" y="90773250"/>
+          <a:ext cx="10048875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>609161</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>150310</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4306180" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51282161" y="90066310"/>
+          <a:ext cx="4306180" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Hình</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Xác Nhận</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51196875" y="91440000"/>
+          <a:ext cx="3333750" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55292625" y="91440000"/>
+          <a:ext cx="3333750" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>196571</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>102685</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2178610" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51536321" y="93828685"/>
+          <a:ext cx="2178610" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Ký</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> PXN</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>568450</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>55060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3435108" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55241950" y="93971560"/>
+          <a:ext cx="3435108" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>PXN đầy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> đủ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="38814375"/>
+          <a:ext cx="2619375" cy="13239750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11811000" y="40957500"/>
+          <a:ext cx="3286125" cy="16609868"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>173905</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>150310</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4700454" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14842405" y="51585310"/>
+          <a:ext cx="4700454" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Kết</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> quả báo cáo</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>397899</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>150310</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4157228" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15733149" y="56919310"/>
+          <a:ext cx="4157228" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Tải</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> dữ liệu lên</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7127,7 +8182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y86" sqref="Y86"/>
     </sheetView>
   </sheetViews>
@@ -7143,4 +8198,19 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A558" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="AG295" sqref="AG295"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,47 +714,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,12 +724,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,6 +750,51 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16800,6 +16800,768 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3781425" y="390525"/>
+          <a:ext cx="2209800" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562655</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45535</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9390328" cy="593304"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6049055" y="45535"/>
+          <a:ext cx="9390328" cy="593304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Xuất</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> danh sách cửa hàng : Trạng thái (Đã đi || Chưa đi)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3200" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="964816" cy="468077"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rectangle 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27555825" y="5686425"/>
+          <a:ext cx="964816" cy="468077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình tranh</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Pepsi&amp;7Up</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="964816" cy="468077"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Rectangle 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29241750" y="5676900"/>
+          <a:ext cx="964816" cy="468077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình tranh</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Pepsi&amp;7Up</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="964816" cy="468077"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="Rectangle 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30889575" y="5676900"/>
+          <a:ext cx="964816" cy="468077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình tranh</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Pepsi&amp;7Up</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="964816" cy="468077"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Rectangle 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32489775" y="5724525"/>
+          <a:ext cx="964816" cy="468077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình tranh</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Pepsi&amp;7Up</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969111" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Rectangle 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27546300" y="8115300"/>
+          <a:ext cx="969111" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình ký</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> PXN</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1263679" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rectangle 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146500" y="8134350"/>
+          <a:ext cx="1263679" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PXN đầy đủ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="851323" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Rectangle 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30870525" y="8105775"/>
+          <a:ext cx="851323" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SPVB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="32632650" y="4410075"/>
+          <a:ext cx="5353050" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>466835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>93160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2590581" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38185835" y="3893635"/>
+          <a:ext cx="2590581" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>400x600</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20733,8 +21495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX115" sqref="AX115"/>
+    <sheetView showGridLines="0" topLeftCell="AG83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BK91" sqref="BK91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20770,7 +21532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
@@ -20785,8 +21547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BG41" sqref="BG41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20815,7 +21577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="CG439"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="BB35" sqref="BB35"/>
     </sheetView>
   </sheetViews>
@@ -20838,8 +21600,8 @@
   </sheetPr>
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20860,16 +21622,17 @@
     <col min="18" max="18" width="7.625" style="7" customWidth="1"/>
     <col min="19" max="20" width="6.125" style="7" customWidth="1"/>
     <col min="21" max="21" width="38.25" style="7" customWidth="1"/>
-    <col min="22" max="23" width="8.125" style="22" customWidth="1"/>
-    <col min="24" max="24" width="7.375" style="22" customWidth="1"/>
-    <col min="25" max="25" width="10.125" style="22" customWidth="1"/>
-    <col min="26" max="30" width="7.875" style="22" customWidth="1"/>
-    <col min="31" max="32" width="9.625" style="22" customWidth="1"/>
-    <col min="33" max="33" width="6.875" style="22" customWidth="1"/>
-    <col min="34" max="34" width="8.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.375" style="22" customWidth="1"/>
-    <col min="36" max="37" width="9.625" style="22" customWidth="1"/>
-    <col min="38" max="38" width="35" style="22" customWidth="1"/>
+    <col min="22" max="23" width="8.125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="7.375" style="10" customWidth="1"/>
+    <col min="25" max="25" width="10.125" style="10" customWidth="1"/>
+    <col min="26" max="30" width="7.875" style="10" customWidth="1"/>
+    <col min="31" max="32" width="9.625" style="10" customWidth="1"/>
+    <col min="33" max="33" width="6.875" style="10" customWidth="1"/>
+    <col min="34" max="34" width="8.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.375" style="10" customWidth="1"/>
+    <col min="36" max="36" width="10.5" style="10" customWidth="1"/>
+    <col min="37" max="37" width="11.125" style="10" customWidth="1"/>
+    <col min="38" max="38" width="35" style="10" customWidth="1"/>
     <col min="39" max="16384" width="7.875" style="7"/>
   </cols>
   <sheetData>
@@ -21119,759 +21882,765 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
     </row>
-    <row r="7" spans="1:38" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:38" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="17" t="s">
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="10" t="s">
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="10" t="s">
+      <c r="AF7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AG7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="20" t="s">
+      <c r="AH7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AI7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="20" t="s">
+      <c r="AJ7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="20" t="s">
+      <c r="AK7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AL7" s="10" t="s">
+      <c r="AL7" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
+    <row r="8" spans="1:38" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="26" t="s">
+      <c r="X8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Z8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AB8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AC8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AD8" s="26" t="s">
+      <c r="AD8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="23"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31" t="s">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="17">
         <v>1</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17">
         <v>0</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="17">
         <v>1</v>
       </c>
-      <c r="Z9" s="32">
+      <c r="Z9" s="17">
         <v>1</v>
       </c>
-      <c r="AA9" s="32">
+      <c r="AA9" s="17">
         <v>0</v>
       </c>
-      <c r="AB9" s="32">
+      <c r="AB9" s="17">
         <v>1</v>
       </c>
-      <c r="AC9" s="32">
+      <c r="AC9" s="17">
         <v>0</v>
       </c>
-      <c r="AD9" s="32">
+      <c r="AD9" s="17">
         <v>0</v>
       </c>
-      <c r="AE9" s="32">
+      <c r="AE9" s="17">
         <v>1</v>
       </c>
-      <c r="AF9" s="32" t="s">
+      <c r="AF9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AG9" s="18">
         <v>0.58939814814814817</v>
       </c>
-      <c r="AH9" s="34" t="s">
+      <c r="AH9" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32" t="s">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31" t="s">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="17">
         <v>0</v>
       </c>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17">
         <v>2</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="17">
         <v>0</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="Z10" s="17">
         <v>1</v>
       </c>
-      <c r="AA10" s="32">
+      <c r="AA10" s="17">
         <v>1</v>
       </c>
-      <c r="AB10" s="32">
+      <c r="AB10" s="17">
         <v>1</v>
       </c>
-      <c r="AC10" s="32">
+      <c r="AC10" s="17">
         <v>1</v>
       </c>
-      <c r="AD10" s="32">
+      <c r="AD10" s="17">
         <v>1</v>
       </c>
-      <c r="AE10" s="32">
+      <c r="AE10" s="17">
         <v>1</v>
       </c>
-      <c r="AF10" s="32" t="s">
+      <c r="AF10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AG10" s="18">
         <v>0.63159722222222225</v>
       </c>
-      <c r="AH10" s="34" t="s">
+      <c r="AH10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32" t="s">
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="17">
         <v>2</v>
       </c>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32">
+      <c r="W11" s="17"/>
+      <c r="X11" s="17">
         <v>0</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="17">
         <v>0</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="Z11" s="17">
         <v>2</v>
       </c>
-      <c r="AA11" s="32">
+      <c r="AA11" s="17">
         <v>1</v>
       </c>
-      <c r="AB11" s="32">
+      <c r="AB11" s="17">
         <v>2</v>
       </c>
-      <c r="AC11" s="32">
+      <c r="AC11" s="17">
         <v>1</v>
       </c>
-      <c r="AD11" s="32">
+      <c r="AD11" s="17">
         <v>1</v>
       </c>
-      <c r="AE11" s="32">
+      <c r="AE11" s="17">
         <v>1</v>
       </c>
-      <c r="AF11" s="32" t="s">
+      <c r="AF11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AG11" s="34" t="s">
+      <c r="AG11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AH11" s="34" t="s">
+      <c r="AH11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32" t="s">
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31" t="s">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="17">
         <v>0</v>
       </c>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32">
+      <c r="W12" s="17"/>
+      <c r="X12" s="17">
         <v>2</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="17">
         <v>0</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="17">
         <v>2</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="17">
         <v>1</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="17">
         <v>2</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="17">
         <v>1</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="17">
         <v>1</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="17">
         <v>2</v>
       </c>
-      <c r="AF12" s="32" t="s">
+      <c r="AF12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AG12" s="18">
         <v>0.58939814814814817</v>
       </c>
-      <c r="AH12" s="34" t="s">
+      <c r="AH12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32" t="s">
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="31" t="s">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="17">
         <v>0</v>
       </c>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32">
+      <c r="W13" s="17"/>
+      <c r="X13" s="17">
         <v>2</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="17">
         <v>0</v>
       </c>
-      <c r="Z13" s="32">
+      <c r="Z13" s="17">
         <v>2</v>
       </c>
-      <c r="AA13" s="32">
+      <c r="AA13" s="17">
         <v>1</v>
       </c>
-      <c r="AB13" s="32">
+      <c r="AB13" s="17">
         <v>2</v>
       </c>
-      <c r="AC13" s="32">
+      <c r="AC13" s="17">
         <v>1</v>
       </c>
-      <c r="AD13" s="32">
+      <c r="AD13" s="17">
         <v>1</v>
       </c>
-      <c r="AE13" s="32">
+      <c r="AE13" s="17">
         <v>2</v>
       </c>
-      <c r="AF13" s="32" t="s">
+      <c r="AF13" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AG13" s="18">
         <v>0.63159722222222225</v>
       </c>
-      <c r="AH13" s="34" t="s">
+      <c r="AH13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32" t="s">
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31" t="s">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="17">
         <v>0</v>
       </c>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32">
+      <c r="W14" s="17"/>
+      <c r="X14" s="17">
         <v>2</v>
       </c>
-      <c r="Y14" s="32">
+      <c r="Y14" s="17">
         <v>0</v>
       </c>
-      <c r="Z14" s="32">
+      <c r="Z14" s="17">
         <v>1</v>
       </c>
-      <c r="AA14" s="32">
+      <c r="AA14" s="17">
         <v>1</v>
       </c>
-      <c r="AB14" s="32">
+      <c r="AB14" s="17">
         <v>1</v>
       </c>
-      <c r="AC14" s="32">
+      <c r="AC14" s="17">
         <v>1</v>
       </c>
-      <c r="AD14" s="32">
+      <c r="AD14" s="17">
         <v>1</v>
       </c>
-      <c r="AE14" s="32">
+      <c r="AE14" s="17">
         <v>1</v>
       </c>
-      <c r="AF14" s="32" t="s">
+      <c r="AF14" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AG14" s="34" t="s">
+      <c r="AG14" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AH14" s="34" t="s">
+      <c r="AH14" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32" t="s">
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31" t="s">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="V15" s="32">
+      <c r="V15" s="17">
         <v>2</v>
       </c>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32">
+      <c r="W15" s="17"/>
+      <c r="X15" s="17">
         <v>0</v>
       </c>
-      <c r="Y15" s="32">
+      <c r="Y15" s="17">
         <v>0</v>
       </c>
-      <c r="Z15" s="32">
+      <c r="Z15" s="17">
         <v>2</v>
       </c>
-      <c r="AA15" s="32">
+      <c r="AA15" s="17">
         <v>1</v>
       </c>
-      <c r="AB15" s="32">
+      <c r="AB15" s="17">
         <v>2</v>
       </c>
-      <c r="AC15" s="32">
+      <c r="AC15" s="17">
         <v>1</v>
       </c>
-      <c r="AD15" s="32">
+      <c r="AD15" s="17">
         <v>1</v>
       </c>
-      <c r="AE15" s="32">
+      <c r="AE15" s="17">
         <v>1</v>
       </c>
-      <c r="AF15" s="32" t="s">
+      <c r="AF15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AG15" s="34" t="s">
+      <c r="AG15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AH15" s="34" t="s">
+      <c r="AH15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32" t="s">
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -21882,12 +22651,6 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\EmployeeTracking\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -458,8 +455,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,8 +516,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +553,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -683,13 +692,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -750,6 +760,21 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,12 +782,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,17 +805,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -20956,6 +20968,200 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>54707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32232600" y="8001000"/>
+          <a:ext cx="29794200" cy="7674707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>132871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32194500" y="15887701"/>
+          <a:ext cx="25641300" cy="8057670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32042100" y="1028700"/>
+          <a:ext cx="31965900" cy="2049858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>29755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32118300" y="3467100"/>
+          <a:ext cx="22517100" cy="4373155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21495,7 +21701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AG83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AG89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BK91" sqref="BK91"/>
     </sheetView>
   </sheetViews>
@@ -21547,7 +21753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BG41" sqref="BG41"/>
     </sheetView>
   </sheetViews>
@@ -21575,14 +21781,6889 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="CG439"/>
+  <dimension ref="AT4:CT439"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BB35" sqref="BB35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AR30" sqref="AR30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="4" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37"/>
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37"/>
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37"/>
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="37"/>
+      <c r="CL4" s="37"/>
+      <c r="CM4" s="37"/>
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37"/>
+      <c r="CT4" s="37"/>
+    </row>
+    <row r="5" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="37"/>
+      <c r="CD5" s="37"/>
+      <c r="CE5" s="37"/>
+      <c r="CF5" s="37"/>
+      <c r="CG5" s="37"/>
+      <c r="CH5" s="37"/>
+      <c r="CI5" s="37"/>
+      <c r="CJ5" s="37"/>
+      <c r="CK5" s="37"/>
+      <c r="CL5" s="37"/>
+      <c r="CM5" s="37"/>
+      <c r="CN5" s="37"/>
+      <c r="CO5" s="37"/>
+      <c r="CP5" s="37"/>
+      <c r="CQ5" s="37"/>
+      <c r="CR5" s="37"/>
+      <c r="CS5" s="37"/>
+      <c r="CT5" s="37"/>
+    </row>
+    <row r="6" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="37"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BX6" s="37"/>
+      <c r="BY6" s="37"/>
+      <c r="BZ6" s="37"/>
+      <c r="CA6" s="37"/>
+      <c r="CB6" s="37"/>
+      <c r="CC6" s="37"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
+      <c r="CF6" s="37"/>
+      <c r="CG6" s="37"/>
+      <c r="CH6" s="37"/>
+      <c r="CI6" s="37"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="37"/>
+      <c r="CL6" s="37"/>
+      <c r="CM6" s="37"/>
+      <c r="CN6" s="37"/>
+      <c r="CO6" s="37"/>
+      <c r="CP6" s="37"/>
+      <c r="CQ6" s="37"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="37"/>
+      <c r="CT6" s="37"/>
+    </row>
+    <row r="7" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="37"/>
+      <c r="BK7" s="37"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="37"/>
+      <c r="BO7" s="37"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="37"/>
+      <c r="BR7" s="37"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="37"/>
+      <c r="BU7" s="37"/>
+      <c r="BV7" s="37"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="37"/>
+      <c r="BY7" s="37"/>
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="37"/>
+      <c r="CC7" s="37"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="37"/>
+      <c r="CF7" s="37"/>
+      <c r="CG7" s="37"/>
+      <c r="CH7" s="37"/>
+      <c r="CI7" s="37"/>
+      <c r="CJ7" s="37"/>
+      <c r="CK7" s="37"/>
+      <c r="CL7" s="37"/>
+      <c r="CM7" s="37"/>
+      <c r="CN7" s="37"/>
+      <c r="CO7" s="37"/>
+      <c r="CP7" s="37"/>
+      <c r="CQ7" s="37"/>
+      <c r="CR7" s="37"/>
+      <c r="CS7" s="37"/>
+      <c r="CT7" s="37"/>
+    </row>
+    <row r="8" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="37"/>
+      <c r="BI8" s="37"/>
+      <c r="BJ8" s="37"/>
+      <c r="BK8" s="37"/>
+      <c r="BL8" s="37"/>
+      <c r="BM8" s="37"/>
+      <c r="BN8" s="37"/>
+      <c r="BO8" s="37"/>
+      <c r="BP8" s="37"/>
+      <c r="BQ8" s="37"/>
+      <c r="BR8" s="37"/>
+      <c r="BS8" s="37"/>
+      <c r="BT8" s="37"/>
+      <c r="BU8" s="37"/>
+      <c r="BV8" s="37"/>
+      <c r="BW8" s="37"/>
+      <c r="BX8" s="37"/>
+      <c r="BY8" s="37"/>
+      <c r="BZ8" s="37"/>
+      <c r="CA8" s="37"/>
+      <c r="CB8" s="37"/>
+      <c r="CC8" s="37"/>
+      <c r="CD8" s="37"/>
+      <c r="CE8" s="37"/>
+      <c r="CF8" s="37"/>
+      <c r="CG8" s="37"/>
+      <c r="CH8" s="37"/>
+      <c r="CI8" s="37"/>
+      <c r="CJ8" s="37"/>
+      <c r="CK8" s="37"/>
+      <c r="CL8" s="37"/>
+      <c r="CM8" s="37"/>
+      <c r="CN8" s="37"/>
+      <c r="CO8" s="37"/>
+      <c r="CP8" s="37"/>
+      <c r="CQ8" s="37"/>
+      <c r="CR8" s="37"/>
+      <c r="CS8" s="37"/>
+      <c r="CT8" s="37"/>
+    </row>
+    <row r="9" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37"/>
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37"/>
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37"/>
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="37"/>
+      <c r="BW9" s="37"/>
+      <c r="BX9" s="37"/>
+      <c r="BY9" s="37"/>
+      <c r="BZ9" s="37"/>
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
+      <c r="CD9" s="37"/>
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="37"/>
+      <c r="CG9" s="37"/>
+      <c r="CH9" s="37"/>
+      <c r="CI9" s="37"/>
+      <c r="CJ9" s="37"/>
+      <c r="CK9" s="37"/>
+      <c r="CL9" s="37"/>
+      <c r="CM9" s="37"/>
+      <c r="CN9" s="37"/>
+      <c r="CO9" s="37"/>
+      <c r="CP9" s="37"/>
+      <c r="CQ9" s="37"/>
+      <c r="CR9" s="37"/>
+      <c r="CS9" s="37"/>
+      <c r="CT9" s="37"/>
+    </row>
+    <row r="10" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="37"/>
+      <c r="BI10" s="37"/>
+      <c r="BJ10" s="37"/>
+      <c r="BK10" s="37"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="37"/>
+      <c r="BN10" s="37"/>
+      <c r="BO10" s="37"/>
+      <c r="BP10" s="37"/>
+      <c r="BQ10" s="37"/>
+      <c r="BR10" s="37"/>
+      <c r="BS10" s="37"/>
+      <c r="BT10" s="37"/>
+      <c r="BU10" s="37"/>
+      <c r="BV10" s="37"/>
+      <c r="BW10" s="37"/>
+      <c r="BX10" s="37"/>
+      <c r="BY10" s="37"/>
+      <c r="BZ10" s="37"/>
+      <c r="CA10" s="37"/>
+      <c r="CB10" s="37"/>
+      <c r="CC10" s="37"/>
+      <c r="CD10" s="37"/>
+      <c r="CE10" s="37"/>
+      <c r="CF10" s="37"/>
+      <c r="CG10" s="37"/>
+      <c r="CH10" s="37"/>
+      <c r="CI10" s="37"/>
+      <c r="CJ10" s="37"/>
+      <c r="CK10" s="37"/>
+      <c r="CL10" s="37"/>
+      <c r="CM10" s="37"/>
+      <c r="CN10" s="37"/>
+      <c r="CO10" s="37"/>
+      <c r="CP10" s="37"/>
+      <c r="CQ10" s="37"/>
+      <c r="CR10" s="37"/>
+      <c r="CS10" s="37"/>
+      <c r="CT10" s="37"/>
+    </row>
+    <row r="11" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="37"/>
+      <c r="BO11" s="37"/>
+      <c r="BP11" s="37"/>
+      <c r="BQ11" s="37"/>
+      <c r="BR11" s="37"/>
+      <c r="BS11" s="37"/>
+      <c r="BT11" s="37"/>
+      <c r="BU11" s="37"/>
+      <c r="BV11" s="37"/>
+      <c r="BW11" s="37"/>
+      <c r="BX11" s="37"/>
+      <c r="BY11" s="37"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="37"/>
+      <c r="CF11" s="37"/>
+      <c r="CG11" s="37"/>
+      <c r="CH11" s="37"/>
+      <c r="CI11" s="37"/>
+      <c r="CJ11" s="37"/>
+      <c r="CK11" s="37"/>
+      <c r="CL11" s="37"/>
+      <c r="CM11" s="37"/>
+      <c r="CN11" s="37"/>
+      <c r="CO11" s="37"/>
+      <c r="CP11" s="37"/>
+      <c r="CQ11" s="37"/>
+      <c r="CR11" s="37"/>
+      <c r="CS11" s="37"/>
+      <c r="CT11" s="37"/>
+    </row>
+    <row r="12" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="37"/>
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="37"/>
+      <c r="BK12" s="37"/>
+      <c r="BL12" s="37"/>
+      <c r="BM12" s="37"/>
+      <c r="BN12" s="37"/>
+      <c r="BO12" s="37"/>
+      <c r="BP12" s="37"/>
+      <c r="BQ12" s="37"/>
+      <c r="BR12" s="37"/>
+      <c r="BS12" s="37"/>
+      <c r="BT12" s="37"/>
+      <c r="BU12" s="37"/>
+      <c r="BV12" s="37"/>
+      <c r="BW12" s="37"/>
+      <c r="BX12" s="37"/>
+      <c r="BY12" s="37"/>
+      <c r="BZ12" s="37"/>
+      <c r="CA12" s="37"/>
+      <c r="CB12" s="37"/>
+      <c r="CC12" s="37"/>
+      <c r="CD12" s="37"/>
+      <c r="CE12" s="37"/>
+      <c r="CF12" s="37"/>
+      <c r="CG12" s="37"/>
+      <c r="CH12" s="37"/>
+      <c r="CI12" s="37"/>
+      <c r="CJ12" s="37"/>
+      <c r="CK12" s="37"/>
+      <c r="CL12" s="37"/>
+      <c r="CM12" s="37"/>
+      <c r="CN12" s="37"/>
+      <c r="CO12" s="37"/>
+      <c r="CP12" s="37"/>
+      <c r="CQ12" s="37"/>
+      <c r="CR12" s="37"/>
+      <c r="CS12" s="37"/>
+      <c r="CT12" s="37"/>
+    </row>
+    <row r="13" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT13" s="37"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="37"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="37"/>
+      <c r="BH13" s="37"/>
+      <c r="BI13" s="37"/>
+      <c r="BJ13" s="37"/>
+      <c r="BK13" s="37"/>
+      <c r="BL13" s="37"/>
+      <c r="BM13" s="37"/>
+      <c r="BN13" s="37"/>
+      <c r="BO13" s="37"/>
+      <c r="BP13" s="37"/>
+      <c r="BQ13" s="37"/>
+      <c r="BR13" s="37"/>
+      <c r="BS13" s="37"/>
+      <c r="BT13" s="37"/>
+      <c r="BU13" s="37"/>
+      <c r="BV13" s="37"/>
+      <c r="BW13" s="37"/>
+      <c r="BX13" s="37"/>
+      <c r="BY13" s="37"/>
+      <c r="BZ13" s="37"/>
+      <c r="CA13" s="37"/>
+      <c r="CB13" s="37"/>
+      <c r="CC13" s="37"/>
+      <c r="CD13" s="37"/>
+      <c r="CE13" s="37"/>
+      <c r="CF13" s="37"/>
+      <c r="CG13" s="37"/>
+      <c r="CH13" s="37"/>
+      <c r="CI13" s="37"/>
+      <c r="CJ13" s="37"/>
+      <c r="CK13" s="37"/>
+      <c r="CL13" s="37"/>
+      <c r="CM13" s="37"/>
+      <c r="CN13" s="37"/>
+      <c r="CO13" s="37"/>
+      <c r="CP13" s="37"/>
+      <c r="CQ13" s="37"/>
+      <c r="CR13" s="37"/>
+      <c r="CS13" s="37"/>
+      <c r="CT13" s="37"/>
+    </row>
+    <row r="14" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="37"/>
+      <c r="BH14" s="37"/>
+      <c r="BI14" s="37"/>
+      <c r="BJ14" s="37"/>
+      <c r="BK14" s="37"/>
+      <c r="BL14" s="37"/>
+      <c r="BM14" s="37"/>
+      <c r="BN14" s="37"/>
+      <c r="BO14" s="37"/>
+      <c r="BP14" s="37"/>
+      <c r="BQ14" s="37"/>
+      <c r="BR14" s="37"/>
+      <c r="BS14" s="37"/>
+      <c r="BT14" s="37"/>
+      <c r="BU14" s="37"/>
+      <c r="BV14" s="37"/>
+      <c r="BW14" s="37"/>
+      <c r="BX14" s="37"/>
+      <c r="BY14" s="37"/>
+      <c r="BZ14" s="37"/>
+      <c r="CA14" s="37"/>
+      <c r="CB14" s="37"/>
+      <c r="CC14" s="37"/>
+      <c r="CD14" s="37"/>
+      <c r="CE14" s="37"/>
+      <c r="CF14" s="37"/>
+      <c r="CG14" s="37"/>
+      <c r="CH14" s="37"/>
+      <c r="CI14" s="37"/>
+      <c r="CJ14" s="37"/>
+      <c r="CK14" s="37"/>
+      <c r="CL14" s="37"/>
+      <c r="CM14" s="37"/>
+      <c r="CN14" s="37"/>
+      <c r="CO14" s="37"/>
+      <c r="CP14" s="37"/>
+      <c r="CQ14" s="37"/>
+      <c r="CR14" s="37"/>
+      <c r="CS14" s="37"/>
+      <c r="CT14" s="37"/>
+    </row>
+    <row r="15" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="37"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="37"/>
+      <c r="BK15" s="37"/>
+      <c r="BL15" s="37"/>
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="37"/>
+      <c r="BO15" s="37"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
+      <c r="BR15" s="37"/>
+      <c r="BS15" s="37"/>
+      <c r="BT15" s="37"/>
+      <c r="BU15" s="37"/>
+      <c r="BV15" s="37"/>
+      <c r="BW15" s="37"/>
+      <c r="BX15" s="37"/>
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="37"/>
+      <c r="CA15" s="37"/>
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="37"/>
+      <c r="CE15" s="37"/>
+      <c r="CF15" s="37"/>
+      <c r="CG15" s="37"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="37"/>
+      <c r="CJ15" s="37"/>
+      <c r="CK15" s="37"/>
+      <c r="CL15" s="37"/>
+      <c r="CM15" s="37"/>
+      <c r="CN15" s="37"/>
+      <c r="CO15" s="37"/>
+      <c r="CP15" s="37"/>
+      <c r="CQ15" s="37"/>
+      <c r="CR15" s="37"/>
+      <c r="CS15" s="37"/>
+      <c r="CT15" s="37"/>
+    </row>
+    <row r="16" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="37"/>
+      <c r="BH16" s="37"/>
+      <c r="BI16" s="37"/>
+      <c r="BJ16" s="37"/>
+      <c r="BK16" s="37"/>
+      <c r="BL16" s="37"/>
+      <c r="BM16" s="37"/>
+      <c r="BN16" s="37"/>
+      <c r="BO16" s="37"/>
+      <c r="BP16" s="37"/>
+      <c r="BQ16" s="37"/>
+      <c r="BR16" s="37"/>
+      <c r="BS16" s="37"/>
+      <c r="BT16" s="37"/>
+      <c r="BU16" s="37"/>
+      <c r="BV16" s="37"/>
+      <c r="BW16" s="37"/>
+      <c r="BX16" s="37"/>
+      <c r="BY16" s="37"/>
+      <c r="BZ16" s="37"/>
+      <c r="CA16" s="37"/>
+      <c r="CB16" s="37"/>
+      <c r="CC16" s="37"/>
+      <c r="CD16" s="37"/>
+      <c r="CE16" s="37"/>
+      <c r="CF16" s="37"/>
+      <c r="CG16" s="37"/>
+      <c r="CH16" s="37"/>
+      <c r="CI16" s="37"/>
+      <c r="CJ16" s="37"/>
+      <c r="CK16" s="37"/>
+      <c r="CL16" s="37"/>
+      <c r="CM16" s="37"/>
+      <c r="CN16" s="37"/>
+      <c r="CO16" s="37"/>
+      <c r="CP16" s="37"/>
+      <c r="CQ16" s="37"/>
+      <c r="CR16" s="37"/>
+      <c r="CS16" s="37"/>
+      <c r="CT16" s="37"/>
+    </row>
+    <row r="17" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="37"/>
+      <c r="BH17" s="37"/>
+      <c r="BI17" s="37"/>
+      <c r="BJ17" s="37"/>
+      <c r="BK17" s="37"/>
+      <c r="BL17" s="37"/>
+      <c r="BM17" s="37"/>
+      <c r="BN17" s="37"/>
+      <c r="BO17" s="37"/>
+      <c r="BP17" s="37"/>
+      <c r="BQ17" s="37"/>
+      <c r="BR17" s="37"/>
+      <c r="BS17" s="37"/>
+      <c r="BT17" s="37"/>
+      <c r="BU17" s="37"/>
+      <c r="BV17" s="37"/>
+      <c r="BW17" s="37"/>
+      <c r="BX17" s="37"/>
+      <c r="BY17" s="37"/>
+      <c r="BZ17" s="37"/>
+      <c r="CA17" s="37"/>
+      <c r="CB17" s="37"/>
+      <c r="CC17" s="37"/>
+      <c r="CD17" s="37"/>
+      <c r="CE17" s="37"/>
+      <c r="CF17" s="37"/>
+      <c r="CG17" s="37"/>
+      <c r="CH17" s="37"/>
+      <c r="CI17" s="37"/>
+      <c r="CJ17" s="37"/>
+      <c r="CK17" s="37"/>
+      <c r="CL17" s="37"/>
+      <c r="CM17" s="37"/>
+      <c r="CN17" s="37"/>
+      <c r="CO17" s="37"/>
+      <c r="CP17" s="37"/>
+      <c r="CQ17" s="37"/>
+      <c r="CR17" s="37"/>
+      <c r="CS17" s="37"/>
+      <c r="CT17" s="37"/>
+    </row>
+    <row r="18" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="37"/>
+      <c r="CP18" s="37"/>
+      <c r="CQ18" s="37"/>
+      <c r="CR18" s="37"/>
+      <c r="CS18" s="37"/>
+      <c r="CT18" s="37"/>
+    </row>
+    <row r="19" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="37"/>
+      <c r="BE19" s="37"/>
+      <c r="BF19" s="37"/>
+      <c r="BG19" s="37"/>
+      <c r="BH19" s="37"/>
+      <c r="BI19" s="37"/>
+      <c r="BJ19" s="37"/>
+      <c r="BK19" s="37"/>
+      <c r="BL19" s="37"/>
+      <c r="BM19" s="37"/>
+      <c r="BN19" s="37"/>
+      <c r="BO19" s="37"/>
+      <c r="BP19" s="37"/>
+      <c r="BQ19" s="37"/>
+      <c r="BR19" s="37"/>
+      <c r="BS19" s="37"/>
+      <c r="BT19" s="37"/>
+      <c r="BU19" s="37"/>
+      <c r="BV19" s="37"/>
+      <c r="BW19" s="37"/>
+      <c r="BX19" s="37"/>
+      <c r="BY19" s="37"/>
+      <c r="BZ19" s="37"/>
+      <c r="CA19" s="37"/>
+      <c r="CB19" s="37"/>
+      <c r="CC19" s="37"/>
+      <c r="CD19" s="37"/>
+      <c r="CE19" s="37"/>
+      <c r="CF19" s="37"/>
+      <c r="CG19" s="37"/>
+      <c r="CH19" s="37"/>
+      <c r="CI19" s="37"/>
+      <c r="CJ19" s="37"/>
+      <c r="CK19" s="37"/>
+      <c r="CL19" s="37"/>
+      <c r="CM19" s="37"/>
+      <c r="CN19" s="37"/>
+      <c r="CO19" s="37"/>
+      <c r="CP19" s="37"/>
+      <c r="CQ19" s="37"/>
+      <c r="CR19" s="37"/>
+      <c r="CS19" s="37"/>
+      <c r="CT19" s="37"/>
+    </row>
+    <row r="20" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="37"/>
+      <c r="BH20" s="37"/>
+      <c r="BI20" s="37"/>
+      <c r="BJ20" s="37"/>
+      <c r="BK20" s="37"/>
+      <c r="BL20" s="37"/>
+      <c r="BM20" s="37"/>
+      <c r="BN20" s="37"/>
+      <c r="BO20" s="37"/>
+      <c r="BP20" s="37"/>
+      <c r="BQ20" s="37"/>
+      <c r="BR20" s="37"/>
+      <c r="BS20" s="37"/>
+      <c r="BT20" s="37"/>
+      <c r="BU20" s="37"/>
+      <c r="BV20" s="37"/>
+      <c r="BW20" s="37"/>
+      <c r="BX20" s="37"/>
+      <c r="BY20" s="37"/>
+      <c r="BZ20" s="37"/>
+      <c r="CA20" s="37"/>
+      <c r="CB20" s="37"/>
+      <c r="CC20" s="37"/>
+      <c r="CD20" s="37"/>
+      <c r="CE20" s="37"/>
+      <c r="CF20" s="37"/>
+      <c r="CG20" s="37"/>
+      <c r="CH20" s="37"/>
+      <c r="CI20" s="37"/>
+      <c r="CJ20" s="37"/>
+      <c r="CK20" s="37"/>
+      <c r="CL20" s="37"/>
+      <c r="CM20" s="37"/>
+      <c r="CN20" s="37"/>
+      <c r="CO20" s="37"/>
+      <c r="CP20" s="37"/>
+      <c r="CQ20" s="37"/>
+      <c r="CR20" s="37"/>
+      <c r="CS20" s="37"/>
+      <c r="CT20" s="37"/>
+    </row>
+    <row r="21" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="37"/>
+      <c r="BG21" s="37"/>
+      <c r="BH21" s="37"/>
+      <c r="BI21" s="37"/>
+      <c r="BJ21" s="37"/>
+      <c r="BK21" s="37"/>
+      <c r="BL21" s="37"/>
+      <c r="BM21" s="37"/>
+      <c r="BN21" s="37"/>
+      <c r="BO21" s="37"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="37"/>
+      <c r="BR21" s="37"/>
+      <c r="BS21" s="37"/>
+      <c r="BT21" s="37"/>
+      <c r="BU21" s="37"/>
+      <c r="BV21" s="37"/>
+      <c r="BW21" s="37"/>
+      <c r="BX21" s="37"/>
+      <c r="BY21" s="37"/>
+      <c r="BZ21" s="37"/>
+      <c r="CA21" s="37"/>
+      <c r="CB21" s="37"/>
+      <c r="CC21" s="37"/>
+      <c r="CD21" s="37"/>
+      <c r="CE21" s="37"/>
+      <c r="CF21" s="37"/>
+      <c r="CG21" s="37"/>
+      <c r="CH21" s="37"/>
+      <c r="CI21" s="37"/>
+      <c r="CJ21" s="37"/>
+      <c r="CK21" s="37"/>
+      <c r="CL21" s="37"/>
+      <c r="CM21" s="37"/>
+      <c r="CN21" s="37"/>
+      <c r="CO21" s="37"/>
+      <c r="CP21" s="37"/>
+      <c r="CQ21" s="37"/>
+      <c r="CR21" s="37"/>
+      <c r="CS21" s="37"/>
+      <c r="CT21" s="37"/>
+    </row>
+    <row r="22" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="37"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="37"/>
+      <c r="BD22" s="37"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="37"/>
+      <c r="BG22" s="37"/>
+      <c r="BH22" s="37"/>
+      <c r="BI22" s="37"/>
+      <c r="BJ22" s="37"/>
+      <c r="BK22" s="37"/>
+      <c r="BL22" s="37"/>
+      <c r="BM22" s="37"/>
+      <c r="BN22" s="37"/>
+      <c r="BO22" s="37"/>
+      <c r="BP22" s="37"/>
+      <c r="BQ22" s="37"/>
+      <c r="BR22" s="37"/>
+      <c r="BS22" s="37"/>
+      <c r="BT22" s="37"/>
+      <c r="BU22" s="37"/>
+      <c r="BV22" s="37"/>
+      <c r="BW22" s="37"/>
+      <c r="BX22" s="37"/>
+      <c r="BY22" s="37"/>
+      <c r="BZ22" s="37"/>
+      <c r="CA22" s="37"/>
+      <c r="CB22" s="37"/>
+      <c r="CC22" s="37"/>
+      <c r="CD22" s="37"/>
+      <c r="CE22" s="37"/>
+      <c r="CF22" s="37"/>
+      <c r="CG22" s="37"/>
+      <c r="CH22" s="37"/>
+      <c r="CI22" s="37"/>
+      <c r="CJ22" s="37"/>
+      <c r="CK22" s="37"/>
+      <c r="CL22" s="37"/>
+      <c r="CM22" s="37"/>
+      <c r="CN22" s="37"/>
+      <c r="CO22" s="37"/>
+      <c r="CP22" s="37"/>
+      <c r="CQ22" s="37"/>
+      <c r="CR22" s="37"/>
+      <c r="CS22" s="37"/>
+      <c r="CT22" s="37"/>
+    </row>
+    <row r="23" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="37"/>
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="37"/>
+      <c r="BG23" s="37"/>
+      <c r="BH23" s="37"/>
+      <c r="BI23" s="37"/>
+      <c r="BJ23" s="37"/>
+      <c r="BK23" s="37"/>
+      <c r="BL23" s="37"/>
+      <c r="BM23" s="37"/>
+      <c r="BN23" s="37"/>
+      <c r="BO23" s="37"/>
+      <c r="BP23" s="37"/>
+      <c r="BQ23" s="37"/>
+      <c r="BR23" s="37"/>
+      <c r="BS23" s="37"/>
+      <c r="BT23" s="37"/>
+      <c r="BU23" s="37"/>
+      <c r="BV23" s="37"/>
+      <c r="BW23" s="37"/>
+      <c r="BX23" s="37"/>
+      <c r="BY23" s="37"/>
+      <c r="BZ23" s="37"/>
+      <c r="CA23" s="37"/>
+      <c r="CB23" s="37"/>
+      <c r="CC23" s="37"/>
+      <c r="CD23" s="37"/>
+      <c r="CE23" s="37"/>
+      <c r="CF23" s="37"/>
+      <c r="CG23" s="37"/>
+      <c r="CH23" s="37"/>
+      <c r="CI23" s="37"/>
+      <c r="CJ23" s="37"/>
+      <c r="CK23" s="37"/>
+      <c r="CL23" s="37"/>
+      <c r="CM23" s="37"/>
+      <c r="CN23" s="37"/>
+      <c r="CO23" s="37"/>
+      <c r="CP23" s="37"/>
+      <c r="CQ23" s="37"/>
+      <c r="CR23" s="37"/>
+      <c r="CS23" s="37"/>
+      <c r="CT23" s="37"/>
+    </row>
+    <row r="24" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="37"/>
+      <c r="BP24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="37"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="37"/>
+      <c r="BW24" s="37"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="37"/>
+      <c r="BZ24" s="37"/>
+      <c r="CA24" s="37"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="37"/>
+      <c r="CD24" s="37"/>
+      <c r="CE24" s="37"/>
+      <c r="CF24" s="37"/>
+      <c r="CG24" s="37"/>
+      <c r="CH24" s="37"/>
+      <c r="CI24" s="37"/>
+      <c r="CJ24" s="37"/>
+      <c r="CK24" s="37"/>
+      <c r="CL24" s="37"/>
+      <c r="CM24" s="37"/>
+      <c r="CN24" s="37"/>
+      <c r="CO24" s="37"/>
+      <c r="CP24" s="37"/>
+      <c r="CQ24" s="37"/>
+      <c r="CR24" s="37"/>
+      <c r="CS24" s="37"/>
+      <c r="CT24" s="37"/>
+    </row>
+    <row r="25" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="37"/>
+      <c r="BA25" s="37"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="37"/>
+      <c r="BD25" s="37"/>
+      <c r="BE25" s="37"/>
+      <c r="BF25" s="37"/>
+      <c r="BG25" s="37"/>
+      <c r="BH25" s="37"/>
+      <c r="BI25" s="37"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="37"/>
+      <c r="BL25" s="37"/>
+      <c r="BM25" s="37"/>
+      <c r="BN25" s="37"/>
+      <c r="BO25" s="37"/>
+      <c r="BP25" s="37"/>
+      <c r="BQ25" s="37"/>
+      <c r="BR25" s="37"/>
+      <c r="BS25" s="37"/>
+      <c r="BT25" s="37"/>
+      <c r="BU25" s="37"/>
+      <c r="BV25" s="37"/>
+      <c r="BW25" s="37"/>
+      <c r="BX25" s="37"/>
+      <c r="BY25" s="37"/>
+      <c r="BZ25" s="37"/>
+      <c r="CA25" s="37"/>
+      <c r="CB25" s="37"/>
+      <c r="CC25" s="37"/>
+      <c r="CD25" s="37"/>
+      <c r="CE25" s="37"/>
+      <c r="CF25" s="37"/>
+      <c r="CG25" s="37"/>
+      <c r="CH25" s="37"/>
+      <c r="CI25" s="37"/>
+      <c r="CJ25" s="37"/>
+      <c r="CK25" s="37"/>
+      <c r="CL25" s="37"/>
+      <c r="CM25" s="37"/>
+      <c r="CN25" s="37"/>
+      <c r="CO25" s="37"/>
+      <c r="CP25" s="37"/>
+      <c r="CQ25" s="37"/>
+      <c r="CR25" s="37"/>
+      <c r="CS25" s="37"/>
+      <c r="CT25" s="37"/>
+    </row>
+    <row r="26" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="37"/>
+      <c r="BG26" s="37"/>
+      <c r="BH26" s="37"/>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="37"/>
+      <c r="BL26" s="37"/>
+      <c r="BM26" s="37"/>
+      <c r="BN26" s="37"/>
+      <c r="BO26" s="37"/>
+      <c r="BP26" s="37"/>
+      <c r="BQ26" s="37"/>
+      <c r="BR26" s="37"/>
+      <c r="BS26" s="37"/>
+      <c r="BT26" s="37"/>
+      <c r="BU26" s="37"/>
+      <c r="BV26" s="37"/>
+      <c r="BW26" s="37"/>
+      <c r="BX26" s="37"/>
+      <c r="BY26" s="37"/>
+      <c r="BZ26" s="37"/>
+      <c r="CA26" s="37"/>
+      <c r="CB26" s="37"/>
+      <c r="CC26" s="37"/>
+      <c r="CD26" s="37"/>
+      <c r="CE26" s="37"/>
+      <c r="CF26" s="37"/>
+      <c r="CG26" s="37"/>
+      <c r="CH26" s="37"/>
+      <c r="CI26" s="37"/>
+      <c r="CJ26" s="37"/>
+      <c r="CK26" s="37"/>
+      <c r="CL26" s="37"/>
+      <c r="CM26" s="37"/>
+      <c r="CN26" s="37"/>
+      <c r="CO26" s="37"/>
+      <c r="CP26" s="37"/>
+      <c r="CQ26" s="37"/>
+      <c r="CR26" s="37"/>
+      <c r="CS26" s="37"/>
+      <c r="CT26" s="37"/>
+    </row>
+    <row r="27" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT27" s="37"/>
+      <c r="AU27" s="37"/>
+      <c r="AV27" s="37"/>
+      <c r="AW27" s="37"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="37"/>
+      <c r="BA27" s="37"/>
+      <c r="BB27" s="37"/>
+      <c r="BC27" s="37"/>
+      <c r="BD27" s="37"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="37"/>
+      <c r="BG27" s="37"/>
+      <c r="BH27" s="37"/>
+      <c r="BI27" s="37"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="37"/>
+      <c r="BL27" s="37"/>
+      <c r="BM27" s="37"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="37"/>
+      <c r="BP27" s="37"/>
+      <c r="BQ27" s="37"/>
+      <c r="BR27" s="37"/>
+      <c r="BS27" s="37"/>
+      <c r="BT27" s="37"/>
+      <c r="BU27" s="37"/>
+      <c r="BV27" s="37"/>
+      <c r="BW27" s="37"/>
+      <c r="BX27" s="37"/>
+      <c r="BY27" s="37"/>
+      <c r="BZ27" s="37"/>
+      <c r="CA27" s="37"/>
+      <c r="CB27" s="37"/>
+      <c r="CC27" s="37"/>
+      <c r="CD27" s="37"/>
+      <c r="CE27" s="37"/>
+      <c r="CF27" s="37"/>
+      <c r="CG27" s="37"/>
+      <c r="CH27" s="37"/>
+      <c r="CI27" s="37"/>
+      <c r="CJ27" s="37"/>
+      <c r="CK27" s="37"/>
+      <c r="CL27" s="37"/>
+      <c r="CM27" s="37"/>
+      <c r="CN27" s="37"/>
+      <c r="CO27" s="37"/>
+      <c r="CP27" s="37"/>
+      <c r="CQ27" s="37"/>
+      <c r="CR27" s="37"/>
+      <c r="CS27" s="37"/>
+      <c r="CT27" s="37"/>
+    </row>
+    <row r="28" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="37"/>
+      <c r="BH28" s="37"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="37"/>
+      <c r="BL28" s="37"/>
+      <c r="BM28" s="37"/>
+      <c r="BN28" s="37"/>
+      <c r="BO28" s="37"/>
+      <c r="BP28" s="37"/>
+      <c r="BQ28" s="37"/>
+      <c r="BR28" s="37"/>
+      <c r="BS28" s="37"/>
+      <c r="BT28" s="37"/>
+      <c r="BU28" s="37"/>
+      <c r="BV28" s="37"/>
+      <c r="BW28" s="37"/>
+      <c r="BX28" s="37"/>
+      <c r="BY28" s="37"/>
+      <c r="BZ28" s="37"/>
+      <c r="CA28" s="37"/>
+      <c r="CB28" s="37"/>
+      <c r="CC28" s="37"/>
+      <c r="CD28" s="37"/>
+      <c r="CE28" s="37"/>
+      <c r="CF28" s="37"/>
+      <c r="CG28" s="37"/>
+      <c r="CH28" s="37"/>
+      <c r="CI28" s="37"/>
+      <c r="CJ28" s="37"/>
+      <c r="CK28" s="37"/>
+      <c r="CL28" s="37"/>
+      <c r="CM28" s="37"/>
+      <c r="CN28" s="37"/>
+      <c r="CO28" s="37"/>
+      <c r="CP28" s="37"/>
+      <c r="CQ28" s="37"/>
+      <c r="CR28" s="37"/>
+      <c r="CS28" s="37"/>
+      <c r="CT28" s="37"/>
+    </row>
+    <row r="29" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="37"/>
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="37"/>
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="37"/>
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="37"/>
+      <c r="CE29" s="37"/>
+      <c r="CF29" s="37"/>
+      <c r="CG29" s="37"/>
+      <c r="CH29" s="37"/>
+      <c r="CI29" s="37"/>
+      <c r="CJ29" s="37"/>
+      <c r="CK29" s="37"/>
+      <c r="CL29" s="37"/>
+      <c r="CM29" s="37"/>
+      <c r="CN29" s="37"/>
+      <c r="CO29" s="37"/>
+      <c r="CP29" s="37"/>
+      <c r="CQ29" s="37"/>
+      <c r="CR29" s="37"/>
+      <c r="CS29" s="37"/>
+      <c r="CT29" s="37"/>
+    </row>
+    <row r="30" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BB30" s="37"/>
+      <c r="BC30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BE30" s="37"/>
+      <c r="BF30" s="37"/>
+      <c r="BG30" s="37"/>
+      <c r="BH30" s="37"/>
+      <c r="BI30" s="37"/>
+      <c r="BJ30" s="37"/>
+      <c r="BK30" s="37"/>
+      <c r="BL30" s="37"/>
+      <c r="BM30" s="37"/>
+      <c r="BN30" s="37"/>
+      <c r="BO30" s="37"/>
+      <c r="BP30" s="37"/>
+      <c r="BQ30" s="37"/>
+      <c r="BR30" s="37"/>
+      <c r="BS30" s="37"/>
+      <c r="BT30" s="37"/>
+      <c r="BU30" s="37"/>
+      <c r="BV30" s="37"/>
+      <c r="BW30" s="37"/>
+      <c r="BX30" s="37"/>
+      <c r="BY30" s="37"/>
+      <c r="BZ30" s="37"/>
+      <c r="CA30" s="37"/>
+      <c r="CB30" s="37"/>
+      <c r="CC30" s="37"/>
+      <c r="CD30" s="37"/>
+      <c r="CE30" s="37"/>
+      <c r="CF30" s="37"/>
+      <c r="CG30" s="37"/>
+      <c r="CH30" s="37"/>
+      <c r="CI30" s="37"/>
+      <c r="CJ30" s="37"/>
+      <c r="CK30" s="37"/>
+      <c r="CL30" s="37"/>
+      <c r="CM30" s="37"/>
+      <c r="CN30" s="37"/>
+      <c r="CO30" s="37"/>
+      <c r="CP30" s="37"/>
+      <c r="CQ30" s="37"/>
+      <c r="CR30" s="37"/>
+      <c r="CS30" s="37"/>
+      <c r="CT30" s="37"/>
+    </row>
+    <row r="31" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="37"/>
+      <c r="AW31" s="37"/>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="37"/>
+      <c r="BB31" s="37"/>
+      <c r="BC31" s="37"/>
+      <c r="BD31" s="37"/>
+      <c r="BE31" s="37"/>
+      <c r="BF31" s="37"/>
+      <c r="BG31" s="37"/>
+      <c r="BH31" s="37"/>
+      <c r="BI31" s="37"/>
+      <c r="BJ31" s="37"/>
+      <c r="BK31" s="37"/>
+      <c r="BL31" s="37"/>
+      <c r="BM31" s="37"/>
+      <c r="BN31" s="37"/>
+      <c r="BO31" s="37"/>
+      <c r="BP31" s="37"/>
+      <c r="BQ31" s="37"/>
+      <c r="BR31" s="37"/>
+      <c r="BS31" s="37"/>
+      <c r="BT31" s="37"/>
+      <c r="BU31" s="37"/>
+      <c r="BV31" s="37"/>
+      <c r="BW31" s="37"/>
+      <c r="BX31" s="37"/>
+      <c r="BY31" s="37"/>
+      <c r="BZ31" s="37"/>
+      <c r="CA31" s="37"/>
+      <c r="CB31" s="37"/>
+      <c r="CC31" s="37"/>
+      <c r="CD31" s="37"/>
+      <c r="CE31" s="37"/>
+      <c r="CF31" s="37"/>
+      <c r="CG31" s="37"/>
+      <c r="CH31" s="37"/>
+      <c r="CI31" s="37"/>
+      <c r="CJ31" s="37"/>
+      <c r="CK31" s="37"/>
+      <c r="CL31" s="37"/>
+      <c r="CM31" s="37"/>
+      <c r="CN31" s="37"/>
+      <c r="CO31" s="37"/>
+      <c r="CP31" s="37"/>
+      <c r="CQ31" s="37"/>
+      <c r="CR31" s="37"/>
+      <c r="CS31" s="37"/>
+      <c r="CT31" s="37"/>
+    </row>
+    <row r="32" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37"/>
+      <c r="BG32" s="37"/>
+      <c r="BH32" s="37"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BN32" s="37"/>
+      <c r="BO32" s="37"/>
+      <c r="BP32" s="37"/>
+      <c r="BQ32" s="37"/>
+      <c r="BR32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BT32" s="37"/>
+      <c r="BU32" s="37"/>
+      <c r="BV32" s="37"/>
+      <c r="BW32" s="37"/>
+      <c r="BX32" s="37"/>
+      <c r="BY32" s="37"/>
+      <c r="BZ32" s="37"/>
+      <c r="CA32" s="37"/>
+      <c r="CB32" s="37"/>
+      <c r="CC32" s="37"/>
+      <c r="CD32" s="37"/>
+      <c r="CE32" s="37"/>
+      <c r="CF32" s="37"/>
+      <c r="CG32" s="37"/>
+      <c r="CH32" s="37"/>
+      <c r="CI32" s="37"/>
+      <c r="CJ32" s="37"/>
+      <c r="CK32" s="37"/>
+      <c r="CL32" s="37"/>
+      <c r="CM32" s="37"/>
+      <c r="CN32" s="37"/>
+      <c r="CO32" s="37"/>
+      <c r="CP32" s="37"/>
+      <c r="CQ32" s="37"/>
+      <c r="CR32" s="37"/>
+      <c r="CS32" s="37"/>
+      <c r="CT32" s="37"/>
+    </row>
+    <row r="33" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="37"/>
+      <c r="BC33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BE33" s="37"/>
+      <c r="BF33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="37"/>
+      <c r="BI33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37"/>
+      <c r="BL33" s="37"/>
+      <c r="BM33" s="37"/>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="37"/>
+      <c r="BR33" s="37"/>
+      <c r="BS33" s="37"/>
+      <c r="BT33" s="37"/>
+      <c r="BU33" s="37"/>
+      <c r="BV33" s="37"/>
+      <c r="BW33" s="37"/>
+      <c r="BX33" s="37"/>
+      <c r="BY33" s="37"/>
+      <c r="BZ33" s="37"/>
+      <c r="CA33" s="37"/>
+      <c r="CB33" s="37"/>
+      <c r="CC33" s="37"/>
+      <c r="CD33" s="37"/>
+      <c r="CE33" s="37"/>
+      <c r="CF33" s="37"/>
+      <c r="CG33" s="37"/>
+      <c r="CH33" s="37"/>
+      <c r="CI33" s="37"/>
+      <c r="CJ33" s="37"/>
+      <c r="CK33" s="37"/>
+      <c r="CL33" s="37"/>
+      <c r="CM33" s="37"/>
+      <c r="CN33" s="37"/>
+      <c r="CO33" s="37"/>
+      <c r="CP33" s="37"/>
+      <c r="CQ33" s="37"/>
+      <c r="CR33" s="37"/>
+      <c r="CS33" s="37"/>
+      <c r="CT33" s="37"/>
+    </row>
+    <row r="34" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BN34" s="37"/>
+      <c r="BO34" s="37"/>
+      <c r="BP34" s="37"/>
+      <c r="BQ34" s="37"/>
+      <c r="BR34" s="37"/>
+      <c r="BS34" s="37"/>
+      <c r="BT34" s="37"/>
+      <c r="BU34" s="37"/>
+      <c r="BV34" s="37"/>
+      <c r="BW34" s="37"/>
+      <c r="BX34" s="37"/>
+      <c r="BY34" s="37"/>
+      <c r="BZ34" s="37"/>
+      <c r="CA34" s="37"/>
+      <c r="CB34" s="37"/>
+      <c r="CC34" s="37"/>
+      <c r="CD34" s="37"/>
+      <c r="CE34" s="37"/>
+      <c r="CF34" s="37"/>
+      <c r="CG34" s="37"/>
+      <c r="CH34" s="37"/>
+      <c r="CI34" s="37"/>
+      <c r="CJ34" s="37"/>
+      <c r="CK34" s="37"/>
+      <c r="CL34" s="37"/>
+      <c r="CM34" s="37"/>
+      <c r="CN34" s="37"/>
+      <c r="CO34" s="37"/>
+      <c r="CP34" s="37"/>
+      <c r="CQ34" s="37"/>
+      <c r="CR34" s="37"/>
+      <c r="CS34" s="37"/>
+      <c r="CT34" s="37"/>
+    </row>
+    <row r="35" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="37"/>
+      <c r="AW35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="37"/>
+      <c r="BF35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BH35" s="37"/>
+      <c r="BI35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BK35" s="37"/>
+      <c r="BL35" s="37"/>
+      <c r="BM35" s="37"/>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="37"/>
+      <c r="BP35" s="37"/>
+      <c r="BQ35" s="37"/>
+      <c r="BR35" s="37"/>
+      <c r="BS35" s="37"/>
+      <c r="BT35" s="37"/>
+      <c r="BU35" s="37"/>
+      <c r="BV35" s="37"/>
+      <c r="BW35" s="37"/>
+      <c r="BX35" s="37"/>
+      <c r="BY35" s="37"/>
+      <c r="BZ35" s="37"/>
+      <c r="CA35" s="37"/>
+      <c r="CB35" s="37"/>
+      <c r="CC35" s="37"/>
+      <c r="CD35" s="37"/>
+      <c r="CE35" s="37"/>
+      <c r="CF35" s="37"/>
+      <c r="CG35" s="37"/>
+      <c r="CH35" s="37"/>
+      <c r="CI35" s="37"/>
+      <c r="CJ35" s="37"/>
+      <c r="CK35" s="37"/>
+      <c r="CL35" s="37"/>
+      <c r="CM35" s="37"/>
+      <c r="CN35" s="37"/>
+      <c r="CO35" s="37"/>
+      <c r="CP35" s="37"/>
+      <c r="CQ35" s="37"/>
+      <c r="CR35" s="37"/>
+      <c r="CS35" s="37"/>
+      <c r="CT35" s="37"/>
+    </row>
+    <row r="36" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="37"/>
+      <c r="BR36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BT36" s="37"/>
+      <c r="BU36" s="37"/>
+      <c r="BV36" s="37"/>
+      <c r="BW36" s="37"/>
+      <c r="BX36" s="37"/>
+      <c r="BY36" s="37"/>
+      <c r="BZ36" s="37"/>
+      <c r="CA36" s="37"/>
+      <c r="CB36" s="37"/>
+      <c r="CC36" s="37"/>
+      <c r="CD36" s="37"/>
+      <c r="CE36" s="37"/>
+      <c r="CF36" s="37"/>
+      <c r="CG36" s="37"/>
+      <c r="CH36" s="37"/>
+      <c r="CI36" s="37"/>
+      <c r="CJ36" s="37"/>
+      <c r="CK36" s="37"/>
+      <c r="CL36" s="37"/>
+      <c r="CM36" s="37"/>
+      <c r="CN36" s="37"/>
+      <c r="CO36" s="37"/>
+      <c r="CP36" s="37"/>
+      <c r="CQ36" s="37"/>
+      <c r="CR36" s="37"/>
+      <c r="CS36" s="37"/>
+      <c r="CT36" s="37"/>
+    </row>
+    <row r="37" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BE37" s="37"/>
+      <c r="BF37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BH37" s="37"/>
+      <c r="BI37" s="37"/>
+      <c r="BJ37" s="37"/>
+      <c r="BK37" s="37"/>
+      <c r="BL37" s="37"/>
+      <c r="BM37" s="37"/>
+      <c r="BN37" s="37"/>
+      <c r="BO37" s="37"/>
+      <c r="BP37" s="37"/>
+      <c r="BQ37" s="37"/>
+      <c r="BR37" s="37"/>
+      <c r="BS37" s="37"/>
+      <c r="BT37" s="37"/>
+      <c r="BU37" s="37"/>
+      <c r="BV37" s="37"/>
+      <c r="BW37" s="37"/>
+      <c r="BX37" s="37"/>
+      <c r="BY37" s="37"/>
+      <c r="BZ37" s="37"/>
+      <c r="CA37" s="37"/>
+      <c r="CB37" s="37"/>
+      <c r="CC37" s="37"/>
+      <c r="CD37" s="37"/>
+      <c r="CE37" s="37"/>
+      <c r="CF37" s="37"/>
+      <c r="CG37" s="37"/>
+      <c r="CH37" s="37"/>
+      <c r="CI37" s="37"/>
+      <c r="CJ37" s="37"/>
+      <c r="CK37" s="37"/>
+      <c r="CL37" s="37"/>
+      <c r="CM37" s="37"/>
+      <c r="CN37" s="37"/>
+      <c r="CO37" s="37"/>
+      <c r="CP37" s="37"/>
+      <c r="CQ37" s="37"/>
+      <c r="CR37" s="37"/>
+      <c r="CS37" s="37"/>
+      <c r="CT37" s="37"/>
+    </row>
+    <row r="38" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="37"/>
+      <c r="BO38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="37"/>
+      <c r="BS38" s="37"/>
+      <c r="BT38" s="37"/>
+      <c r="BU38" s="37"/>
+      <c r="BV38" s="37"/>
+      <c r="BW38" s="37"/>
+      <c r="BX38" s="37"/>
+      <c r="BY38" s="37"/>
+      <c r="BZ38" s="37"/>
+      <c r="CA38" s="37"/>
+      <c r="CB38" s="37"/>
+      <c r="CC38" s="37"/>
+      <c r="CD38" s="37"/>
+      <c r="CE38" s="37"/>
+      <c r="CF38" s="37"/>
+      <c r="CG38" s="37"/>
+      <c r="CH38" s="37"/>
+      <c r="CI38" s="37"/>
+      <c r="CJ38" s="37"/>
+      <c r="CK38" s="37"/>
+      <c r="CL38" s="37"/>
+      <c r="CM38" s="37"/>
+      <c r="CN38" s="37"/>
+      <c r="CO38" s="37"/>
+      <c r="CP38" s="37"/>
+      <c r="CQ38" s="37"/>
+      <c r="CR38" s="37"/>
+      <c r="CS38" s="37"/>
+      <c r="CT38" s="37"/>
+    </row>
+    <row r="39" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="37"/>
+      <c r="BF39" s="37"/>
+      <c r="BG39" s="37"/>
+      <c r="BH39" s="37"/>
+      <c r="BI39" s="37"/>
+      <c r="BJ39" s="37"/>
+      <c r="BK39" s="37"/>
+      <c r="BL39" s="37"/>
+      <c r="BM39" s="37"/>
+      <c r="BN39" s="37"/>
+      <c r="BO39" s="37"/>
+      <c r="BP39" s="37"/>
+      <c r="BQ39" s="37"/>
+      <c r="BR39" s="37"/>
+      <c r="BS39" s="37"/>
+      <c r="BT39" s="37"/>
+      <c r="BU39" s="37"/>
+      <c r="BV39" s="37"/>
+      <c r="BW39" s="37"/>
+      <c r="BX39" s="37"/>
+      <c r="BY39" s="37"/>
+      <c r="BZ39" s="37"/>
+      <c r="CA39" s="37"/>
+      <c r="CB39" s="37"/>
+      <c r="CC39" s="37"/>
+      <c r="CD39" s="37"/>
+      <c r="CE39" s="37"/>
+      <c r="CF39" s="37"/>
+      <c r="CG39" s="37"/>
+      <c r="CH39" s="37"/>
+      <c r="CI39" s="37"/>
+      <c r="CJ39" s="37"/>
+      <c r="CK39" s="37"/>
+      <c r="CL39" s="37"/>
+      <c r="CM39" s="37"/>
+      <c r="CN39" s="37"/>
+      <c r="CO39" s="37"/>
+      <c r="CP39" s="37"/>
+      <c r="CQ39" s="37"/>
+      <c r="CR39" s="37"/>
+      <c r="CS39" s="37"/>
+      <c r="CT39" s="37"/>
+    </row>
+    <row r="40" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="37"/>
+      <c r="AX40" s="37"/>
+      <c r="AY40" s="37"/>
+      <c r="AZ40" s="37"/>
+      <c r="BA40" s="37"/>
+      <c r="BB40" s="37"/>
+      <c r="BC40" s="37"/>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="37"/>
+      <c r="BG40" s="37"/>
+      <c r="BH40" s="37"/>
+      <c r="BI40" s="37"/>
+      <c r="BJ40" s="37"/>
+      <c r="BK40" s="37"/>
+      <c r="BL40" s="37"/>
+      <c r="BM40" s="37"/>
+      <c r="BN40" s="37"/>
+      <c r="BO40" s="37"/>
+      <c r="BP40" s="37"/>
+      <c r="BQ40" s="37"/>
+      <c r="BR40" s="37"/>
+      <c r="BS40" s="37"/>
+      <c r="BT40" s="37"/>
+      <c r="BU40" s="37"/>
+      <c r="BV40" s="37"/>
+      <c r="BW40" s="37"/>
+      <c r="BX40" s="37"/>
+      <c r="BY40" s="37"/>
+      <c r="BZ40" s="37"/>
+      <c r="CA40" s="37"/>
+      <c r="CB40" s="37"/>
+      <c r="CC40" s="37"/>
+      <c r="CD40" s="37"/>
+      <c r="CE40" s="37"/>
+      <c r="CF40" s="37"/>
+      <c r="CG40" s="37"/>
+      <c r="CH40" s="37"/>
+      <c r="CI40" s="37"/>
+      <c r="CJ40" s="37"/>
+      <c r="CK40" s="37"/>
+      <c r="CL40" s="37"/>
+      <c r="CM40" s="37"/>
+      <c r="CN40" s="37"/>
+      <c r="CO40" s="37"/>
+      <c r="CP40" s="37"/>
+      <c r="CQ40" s="37"/>
+      <c r="CR40" s="37"/>
+      <c r="CS40" s="37"/>
+      <c r="CT40" s="37"/>
+    </row>
+    <row r="41" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="37"/>
+      <c r="AX41" s="37"/>
+      <c r="AY41" s="37"/>
+      <c r="AZ41" s="37"/>
+      <c r="BA41" s="37"/>
+      <c r="BB41" s="37"/>
+      <c r="BC41" s="37"/>
+      <c r="BD41" s="37"/>
+      <c r="BE41" s="37"/>
+      <c r="BF41" s="37"/>
+      <c r="BG41" s="37"/>
+      <c r="BH41" s="37"/>
+      <c r="BI41" s="37"/>
+      <c r="BJ41" s="37"/>
+      <c r="BK41" s="37"/>
+      <c r="BL41" s="37"/>
+      <c r="BM41" s="37"/>
+      <c r="BN41" s="37"/>
+      <c r="BO41" s="37"/>
+      <c r="BP41" s="37"/>
+      <c r="BQ41" s="37"/>
+      <c r="BR41" s="37"/>
+      <c r="BS41" s="37"/>
+      <c r="BT41" s="37"/>
+      <c r="BU41" s="37"/>
+      <c r="BV41" s="37"/>
+      <c r="BW41" s="37"/>
+      <c r="BX41" s="37"/>
+      <c r="BY41" s="37"/>
+      <c r="BZ41" s="37"/>
+      <c r="CA41" s="37"/>
+      <c r="CB41" s="37"/>
+      <c r="CC41" s="37"/>
+      <c r="CD41" s="37"/>
+      <c r="CE41" s="37"/>
+      <c r="CF41" s="37"/>
+      <c r="CG41" s="37"/>
+      <c r="CH41" s="37"/>
+      <c r="CI41" s="37"/>
+      <c r="CJ41" s="37"/>
+      <c r="CK41" s="37"/>
+      <c r="CL41" s="37"/>
+      <c r="CM41" s="37"/>
+      <c r="CN41" s="37"/>
+      <c r="CO41" s="37"/>
+      <c r="CP41" s="37"/>
+      <c r="CQ41" s="37"/>
+      <c r="CR41" s="37"/>
+      <c r="CS41" s="37"/>
+      <c r="CT41" s="37"/>
+    </row>
+    <row r="42" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+      <c r="BE42" s="37"/>
+      <c r="BF42" s="37"/>
+      <c r="BG42" s="37"/>
+      <c r="BH42" s="37"/>
+      <c r="BI42" s="37"/>
+      <c r="BJ42" s="37"/>
+      <c r="BK42" s="37"/>
+      <c r="BL42" s="37"/>
+      <c r="BM42" s="37"/>
+      <c r="BN42" s="37"/>
+      <c r="BO42" s="37"/>
+      <c r="BP42" s="37"/>
+      <c r="BQ42" s="37"/>
+      <c r="BR42" s="37"/>
+      <c r="BS42" s="37"/>
+      <c r="BT42" s="37"/>
+      <c r="BU42" s="37"/>
+      <c r="BV42" s="37"/>
+      <c r="BW42" s="37"/>
+      <c r="BX42" s="37"/>
+      <c r="BY42" s="37"/>
+      <c r="BZ42" s="37"/>
+      <c r="CA42" s="37"/>
+      <c r="CB42" s="37"/>
+      <c r="CC42" s="37"/>
+      <c r="CD42" s="37"/>
+      <c r="CE42" s="37"/>
+      <c r="CF42" s="37"/>
+      <c r="CG42" s="37"/>
+      <c r="CH42" s="37"/>
+      <c r="CI42" s="37"/>
+      <c r="CJ42" s="37"/>
+      <c r="CK42" s="37"/>
+      <c r="CL42" s="37"/>
+      <c r="CM42" s="37"/>
+      <c r="CN42" s="37"/>
+      <c r="CO42" s="37"/>
+      <c r="CP42" s="37"/>
+      <c r="CQ42" s="37"/>
+      <c r="CR42" s="37"/>
+      <c r="CS42" s="37"/>
+      <c r="CT42" s="37"/>
+    </row>
+    <row r="43" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="37"/>
+      <c r="AW43" s="37"/>
+      <c r="AX43" s="37"/>
+      <c r="AY43" s="37"/>
+      <c r="AZ43" s="37"/>
+      <c r="BA43" s="37"/>
+      <c r="BB43" s="37"/>
+      <c r="BC43" s="37"/>
+      <c r="BD43" s="37"/>
+      <c r="BE43" s="37"/>
+      <c r="BF43" s="37"/>
+      <c r="BG43" s="37"/>
+      <c r="BH43" s="37"/>
+      <c r="BI43" s="37"/>
+      <c r="BJ43" s="37"/>
+      <c r="BK43" s="37"/>
+      <c r="BL43" s="37"/>
+      <c r="BM43" s="37"/>
+      <c r="BN43" s="37"/>
+      <c r="BO43" s="37"/>
+      <c r="BP43" s="37"/>
+      <c r="BQ43" s="37"/>
+      <c r="BR43" s="37"/>
+      <c r="BS43" s="37"/>
+      <c r="BT43" s="37"/>
+      <c r="BU43" s="37"/>
+      <c r="BV43" s="37"/>
+      <c r="BW43" s="37"/>
+      <c r="BX43" s="37"/>
+      <c r="BY43" s="37"/>
+      <c r="BZ43" s="37"/>
+      <c r="CA43" s="37"/>
+      <c r="CB43" s="37"/>
+      <c r="CC43" s="37"/>
+      <c r="CD43" s="37"/>
+      <c r="CE43" s="37"/>
+      <c r="CF43" s="37"/>
+      <c r="CG43" s="37"/>
+      <c r="CH43" s="37"/>
+      <c r="CI43" s="37"/>
+      <c r="CJ43" s="37"/>
+      <c r="CK43" s="37"/>
+      <c r="CL43" s="37"/>
+      <c r="CM43" s="37"/>
+      <c r="CN43" s="37"/>
+      <c r="CO43" s="37"/>
+      <c r="CP43" s="37"/>
+      <c r="CQ43" s="37"/>
+      <c r="CR43" s="37"/>
+      <c r="CS43" s="37"/>
+      <c r="CT43" s="37"/>
+    </row>
+    <row r="44" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="37"/>
+      <c r="BC44" s="37"/>
+      <c r="BD44" s="37"/>
+      <c r="BE44" s="37"/>
+      <c r="BF44" s="37"/>
+      <c r="BG44" s="37"/>
+      <c r="BH44" s="37"/>
+      <c r="BI44" s="37"/>
+      <c r="BJ44" s="37"/>
+      <c r="BK44" s="37"/>
+      <c r="BL44" s="37"/>
+      <c r="BM44" s="37"/>
+      <c r="BN44" s="37"/>
+      <c r="BO44" s="37"/>
+      <c r="BP44" s="37"/>
+      <c r="BQ44" s="37"/>
+      <c r="BR44" s="37"/>
+      <c r="BS44" s="37"/>
+      <c r="BT44" s="37"/>
+      <c r="BU44" s="37"/>
+      <c r="BV44" s="37"/>
+      <c r="BW44" s="37"/>
+      <c r="BX44" s="37"/>
+      <c r="BY44" s="37"/>
+      <c r="BZ44" s="37"/>
+      <c r="CA44" s="37"/>
+      <c r="CB44" s="37"/>
+      <c r="CC44" s="37"/>
+      <c r="CD44" s="37"/>
+      <c r="CE44" s="37"/>
+      <c r="CF44" s="37"/>
+      <c r="CG44" s="37"/>
+      <c r="CH44" s="37"/>
+      <c r="CI44" s="37"/>
+      <c r="CJ44" s="37"/>
+      <c r="CK44" s="37"/>
+      <c r="CL44" s="37"/>
+      <c r="CM44" s="37"/>
+      <c r="CN44" s="37"/>
+      <c r="CO44" s="37"/>
+      <c r="CP44" s="37"/>
+      <c r="CQ44" s="37"/>
+      <c r="CR44" s="37"/>
+      <c r="CS44" s="37"/>
+      <c r="CT44" s="37"/>
+    </row>
+    <row r="45" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="37"/>
+      <c r="AV45" s="37"/>
+      <c r="AW45" s="37"/>
+      <c r="AX45" s="37"/>
+      <c r="AY45" s="37"/>
+      <c r="AZ45" s="37"/>
+      <c r="BA45" s="37"/>
+      <c r="BB45" s="37"/>
+      <c r="BC45" s="37"/>
+      <c r="BD45" s="37"/>
+      <c r="BE45" s="37"/>
+      <c r="BF45" s="37"/>
+      <c r="BG45" s="37"/>
+      <c r="BH45" s="37"/>
+      <c r="BI45" s="37"/>
+      <c r="BJ45" s="37"/>
+      <c r="BK45" s="37"/>
+      <c r="BL45" s="37"/>
+      <c r="BM45" s="37"/>
+      <c r="BN45" s="37"/>
+      <c r="BO45" s="37"/>
+      <c r="BP45" s="37"/>
+      <c r="BQ45" s="37"/>
+      <c r="BR45" s="37"/>
+      <c r="BS45" s="37"/>
+      <c r="BT45" s="37"/>
+      <c r="BU45" s="37"/>
+      <c r="BV45" s="37"/>
+      <c r="BW45" s="37"/>
+      <c r="BX45" s="37"/>
+      <c r="BY45" s="37"/>
+      <c r="BZ45" s="37"/>
+      <c r="CA45" s="37"/>
+      <c r="CB45" s="37"/>
+      <c r="CC45" s="37"/>
+      <c r="CD45" s="37"/>
+      <c r="CE45" s="37"/>
+      <c r="CF45" s="37"/>
+      <c r="CG45" s="37"/>
+      <c r="CH45" s="37"/>
+      <c r="CI45" s="37"/>
+      <c r="CJ45" s="37"/>
+      <c r="CK45" s="37"/>
+      <c r="CL45" s="37"/>
+      <c r="CM45" s="37"/>
+      <c r="CN45" s="37"/>
+      <c r="CO45" s="37"/>
+      <c r="CP45" s="37"/>
+      <c r="CQ45" s="37"/>
+      <c r="CR45" s="37"/>
+      <c r="CS45" s="37"/>
+      <c r="CT45" s="37"/>
+    </row>
+    <row r="46" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="37"/>
+      <c r="AX46" s="37"/>
+      <c r="AY46" s="37"/>
+      <c r="AZ46" s="37"/>
+      <c r="BA46" s="37"/>
+      <c r="BB46" s="37"/>
+      <c r="BC46" s="37"/>
+      <c r="BD46" s="37"/>
+      <c r="BE46" s="37"/>
+      <c r="BF46" s="37"/>
+      <c r="BG46" s="37"/>
+      <c r="BH46" s="37"/>
+      <c r="BI46" s="37"/>
+      <c r="BJ46" s="37"/>
+      <c r="BK46" s="37"/>
+      <c r="BL46" s="37"/>
+      <c r="BM46" s="37"/>
+      <c r="BN46" s="37"/>
+      <c r="BO46" s="37"/>
+      <c r="BP46" s="37"/>
+      <c r="BQ46" s="37"/>
+      <c r="BR46" s="37"/>
+      <c r="BS46" s="37"/>
+      <c r="BT46" s="37"/>
+      <c r="BU46" s="37"/>
+      <c r="BV46" s="37"/>
+      <c r="BW46" s="37"/>
+      <c r="BX46" s="37"/>
+      <c r="BY46" s="37"/>
+      <c r="BZ46" s="37"/>
+      <c r="CA46" s="37"/>
+      <c r="CB46" s="37"/>
+      <c r="CC46" s="37"/>
+      <c r="CD46" s="37"/>
+      <c r="CE46" s="37"/>
+      <c r="CF46" s="37"/>
+      <c r="CG46" s="37"/>
+      <c r="CH46" s="37"/>
+      <c r="CI46" s="37"/>
+      <c r="CJ46" s="37"/>
+      <c r="CK46" s="37"/>
+      <c r="CL46" s="37"/>
+      <c r="CM46" s="37"/>
+      <c r="CN46" s="37"/>
+      <c r="CO46" s="37"/>
+      <c r="CP46" s="37"/>
+      <c r="CQ46" s="37"/>
+      <c r="CR46" s="37"/>
+      <c r="CS46" s="37"/>
+      <c r="CT46" s="37"/>
+    </row>
+    <row r="47" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT47" s="37"/>
+      <c r="AU47" s="37"/>
+      <c r="AV47" s="37"/>
+      <c r="AW47" s="37"/>
+      <c r="AX47" s="37"/>
+      <c r="AY47" s="37"/>
+      <c r="AZ47" s="37"/>
+      <c r="BA47" s="37"/>
+      <c r="BB47" s="37"/>
+      <c r="BC47" s="37"/>
+      <c r="BD47" s="37"/>
+      <c r="BE47" s="37"/>
+      <c r="BF47" s="37"/>
+      <c r="BG47" s="37"/>
+      <c r="BH47" s="37"/>
+      <c r="BI47" s="37"/>
+      <c r="BJ47" s="37"/>
+      <c r="BK47" s="37"/>
+      <c r="BL47" s="37"/>
+      <c r="BM47" s="37"/>
+      <c r="BN47" s="37"/>
+      <c r="BO47" s="37"/>
+      <c r="BP47" s="37"/>
+      <c r="BQ47" s="37"/>
+      <c r="BR47" s="37"/>
+      <c r="BS47" s="37"/>
+      <c r="BT47" s="37"/>
+      <c r="BU47" s="37"/>
+      <c r="BV47" s="37"/>
+      <c r="BW47" s="37"/>
+      <c r="BX47" s="37"/>
+      <c r="BY47" s="37"/>
+      <c r="BZ47" s="37"/>
+      <c r="CA47" s="37"/>
+      <c r="CB47" s="37"/>
+      <c r="CC47" s="37"/>
+      <c r="CD47" s="37"/>
+      <c r="CE47" s="37"/>
+      <c r="CF47" s="37"/>
+      <c r="CG47" s="37"/>
+      <c r="CH47" s="37"/>
+      <c r="CI47" s="37"/>
+      <c r="CJ47" s="37"/>
+      <c r="CK47" s="37"/>
+      <c r="CL47" s="37"/>
+      <c r="CM47" s="37"/>
+      <c r="CN47" s="37"/>
+      <c r="CO47" s="37"/>
+      <c r="CP47" s="37"/>
+      <c r="CQ47" s="37"/>
+      <c r="CR47" s="37"/>
+      <c r="CS47" s="37"/>
+      <c r="CT47" s="37"/>
+    </row>
+    <row r="48" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT48" s="37"/>
+      <c r="AU48" s="37"/>
+      <c r="AV48" s="37"/>
+      <c r="AW48" s="37"/>
+      <c r="AX48" s="37"/>
+      <c r="AY48" s="37"/>
+      <c r="AZ48" s="37"/>
+      <c r="BA48" s="37"/>
+      <c r="BB48" s="37"/>
+      <c r="BC48" s="37"/>
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="37"/>
+      <c r="BF48" s="37"/>
+      <c r="BG48" s="37"/>
+      <c r="BH48" s="37"/>
+      <c r="BI48" s="37"/>
+      <c r="BJ48" s="37"/>
+      <c r="BK48" s="37"/>
+      <c r="BL48" s="37"/>
+      <c r="BM48" s="37"/>
+      <c r="BN48" s="37"/>
+      <c r="BO48" s="37"/>
+      <c r="BP48" s="37"/>
+      <c r="BQ48" s="37"/>
+      <c r="BR48" s="37"/>
+      <c r="BS48" s="37"/>
+      <c r="BT48" s="37"/>
+      <c r="BU48" s="37"/>
+      <c r="BV48" s="37"/>
+      <c r="BW48" s="37"/>
+      <c r="BX48" s="37"/>
+      <c r="BY48" s="37"/>
+      <c r="BZ48" s="37"/>
+      <c r="CA48" s="37"/>
+      <c r="CB48" s="37"/>
+      <c r="CC48" s="37"/>
+      <c r="CD48" s="37"/>
+      <c r="CE48" s="37"/>
+      <c r="CF48" s="37"/>
+      <c r="CG48" s="37"/>
+      <c r="CH48" s="37"/>
+      <c r="CI48" s="37"/>
+      <c r="CJ48" s="37"/>
+      <c r="CK48" s="37"/>
+      <c r="CL48" s="37"/>
+      <c r="CM48" s="37"/>
+      <c r="CN48" s="37"/>
+      <c r="CO48" s="37"/>
+      <c r="CP48" s="37"/>
+      <c r="CQ48" s="37"/>
+      <c r="CR48" s="37"/>
+      <c r="CS48" s="37"/>
+      <c r="CT48" s="37"/>
+    </row>
+    <row r="49" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT49" s="37"/>
+      <c r="AU49" s="37"/>
+      <c r="AV49" s="37"/>
+      <c r="AW49" s="37"/>
+      <c r="AX49" s="37"/>
+      <c r="AY49" s="37"/>
+      <c r="AZ49" s="37"/>
+      <c r="BA49" s="37"/>
+      <c r="BB49" s="37"/>
+      <c r="BC49" s="37"/>
+      <c r="BD49" s="37"/>
+      <c r="BE49" s="37"/>
+      <c r="BF49" s="37"/>
+      <c r="BG49" s="37"/>
+      <c r="BH49" s="37"/>
+      <c r="BI49" s="37"/>
+      <c r="BJ49" s="37"/>
+      <c r="BK49" s="37"/>
+      <c r="BL49" s="37"/>
+      <c r="BM49" s="37"/>
+      <c r="BN49" s="37"/>
+      <c r="BO49" s="37"/>
+      <c r="BP49" s="37"/>
+      <c r="BQ49" s="37"/>
+      <c r="BR49" s="37"/>
+      <c r="BS49" s="37"/>
+      <c r="BT49" s="37"/>
+      <c r="BU49" s="37"/>
+      <c r="BV49" s="37"/>
+      <c r="BW49" s="37"/>
+      <c r="BX49" s="37"/>
+      <c r="BY49" s="37"/>
+      <c r="BZ49" s="37"/>
+      <c r="CA49" s="37"/>
+      <c r="CB49" s="37"/>
+      <c r="CC49" s="37"/>
+      <c r="CD49" s="37"/>
+      <c r="CE49" s="37"/>
+      <c r="CF49" s="37"/>
+      <c r="CG49" s="37"/>
+      <c r="CH49" s="37"/>
+      <c r="CI49" s="37"/>
+      <c r="CJ49" s="37"/>
+      <c r="CK49" s="37"/>
+      <c r="CL49" s="37"/>
+      <c r="CM49" s="37"/>
+      <c r="CN49" s="37"/>
+      <c r="CO49" s="37"/>
+      <c r="CP49" s="37"/>
+      <c r="CQ49" s="37"/>
+      <c r="CR49" s="37"/>
+      <c r="CS49" s="37"/>
+      <c r="CT49" s="37"/>
+    </row>
+    <row r="50" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT50" s="37"/>
+      <c r="AU50" s="37"/>
+      <c r="AV50" s="37"/>
+      <c r="AW50" s="37"/>
+      <c r="AX50" s="37"/>
+      <c r="AY50" s="37"/>
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
+      <c r="BE50" s="37"/>
+      <c r="BF50" s="37"/>
+      <c r="BG50" s="37"/>
+      <c r="BH50" s="37"/>
+      <c r="BI50" s="37"/>
+      <c r="BJ50" s="37"/>
+      <c r="BK50" s="37"/>
+      <c r="BL50" s="37"/>
+      <c r="BM50" s="37"/>
+      <c r="BN50" s="37"/>
+      <c r="BO50" s="37"/>
+      <c r="BP50" s="37"/>
+      <c r="BQ50" s="37"/>
+      <c r="BR50" s="37"/>
+      <c r="BS50" s="37"/>
+      <c r="BT50" s="37"/>
+      <c r="BU50" s="37"/>
+      <c r="BV50" s="37"/>
+      <c r="BW50" s="37"/>
+      <c r="BX50" s="37"/>
+      <c r="BY50" s="37"/>
+      <c r="BZ50" s="37"/>
+      <c r="CA50" s="37"/>
+      <c r="CB50" s="37"/>
+      <c r="CC50" s="37"/>
+      <c r="CD50" s="37"/>
+      <c r="CE50" s="37"/>
+      <c r="CF50" s="37"/>
+      <c r="CG50" s="37"/>
+      <c r="CH50" s="37"/>
+      <c r="CI50" s="37"/>
+      <c r="CJ50" s="37"/>
+      <c r="CK50" s="37"/>
+      <c r="CL50" s="37"/>
+      <c r="CM50" s="37"/>
+      <c r="CN50" s="37"/>
+      <c r="CO50" s="37"/>
+      <c r="CP50" s="37"/>
+      <c r="CQ50" s="37"/>
+      <c r="CR50" s="37"/>
+      <c r="CS50" s="37"/>
+      <c r="CT50" s="37"/>
+    </row>
+    <row r="51" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT51" s="37"/>
+      <c r="AU51" s="37"/>
+      <c r="AV51" s="37"/>
+      <c r="AW51" s="37"/>
+      <c r="AX51" s="37"/>
+      <c r="AY51" s="37"/>
+      <c r="AZ51" s="37"/>
+      <c r="BA51" s="37"/>
+      <c r="BB51" s="37"/>
+      <c r="BC51" s="37"/>
+      <c r="BD51" s="37"/>
+      <c r="BE51" s="37"/>
+      <c r="BF51" s="37"/>
+      <c r="BG51" s="37"/>
+      <c r="BH51" s="37"/>
+      <c r="BI51" s="37"/>
+      <c r="BJ51" s="37"/>
+      <c r="BK51" s="37"/>
+      <c r="BL51" s="37"/>
+      <c r="BM51" s="37"/>
+      <c r="BN51" s="37"/>
+      <c r="BO51" s="37"/>
+      <c r="BP51" s="37"/>
+      <c r="BQ51" s="37"/>
+      <c r="BR51" s="37"/>
+      <c r="BS51" s="37"/>
+      <c r="BT51" s="37"/>
+      <c r="BU51" s="37"/>
+      <c r="BV51" s="37"/>
+      <c r="BW51" s="37"/>
+      <c r="BX51" s="37"/>
+      <c r="BY51" s="37"/>
+      <c r="BZ51" s="37"/>
+      <c r="CA51" s="37"/>
+      <c r="CB51" s="37"/>
+      <c r="CC51" s="37"/>
+      <c r="CD51" s="37"/>
+      <c r="CE51" s="37"/>
+      <c r="CF51" s="37"/>
+      <c r="CG51" s="37"/>
+      <c r="CH51" s="37"/>
+      <c r="CI51" s="37"/>
+      <c r="CJ51" s="37"/>
+      <c r="CK51" s="37"/>
+      <c r="CL51" s="37"/>
+      <c r="CM51" s="37"/>
+      <c r="CN51" s="37"/>
+      <c r="CO51" s="37"/>
+      <c r="CP51" s="37"/>
+      <c r="CQ51" s="37"/>
+      <c r="CR51" s="37"/>
+      <c r="CS51" s="37"/>
+      <c r="CT51" s="37"/>
+    </row>
+    <row r="52" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT52" s="37"/>
+      <c r="AU52" s="37"/>
+      <c r="AV52" s="37"/>
+      <c r="AW52" s="37"/>
+      <c r="AX52" s="37"/>
+      <c r="AY52" s="37"/>
+      <c r="AZ52" s="37"/>
+      <c r="BA52" s="37"/>
+      <c r="BB52" s="37"/>
+      <c r="BC52" s="37"/>
+      <c r="BD52" s="37"/>
+      <c r="BE52" s="37"/>
+      <c r="BF52" s="37"/>
+      <c r="BG52" s="37"/>
+      <c r="BH52" s="37"/>
+      <c r="BI52" s="37"/>
+      <c r="BJ52" s="37"/>
+      <c r="BK52" s="37"/>
+      <c r="BL52" s="37"/>
+      <c r="BM52" s="37"/>
+      <c r="BN52" s="37"/>
+      <c r="BO52" s="37"/>
+      <c r="BP52" s="37"/>
+      <c r="BQ52" s="37"/>
+      <c r="BR52" s="37"/>
+      <c r="BS52" s="37"/>
+      <c r="BT52" s="37"/>
+      <c r="BU52" s="37"/>
+      <c r="BV52" s="37"/>
+      <c r="BW52" s="37"/>
+      <c r="BX52" s="37"/>
+      <c r="BY52" s="37"/>
+      <c r="BZ52" s="37"/>
+      <c r="CA52" s="37"/>
+      <c r="CB52" s="37"/>
+      <c r="CC52" s="37"/>
+      <c r="CD52" s="37"/>
+      <c r="CE52" s="37"/>
+      <c r="CF52" s="37"/>
+      <c r="CG52" s="37"/>
+      <c r="CH52" s="37"/>
+      <c r="CI52" s="37"/>
+      <c r="CJ52" s="37"/>
+      <c r="CK52" s="37"/>
+      <c r="CL52" s="37"/>
+      <c r="CM52" s="37"/>
+      <c r="CN52" s="37"/>
+      <c r="CO52" s="37"/>
+      <c r="CP52" s="37"/>
+      <c r="CQ52" s="37"/>
+      <c r="CR52" s="37"/>
+      <c r="CS52" s="37"/>
+      <c r="CT52" s="37"/>
+    </row>
+    <row r="53" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT53" s="37"/>
+      <c r="AU53" s="37"/>
+      <c r="AV53" s="37"/>
+      <c r="AW53" s="37"/>
+      <c r="AX53" s="37"/>
+      <c r="AY53" s="37"/>
+      <c r="AZ53" s="37"/>
+      <c r="BA53" s="37"/>
+      <c r="BB53" s="37"/>
+      <c r="BC53" s="37"/>
+      <c r="BD53" s="37"/>
+      <c r="BE53" s="37"/>
+      <c r="BF53" s="37"/>
+      <c r="BG53" s="37"/>
+      <c r="BH53" s="37"/>
+      <c r="BI53" s="37"/>
+      <c r="BJ53" s="37"/>
+      <c r="BK53" s="37"/>
+      <c r="BL53" s="37"/>
+      <c r="BM53" s="37"/>
+      <c r="BN53" s="37"/>
+      <c r="BO53" s="37"/>
+      <c r="BP53" s="37"/>
+      <c r="BQ53" s="37"/>
+      <c r="BR53" s="37"/>
+      <c r="BS53" s="37"/>
+      <c r="BT53" s="37"/>
+      <c r="BU53" s="37"/>
+      <c r="BV53" s="37"/>
+      <c r="BW53" s="37"/>
+      <c r="BX53" s="37"/>
+      <c r="BY53" s="37"/>
+      <c r="BZ53" s="37"/>
+      <c r="CA53" s="37"/>
+      <c r="CB53" s="37"/>
+      <c r="CC53" s="37"/>
+      <c r="CD53" s="37"/>
+      <c r="CE53" s="37"/>
+      <c r="CF53" s="37"/>
+      <c r="CG53" s="37"/>
+      <c r="CH53" s="37"/>
+      <c r="CI53" s="37"/>
+      <c r="CJ53" s="37"/>
+      <c r="CK53" s="37"/>
+      <c r="CL53" s="37"/>
+      <c r="CM53" s="37"/>
+      <c r="CN53" s="37"/>
+      <c r="CO53" s="37"/>
+      <c r="CP53" s="37"/>
+      <c r="CQ53" s="37"/>
+      <c r="CR53" s="37"/>
+      <c r="CS53" s="37"/>
+      <c r="CT53" s="37"/>
+    </row>
+    <row r="54" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT54" s="37"/>
+      <c r="AU54" s="37"/>
+      <c r="AV54" s="37"/>
+      <c r="AW54" s="37"/>
+      <c r="AX54" s="37"/>
+      <c r="AY54" s="37"/>
+      <c r="AZ54" s="37"/>
+      <c r="BA54" s="37"/>
+      <c r="BB54" s="37"/>
+      <c r="BC54" s="37"/>
+      <c r="BD54" s="37"/>
+      <c r="BE54" s="37"/>
+      <c r="BF54" s="37"/>
+      <c r="BG54" s="37"/>
+      <c r="BH54" s="37"/>
+      <c r="BI54" s="37"/>
+      <c r="BJ54" s="37"/>
+      <c r="BK54" s="37"/>
+      <c r="BL54" s="37"/>
+      <c r="BM54" s="37"/>
+      <c r="BN54" s="37"/>
+      <c r="BO54" s="37"/>
+      <c r="BP54" s="37"/>
+      <c r="BQ54" s="37"/>
+      <c r="BR54" s="37"/>
+      <c r="BS54" s="37"/>
+      <c r="BT54" s="37"/>
+      <c r="BU54" s="37"/>
+      <c r="BV54" s="37"/>
+      <c r="BW54" s="37"/>
+      <c r="BX54" s="37"/>
+      <c r="BY54" s="37"/>
+      <c r="BZ54" s="37"/>
+      <c r="CA54" s="37"/>
+      <c r="CB54" s="37"/>
+      <c r="CC54" s="37"/>
+      <c r="CD54" s="37"/>
+      <c r="CE54" s="37"/>
+      <c r="CF54" s="37"/>
+      <c r="CG54" s="37"/>
+      <c r="CH54" s="37"/>
+      <c r="CI54" s="37"/>
+      <c r="CJ54" s="37"/>
+      <c r="CK54" s="37"/>
+      <c r="CL54" s="37"/>
+      <c r="CM54" s="37"/>
+      <c r="CN54" s="37"/>
+      <c r="CO54" s="37"/>
+      <c r="CP54" s="37"/>
+      <c r="CQ54" s="37"/>
+      <c r="CR54" s="37"/>
+      <c r="CS54" s="37"/>
+      <c r="CT54" s="37"/>
+    </row>
+    <row r="55" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT55" s="37"/>
+      <c r="AU55" s="37"/>
+      <c r="AV55" s="37"/>
+      <c r="AW55" s="37"/>
+      <c r="AX55" s="37"/>
+      <c r="AY55" s="37"/>
+      <c r="AZ55" s="37"/>
+      <c r="BA55" s="37"/>
+      <c r="BB55" s="37"/>
+      <c r="BC55" s="37"/>
+      <c r="BD55" s="37"/>
+      <c r="BE55" s="37"/>
+      <c r="BF55" s="37"/>
+      <c r="BG55" s="37"/>
+      <c r="BH55" s="37"/>
+      <c r="BI55" s="37"/>
+      <c r="BJ55" s="37"/>
+      <c r="BK55" s="37"/>
+      <c r="BL55" s="37"/>
+      <c r="BM55" s="37"/>
+      <c r="BN55" s="37"/>
+      <c r="BO55" s="37"/>
+      <c r="BP55" s="37"/>
+      <c r="BQ55" s="37"/>
+      <c r="BR55" s="37"/>
+      <c r="BS55" s="37"/>
+      <c r="BT55" s="37"/>
+      <c r="BU55" s="37"/>
+      <c r="BV55" s="37"/>
+      <c r="BW55" s="37"/>
+      <c r="BX55" s="37"/>
+      <c r="BY55" s="37"/>
+      <c r="BZ55" s="37"/>
+      <c r="CA55" s="37"/>
+      <c r="CB55" s="37"/>
+      <c r="CC55" s="37"/>
+      <c r="CD55" s="37"/>
+      <c r="CE55" s="37"/>
+      <c r="CF55" s="37"/>
+      <c r="CG55" s="37"/>
+      <c r="CH55" s="37"/>
+      <c r="CI55" s="37"/>
+      <c r="CJ55" s="37"/>
+      <c r="CK55" s="37"/>
+      <c r="CL55" s="37"/>
+      <c r="CM55" s="37"/>
+      <c r="CN55" s="37"/>
+      <c r="CO55" s="37"/>
+      <c r="CP55" s="37"/>
+      <c r="CQ55" s="37"/>
+      <c r="CR55" s="37"/>
+      <c r="CS55" s="37"/>
+      <c r="CT55" s="37"/>
+    </row>
+    <row r="56" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT56" s="37"/>
+      <c r="AU56" s="37"/>
+      <c r="AV56" s="37"/>
+      <c r="AW56" s="37"/>
+      <c r="AX56" s="37"/>
+      <c r="AY56" s="37"/>
+      <c r="AZ56" s="37"/>
+      <c r="BA56" s="37"/>
+      <c r="BB56" s="37"/>
+      <c r="BC56" s="37"/>
+      <c r="BD56" s="37"/>
+      <c r="BE56" s="37"/>
+      <c r="BF56" s="37"/>
+      <c r="BG56" s="37"/>
+      <c r="BH56" s="37"/>
+      <c r="BI56" s="37"/>
+      <c r="BJ56" s="37"/>
+      <c r="BK56" s="37"/>
+      <c r="BL56" s="37"/>
+      <c r="BM56" s="37"/>
+      <c r="BN56" s="37"/>
+      <c r="BO56" s="37"/>
+      <c r="BP56" s="37"/>
+      <c r="BQ56" s="37"/>
+      <c r="BR56" s="37"/>
+      <c r="BS56" s="37"/>
+      <c r="BT56" s="37"/>
+      <c r="BU56" s="37"/>
+      <c r="BV56" s="37"/>
+      <c r="BW56" s="37"/>
+      <c r="BX56" s="37"/>
+      <c r="BY56" s="37"/>
+      <c r="BZ56" s="37"/>
+      <c r="CA56" s="37"/>
+      <c r="CB56" s="37"/>
+      <c r="CC56" s="37"/>
+      <c r="CD56" s="37"/>
+      <c r="CE56" s="37"/>
+      <c r="CF56" s="37"/>
+      <c r="CG56" s="37"/>
+      <c r="CH56" s="37"/>
+      <c r="CI56" s="37"/>
+      <c r="CJ56" s="37"/>
+      <c r="CK56" s="37"/>
+      <c r="CL56" s="37"/>
+      <c r="CM56" s="37"/>
+      <c r="CN56" s="37"/>
+      <c r="CO56" s="37"/>
+      <c r="CP56" s="37"/>
+      <c r="CQ56" s="37"/>
+      <c r="CR56" s="37"/>
+      <c r="CS56" s="37"/>
+      <c r="CT56" s="37"/>
+    </row>
+    <row r="57" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT57" s="37"/>
+      <c r="AU57" s="37"/>
+      <c r="AV57" s="37"/>
+      <c r="AW57" s="37"/>
+      <c r="AX57" s="37"/>
+      <c r="AY57" s="37"/>
+      <c r="AZ57" s="37"/>
+      <c r="BA57" s="37"/>
+      <c r="BB57" s="37"/>
+      <c r="BC57" s="37"/>
+      <c r="BD57" s="37"/>
+      <c r="BE57" s="37"/>
+      <c r="BF57" s="37"/>
+      <c r="BG57" s="37"/>
+      <c r="BH57" s="37"/>
+      <c r="BI57" s="37"/>
+      <c r="BJ57" s="37"/>
+      <c r="BK57" s="37"/>
+      <c r="BL57" s="37"/>
+      <c r="BM57" s="37"/>
+      <c r="BN57" s="37"/>
+      <c r="BO57" s="37"/>
+      <c r="BP57" s="37"/>
+      <c r="BQ57" s="37"/>
+      <c r="BR57" s="37"/>
+      <c r="BS57" s="37"/>
+      <c r="BT57" s="37"/>
+      <c r="BU57" s="37"/>
+      <c r="BV57" s="37"/>
+      <c r="BW57" s="37"/>
+      <c r="BX57" s="37"/>
+      <c r="BY57" s="37"/>
+      <c r="BZ57" s="37"/>
+      <c r="CA57" s="37"/>
+      <c r="CB57" s="37"/>
+      <c r="CC57" s="37"/>
+      <c r="CD57" s="37"/>
+      <c r="CE57" s="37"/>
+      <c r="CF57" s="37"/>
+      <c r="CG57" s="37"/>
+      <c r="CH57" s="37"/>
+      <c r="CI57" s="37"/>
+      <c r="CJ57" s="37"/>
+      <c r="CK57" s="37"/>
+      <c r="CL57" s="37"/>
+      <c r="CM57" s="37"/>
+      <c r="CN57" s="37"/>
+      <c r="CO57" s="37"/>
+      <c r="CP57" s="37"/>
+      <c r="CQ57" s="37"/>
+      <c r="CR57" s="37"/>
+      <c r="CS57" s="37"/>
+      <c r="CT57" s="37"/>
+    </row>
+    <row r="58" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT58" s="37"/>
+      <c r="AU58" s="37"/>
+      <c r="AV58" s="37"/>
+      <c r="AW58" s="37"/>
+      <c r="AX58" s="37"/>
+      <c r="AY58" s="37"/>
+      <c r="AZ58" s="37"/>
+      <c r="BA58" s="37"/>
+      <c r="BB58" s="37"/>
+      <c r="BC58" s="37"/>
+      <c r="BD58" s="37"/>
+      <c r="BE58" s="37"/>
+      <c r="BF58" s="37"/>
+      <c r="BG58" s="37"/>
+      <c r="BH58" s="37"/>
+      <c r="BI58" s="37"/>
+      <c r="BJ58" s="37"/>
+      <c r="BK58" s="37"/>
+      <c r="BL58" s="37"/>
+      <c r="BM58" s="37"/>
+      <c r="BN58" s="37"/>
+      <c r="BO58" s="37"/>
+      <c r="BP58" s="37"/>
+      <c r="BQ58" s="37"/>
+      <c r="BR58" s="37"/>
+      <c r="BS58" s="37"/>
+      <c r="BT58" s="37"/>
+      <c r="BU58" s="37"/>
+      <c r="BV58" s="37"/>
+      <c r="BW58" s="37"/>
+      <c r="BX58" s="37"/>
+      <c r="BY58" s="37"/>
+      <c r="BZ58" s="37"/>
+      <c r="CA58" s="37"/>
+      <c r="CB58" s="37"/>
+      <c r="CC58" s="37"/>
+      <c r="CD58" s="37"/>
+      <c r="CE58" s="37"/>
+      <c r="CF58" s="37"/>
+      <c r="CG58" s="37"/>
+      <c r="CH58" s="37"/>
+      <c r="CI58" s="37"/>
+      <c r="CJ58" s="37"/>
+      <c r="CK58" s="37"/>
+      <c r="CL58" s="37"/>
+      <c r="CM58" s="37"/>
+      <c r="CN58" s="37"/>
+      <c r="CO58" s="37"/>
+      <c r="CP58" s="37"/>
+      <c r="CQ58" s="37"/>
+      <c r="CR58" s="37"/>
+      <c r="CS58" s="37"/>
+      <c r="CT58" s="37"/>
+    </row>
+    <row r="59" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT59" s="37"/>
+      <c r="AU59" s="37"/>
+      <c r="AV59" s="37"/>
+      <c r="AW59" s="37"/>
+      <c r="AX59" s="37"/>
+      <c r="AY59" s="37"/>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="37"/>
+      <c r="BC59" s="37"/>
+      <c r="BD59" s="37"/>
+      <c r="BE59" s="37"/>
+      <c r="BF59" s="37"/>
+      <c r="BG59" s="37"/>
+      <c r="BH59" s="37"/>
+      <c r="BI59" s="37"/>
+      <c r="BJ59" s="37"/>
+      <c r="BK59" s="37"/>
+      <c r="BL59" s="37"/>
+      <c r="BM59" s="37"/>
+      <c r="BN59" s="37"/>
+      <c r="BO59" s="37"/>
+      <c r="BP59" s="37"/>
+      <c r="BQ59" s="37"/>
+      <c r="BR59" s="37"/>
+      <c r="BS59" s="37"/>
+      <c r="BT59" s="37"/>
+      <c r="BU59" s="37"/>
+      <c r="BV59" s="37"/>
+      <c r="BW59" s="37"/>
+      <c r="BX59" s="37"/>
+      <c r="BY59" s="37"/>
+      <c r="BZ59" s="37"/>
+      <c r="CA59" s="37"/>
+      <c r="CB59" s="37"/>
+      <c r="CC59" s="37"/>
+      <c r="CD59" s="37"/>
+      <c r="CE59" s="37"/>
+      <c r="CF59" s="37"/>
+      <c r="CG59" s="37"/>
+      <c r="CH59" s="37"/>
+      <c r="CI59" s="37"/>
+      <c r="CJ59" s="37"/>
+      <c r="CK59" s="37"/>
+      <c r="CL59" s="37"/>
+      <c r="CM59" s="37"/>
+      <c r="CN59" s="37"/>
+      <c r="CO59" s="37"/>
+      <c r="CP59" s="37"/>
+      <c r="CQ59" s="37"/>
+      <c r="CR59" s="37"/>
+      <c r="CS59" s="37"/>
+      <c r="CT59" s="37"/>
+    </row>
+    <row r="60" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT60" s="37"/>
+      <c r="AU60" s="37"/>
+      <c r="AV60" s="37"/>
+      <c r="AW60" s="37"/>
+      <c r="AX60" s="37"/>
+      <c r="AY60" s="37"/>
+      <c r="AZ60" s="37"/>
+      <c r="BA60" s="37"/>
+      <c r="BB60" s="37"/>
+      <c r="BC60" s="37"/>
+      <c r="BD60" s="37"/>
+      <c r="BE60" s="37"/>
+      <c r="BF60" s="37"/>
+      <c r="BG60" s="37"/>
+      <c r="BH60" s="37"/>
+      <c r="BI60" s="37"/>
+      <c r="BJ60" s="37"/>
+      <c r="BK60" s="37"/>
+      <c r="BL60" s="37"/>
+      <c r="BM60" s="37"/>
+      <c r="BN60" s="37"/>
+      <c r="BO60" s="37"/>
+      <c r="BP60" s="37"/>
+      <c r="BQ60" s="37"/>
+      <c r="BR60" s="37"/>
+      <c r="BS60" s="37"/>
+      <c r="BT60" s="37"/>
+      <c r="BU60" s="37"/>
+      <c r="BV60" s="37"/>
+      <c r="BW60" s="37"/>
+      <c r="BX60" s="37"/>
+      <c r="BY60" s="37"/>
+      <c r="BZ60" s="37"/>
+      <c r="CA60" s="37"/>
+      <c r="CB60" s="37"/>
+      <c r="CC60" s="37"/>
+      <c r="CD60" s="37"/>
+      <c r="CE60" s="37"/>
+      <c r="CF60" s="37"/>
+      <c r="CG60" s="37"/>
+      <c r="CH60" s="37"/>
+      <c r="CI60" s="37"/>
+      <c r="CJ60" s="37"/>
+      <c r="CK60" s="37"/>
+      <c r="CL60" s="37"/>
+      <c r="CM60" s="37"/>
+      <c r="CN60" s="37"/>
+      <c r="CO60" s="37"/>
+      <c r="CP60" s="37"/>
+      <c r="CQ60" s="37"/>
+      <c r="CR60" s="37"/>
+      <c r="CS60" s="37"/>
+      <c r="CT60" s="37"/>
+    </row>
+    <row r="61" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT61" s="37"/>
+      <c r="AU61" s="37"/>
+      <c r="AV61" s="37"/>
+      <c r="AW61" s="37"/>
+      <c r="AX61" s="37"/>
+      <c r="AY61" s="37"/>
+      <c r="AZ61" s="37"/>
+      <c r="BA61" s="37"/>
+      <c r="BB61" s="37"/>
+      <c r="BC61" s="37"/>
+      <c r="BD61" s="37"/>
+      <c r="BE61" s="37"/>
+      <c r="BF61" s="37"/>
+      <c r="BG61" s="37"/>
+      <c r="BH61" s="37"/>
+      <c r="BI61" s="37"/>
+      <c r="BJ61" s="37"/>
+      <c r="BK61" s="37"/>
+      <c r="BL61" s="37"/>
+      <c r="BM61" s="37"/>
+      <c r="BN61" s="37"/>
+      <c r="BO61" s="37"/>
+      <c r="BP61" s="37"/>
+      <c r="BQ61" s="37"/>
+      <c r="BR61" s="37"/>
+      <c r="BS61" s="37"/>
+      <c r="BT61" s="37"/>
+      <c r="BU61" s="37"/>
+      <c r="BV61" s="37"/>
+      <c r="BW61" s="37"/>
+      <c r="BX61" s="37"/>
+      <c r="BY61" s="37"/>
+      <c r="BZ61" s="37"/>
+      <c r="CA61" s="37"/>
+      <c r="CB61" s="37"/>
+      <c r="CC61" s="37"/>
+      <c r="CD61" s="37"/>
+      <c r="CE61" s="37"/>
+      <c r="CF61" s="37"/>
+      <c r="CG61" s="37"/>
+      <c r="CH61" s="37"/>
+      <c r="CI61" s="37"/>
+      <c r="CJ61" s="37"/>
+      <c r="CK61" s="37"/>
+      <c r="CL61" s="37"/>
+      <c r="CM61" s="37"/>
+      <c r="CN61" s="37"/>
+      <c r="CO61" s="37"/>
+      <c r="CP61" s="37"/>
+      <c r="CQ61" s="37"/>
+      <c r="CR61" s="37"/>
+      <c r="CS61" s="37"/>
+      <c r="CT61" s="37"/>
+    </row>
+    <row r="62" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT62" s="37"/>
+      <c r="AU62" s="37"/>
+      <c r="AV62" s="37"/>
+      <c r="AW62" s="37"/>
+      <c r="AX62" s="37"/>
+      <c r="AY62" s="37"/>
+      <c r="AZ62" s="37"/>
+      <c r="BA62" s="37"/>
+      <c r="BB62" s="37"/>
+      <c r="BC62" s="37"/>
+      <c r="BD62" s="37"/>
+      <c r="BE62" s="37"/>
+      <c r="BF62" s="37"/>
+      <c r="BG62" s="37"/>
+      <c r="BH62" s="37"/>
+      <c r="BI62" s="37"/>
+      <c r="BJ62" s="37"/>
+      <c r="BK62" s="37"/>
+      <c r="BL62" s="37"/>
+      <c r="BM62" s="37"/>
+      <c r="BN62" s="37"/>
+      <c r="BO62" s="37"/>
+      <c r="BP62" s="37"/>
+      <c r="BQ62" s="37"/>
+      <c r="BR62" s="37"/>
+      <c r="BS62" s="37"/>
+      <c r="BT62" s="37"/>
+      <c r="BU62" s="37"/>
+      <c r="BV62" s="37"/>
+      <c r="BW62" s="37"/>
+      <c r="BX62" s="37"/>
+      <c r="BY62" s="37"/>
+      <c r="BZ62" s="37"/>
+      <c r="CA62" s="37"/>
+      <c r="CB62" s="37"/>
+      <c r="CC62" s="37"/>
+      <c r="CD62" s="37"/>
+      <c r="CE62" s="37"/>
+      <c r="CF62" s="37"/>
+      <c r="CG62" s="37"/>
+      <c r="CH62" s="37"/>
+      <c r="CI62" s="37"/>
+      <c r="CJ62" s="37"/>
+      <c r="CK62" s="37"/>
+      <c r="CL62" s="37"/>
+      <c r="CM62" s="37"/>
+      <c r="CN62" s="37"/>
+      <c r="CO62" s="37"/>
+      <c r="CP62" s="37"/>
+      <c r="CQ62" s="37"/>
+      <c r="CR62" s="37"/>
+      <c r="CS62" s="37"/>
+      <c r="CT62" s="37"/>
+    </row>
+    <row r="63" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT63" s="37"/>
+      <c r="AU63" s="37"/>
+      <c r="AV63" s="37"/>
+      <c r="AW63" s="37"/>
+      <c r="AX63" s="37"/>
+      <c r="AY63" s="37"/>
+      <c r="AZ63" s="37"/>
+      <c r="BA63" s="37"/>
+      <c r="BB63" s="37"/>
+      <c r="BC63" s="37"/>
+      <c r="BD63" s="37"/>
+      <c r="BE63" s="37"/>
+      <c r="BF63" s="37"/>
+      <c r="BG63" s="37"/>
+      <c r="BH63" s="37"/>
+      <c r="BI63" s="37"/>
+      <c r="BJ63" s="37"/>
+      <c r="BK63" s="37"/>
+      <c r="BL63" s="37"/>
+      <c r="BM63" s="37"/>
+      <c r="BN63" s="37"/>
+      <c r="BO63" s="37"/>
+      <c r="BP63" s="37"/>
+      <c r="BQ63" s="37"/>
+      <c r="BR63" s="37"/>
+      <c r="BS63" s="37"/>
+      <c r="BT63" s="37"/>
+      <c r="BU63" s="37"/>
+      <c r="BV63" s="37"/>
+      <c r="BW63" s="37"/>
+      <c r="BX63" s="37"/>
+      <c r="BY63" s="37"/>
+      <c r="BZ63" s="37"/>
+      <c r="CA63" s="37"/>
+      <c r="CB63" s="37"/>
+      <c r="CC63" s="37"/>
+      <c r="CD63" s="37"/>
+      <c r="CE63" s="37"/>
+      <c r="CF63" s="37"/>
+      <c r="CG63" s="37"/>
+      <c r="CH63" s="37"/>
+      <c r="CI63" s="37"/>
+      <c r="CJ63" s="37"/>
+      <c r="CK63" s="37"/>
+      <c r="CL63" s="37"/>
+      <c r="CM63" s="37"/>
+      <c r="CN63" s="37"/>
+      <c r="CO63" s="37"/>
+      <c r="CP63" s="37"/>
+      <c r="CQ63" s="37"/>
+      <c r="CR63" s="37"/>
+      <c r="CS63" s="37"/>
+      <c r="CT63" s="37"/>
+    </row>
+    <row r="64" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT64" s="37"/>
+      <c r="AU64" s="37"/>
+      <c r="AV64" s="37"/>
+      <c r="AW64" s="37"/>
+      <c r="AX64" s="37"/>
+      <c r="AY64" s="37"/>
+      <c r="AZ64" s="37"/>
+      <c r="BA64" s="37"/>
+      <c r="BB64" s="37"/>
+      <c r="BC64" s="37"/>
+      <c r="BD64" s="37"/>
+      <c r="BE64" s="37"/>
+      <c r="BF64" s="37"/>
+      <c r="BG64" s="37"/>
+      <c r="BH64" s="37"/>
+      <c r="BI64" s="37"/>
+      <c r="BJ64" s="37"/>
+      <c r="BK64" s="37"/>
+      <c r="BL64" s="37"/>
+      <c r="BM64" s="37"/>
+      <c r="BN64" s="37"/>
+      <c r="BO64" s="37"/>
+      <c r="BP64" s="37"/>
+      <c r="BQ64" s="37"/>
+      <c r="BR64" s="37"/>
+      <c r="BS64" s="37"/>
+      <c r="BT64" s="37"/>
+      <c r="BU64" s="37"/>
+      <c r="BV64" s="37"/>
+      <c r="BW64" s="37"/>
+      <c r="BX64" s="37"/>
+      <c r="BY64" s="37"/>
+      <c r="BZ64" s="37"/>
+      <c r="CA64" s="37"/>
+      <c r="CB64" s="37"/>
+      <c r="CC64" s="37"/>
+      <c r="CD64" s="37"/>
+      <c r="CE64" s="37"/>
+      <c r="CF64" s="37"/>
+      <c r="CG64" s="37"/>
+      <c r="CH64" s="37"/>
+      <c r="CI64" s="37"/>
+      <c r="CJ64" s="37"/>
+      <c r="CK64" s="37"/>
+      <c r="CL64" s="37"/>
+      <c r="CM64" s="37"/>
+      <c r="CN64" s="37"/>
+      <c r="CO64" s="37"/>
+      <c r="CP64" s="37"/>
+      <c r="CQ64" s="37"/>
+      <c r="CR64" s="37"/>
+      <c r="CS64" s="37"/>
+      <c r="CT64" s="37"/>
+    </row>
+    <row r="65" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT65" s="37"/>
+      <c r="AU65" s="37"/>
+      <c r="AV65" s="37"/>
+      <c r="AW65" s="37"/>
+      <c r="AX65" s="37"/>
+      <c r="AY65" s="37"/>
+      <c r="AZ65" s="37"/>
+      <c r="BA65" s="37"/>
+      <c r="BB65" s="37"/>
+      <c r="BC65" s="37"/>
+      <c r="BD65" s="37"/>
+      <c r="BE65" s="37"/>
+      <c r="BF65" s="37"/>
+      <c r="BG65" s="37"/>
+      <c r="BH65" s="37"/>
+      <c r="BI65" s="37"/>
+      <c r="BJ65" s="37"/>
+      <c r="BK65" s="37"/>
+      <c r="BL65" s="37"/>
+      <c r="BM65" s="37"/>
+      <c r="BN65" s="37"/>
+      <c r="BO65" s="37"/>
+      <c r="BP65" s="37"/>
+      <c r="BQ65" s="37"/>
+      <c r="BR65" s="37"/>
+      <c r="BS65" s="37"/>
+      <c r="BT65" s="37"/>
+      <c r="BU65" s="37"/>
+      <c r="BV65" s="37"/>
+      <c r="BW65" s="37"/>
+      <c r="BX65" s="37"/>
+      <c r="BY65" s="37"/>
+      <c r="BZ65" s="37"/>
+      <c r="CA65" s="37"/>
+      <c r="CB65" s="37"/>
+      <c r="CC65" s="37"/>
+      <c r="CD65" s="37"/>
+      <c r="CE65" s="37"/>
+      <c r="CF65" s="37"/>
+      <c r="CG65" s="37"/>
+      <c r="CH65" s="37"/>
+      <c r="CI65" s="37"/>
+      <c r="CJ65" s="37"/>
+      <c r="CK65" s="37"/>
+      <c r="CL65" s="37"/>
+      <c r="CM65" s="37"/>
+      <c r="CN65" s="37"/>
+      <c r="CO65" s="37"/>
+      <c r="CP65" s="37"/>
+      <c r="CQ65" s="37"/>
+      <c r="CR65" s="37"/>
+      <c r="CS65" s="37"/>
+      <c r="CT65" s="37"/>
+    </row>
+    <row r="66" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT66" s="37"/>
+      <c r="AU66" s="37"/>
+      <c r="AV66" s="37"/>
+      <c r="AW66" s="37"/>
+      <c r="AX66" s="37"/>
+      <c r="AY66" s="37"/>
+      <c r="AZ66" s="37"/>
+      <c r="BA66" s="37"/>
+      <c r="BB66" s="37"/>
+      <c r="BC66" s="37"/>
+      <c r="BD66" s="37"/>
+      <c r="BE66" s="37"/>
+      <c r="BF66" s="37"/>
+      <c r="BG66" s="37"/>
+      <c r="BH66" s="37"/>
+      <c r="BI66" s="37"/>
+      <c r="BJ66" s="37"/>
+      <c r="BK66" s="37"/>
+      <c r="BL66" s="37"/>
+      <c r="BM66" s="37"/>
+      <c r="BN66" s="37"/>
+      <c r="BO66" s="37"/>
+      <c r="BP66" s="37"/>
+      <c r="BQ66" s="37"/>
+      <c r="BR66" s="37"/>
+      <c r="BS66" s="37"/>
+      <c r="BT66" s="37"/>
+      <c r="BU66" s="37"/>
+      <c r="BV66" s="37"/>
+      <c r="BW66" s="37"/>
+      <c r="BX66" s="37"/>
+      <c r="BY66" s="37"/>
+      <c r="BZ66" s="37"/>
+      <c r="CA66" s="37"/>
+      <c r="CB66" s="37"/>
+      <c r="CC66" s="37"/>
+      <c r="CD66" s="37"/>
+      <c r="CE66" s="37"/>
+      <c r="CF66" s="37"/>
+      <c r="CG66" s="37"/>
+      <c r="CH66" s="37"/>
+      <c r="CI66" s="37"/>
+      <c r="CJ66" s="37"/>
+      <c r="CK66" s="37"/>
+      <c r="CL66" s="37"/>
+      <c r="CM66" s="37"/>
+      <c r="CN66" s="37"/>
+      <c r="CO66" s="37"/>
+      <c r="CP66" s="37"/>
+      <c r="CQ66" s="37"/>
+      <c r="CR66" s="37"/>
+      <c r="CS66" s="37"/>
+      <c r="CT66" s="37"/>
+    </row>
+    <row r="67" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT67" s="37"/>
+      <c r="AU67" s="37"/>
+      <c r="AV67" s="37"/>
+      <c r="AW67" s="37"/>
+      <c r="AX67" s="37"/>
+      <c r="AY67" s="37"/>
+      <c r="AZ67" s="37"/>
+      <c r="BA67" s="37"/>
+      <c r="BB67" s="37"/>
+      <c r="BC67" s="37"/>
+      <c r="BD67" s="37"/>
+      <c r="BE67" s="37"/>
+      <c r="BF67" s="37"/>
+      <c r="BG67" s="37"/>
+      <c r="BH67" s="37"/>
+      <c r="BI67" s="37"/>
+      <c r="BJ67" s="37"/>
+      <c r="BK67" s="37"/>
+      <c r="BL67" s="37"/>
+      <c r="BM67" s="37"/>
+      <c r="BN67" s="37"/>
+      <c r="BO67" s="37"/>
+      <c r="BP67" s="37"/>
+      <c r="BQ67" s="37"/>
+      <c r="BR67" s="37"/>
+      <c r="BS67" s="37"/>
+      <c r="BT67" s="37"/>
+      <c r="BU67" s="37"/>
+      <c r="BV67" s="37"/>
+      <c r="BW67" s="37"/>
+      <c r="BX67" s="37"/>
+      <c r="BY67" s="37"/>
+      <c r="BZ67" s="37"/>
+      <c r="CA67" s="37"/>
+      <c r="CB67" s="37"/>
+      <c r="CC67" s="37"/>
+      <c r="CD67" s="37"/>
+      <c r="CE67" s="37"/>
+      <c r="CF67" s="37"/>
+      <c r="CG67" s="37"/>
+      <c r="CH67" s="37"/>
+      <c r="CI67" s="37"/>
+      <c r="CJ67" s="37"/>
+      <c r="CK67" s="37"/>
+      <c r="CL67" s="37"/>
+      <c r="CM67" s="37"/>
+      <c r="CN67" s="37"/>
+      <c r="CO67" s="37"/>
+      <c r="CP67" s="37"/>
+      <c r="CQ67" s="37"/>
+      <c r="CR67" s="37"/>
+      <c r="CS67" s="37"/>
+      <c r="CT67" s="37"/>
+    </row>
+    <row r="68" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT68" s="37"/>
+      <c r="AU68" s="37"/>
+      <c r="AV68" s="37"/>
+      <c r="AW68" s="37"/>
+      <c r="AX68" s="37"/>
+      <c r="AY68" s="37"/>
+      <c r="AZ68" s="37"/>
+      <c r="BA68" s="37"/>
+      <c r="BB68" s="37"/>
+      <c r="BC68" s="37"/>
+      <c r="BD68" s="37"/>
+      <c r="BE68" s="37"/>
+      <c r="BF68" s="37"/>
+      <c r="BG68" s="37"/>
+      <c r="BH68" s="37"/>
+      <c r="BI68" s="37"/>
+      <c r="BJ68" s="37"/>
+      <c r="BK68" s="37"/>
+      <c r="BL68" s="37"/>
+      <c r="BM68" s="37"/>
+      <c r="BN68" s="37"/>
+      <c r="BO68" s="37"/>
+      <c r="BP68" s="37"/>
+      <c r="BQ68" s="37"/>
+      <c r="BR68" s="37"/>
+      <c r="BS68" s="37"/>
+      <c r="BT68" s="37"/>
+      <c r="BU68" s="37"/>
+      <c r="BV68" s="37"/>
+      <c r="BW68" s="37"/>
+      <c r="BX68" s="37"/>
+      <c r="BY68" s="37"/>
+      <c r="BZ68" s="37"/>
+      <c r="CA68" s="37"/>
+      <c r="CB68" s="37"/>
+      <c r="CC68" s="37"/>
+      <c r="CD68" s="37"/>
+      <c r="CE68" s="37"/>
+      <c r="CF68" s="37"/>
+      <c r="CG68" s="37"/>
+      <c r="CH68" s="37"/>
+      <c r="CI68" s="37"/>
+      <c r="CJ68" s="37"/>
+      <c r="CK68" s="37"/>
+      <c r="CL68" s="37"/>
+      <c r="CM68" s="37"/>
+      <c r="CN68" s="37"/>
+      <c r="CO68" s="37"/>
+      <c r="CP68" s="37"/>
+      <c r="CQ68" s="37"/>
+      <c r="CR68" s="37"/>
+      <c r="CS68" s="37"/>
+      <c r="CT68" s="37"/>
+    </row>
+    <row r="69" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT69" s="37"/>
+      <c r="AU69" s="37"/>
+      <c r="AV69" s="37"/>
+      <c r="AW69" s="37"/>
+      <c r="AX69" s="37"/>
+      <c r="AY69" s="37"/>
+      <c r="AZ69" s="37"/>
+      <c r="BA69" s="37"/>
+      <c r="BB69" s="37"/>
+      <c r="BC69" s="37"/>
+      <c r="BD69" s="37"/>
+      <c r="BE69" s="37"/>
+      <c r="BF69" s="37"/>
+      <c r="BG69" s="37"/>
+      <c r="BH69" s="37"/>
+      <c r="BI69" s="37"/>
+      <c r="BJ69" s="37"/>
+      <c r="BK69" s="37"/>
+      <c r="BL69" s="37"/>
+      <c r="BM69" s="37"/>
+      <c r="BN69" s="37"/>
+      <c r="BO69" s="37"/>
+      <c r="BP69" s="37"/>
+      <c r="BQ69" s="37"/>
+      <c r="BR69" s="37"/>
+      <c r="BS69" s="37"/>
+      <c r="BT69" s="37"/>
+      <c r="BU69" s="37"/>
+      <c r="BV69" s="37"/>
+      <c r="BW69" s="37"/>
+      <c r="BX69" s="37"/>
+      <c r="BY69" s="37"/>
+      <c r="BZ69" s="37"/>
+      <c r="CA69" s="37"/>
+      <c r="CB69" s="37"/>
+      <c r="CC69" s="37"/>
+      <c r="CD69" s="37"/>
+      <c r="CE69" s="37"/>
+      <c r="CF69" s="37"/>
+      <c r="CG69" s="37"/>
+      <c r="CH69" s="37"/>
+      <c r="CI69" s="37"/>
+      <c r="CJ69" s="37"/>
+      <c r="CK69" s="37"/>
+      <c r="CL69" s="37"/>
+      <c r="CM69" s="37"/>
+      <c r="CN69" s="37"/>
+      <c r="CO69" s="37"/>
+      <c r="CP69" s="37"/>
+      <c r="CQ69" s="37"/>
+      <c r="CR69" s="37"/>
+      <c r="CS69" s="37"/>
+      <c r="CT69" s="37"/>
+    </row>
+    <row r="70" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT70" s="37"/>
+      <c r="AU70" s="37"/>
+      <c r="AV70" s="37"/>
+      <c r="AW70" s="37"/>
+      <c r="AX70" s="37"/>
+      <c r="AY70" s="37"/>
+      <c r="AZ70" s="37"/>
+      <c r="BA70" s="37"/>
+      <c r="BB70" s="37"/>
+      <c r="BC70" s="37"/>
+      <c r="BD70" s="37"/>
+      <c r="BE70" s="37"/>
+      <c r="BF70" s="37"/>
+      <c r="BG70" s="37"/>
+      <c r="BH70" s="37"/>
+      <c r="BI70" s="37"/>
+      <c r="BJ70" s="37"/>
+      <c r="BK70" s="37"/>
+      <c r="BL70" s="37"/>
+      <c r="BM70" s="37"/>
+      <c r="BN70" s="37"/>
+      <c r="BO70" s="37"/>
+      <c r="BP70" s="37"/>
+      <c r="BQ70" s="37"/>
+      <c r="BR70" s="37"/>
+      <c r="BS70" s="37"/>
+      <c r="BT70" s="37"/>
+      <c r="BU70" s="37"/>
+      <c r="BV70" s="37"/>
+      <c r="BW70" s="37"/>
+      <c r="BX70" s="37"/>
+      <c r="BY70" s="37"/>
+      <c r="BZ70" s="37"/>
+      <c r="CA70" s="37"/>
+      <c r="CB70" s="37"/>
+      <c r="CC70" s="37"/>
+      <c r="CD70" s="37"/>
+      <c r="CE70" s="37"/>
+      <c r="CF70" s="37"/>
+      <c r="CG70" s="37"/>
+      <c r="CH70" s="37"/>
+      <c r="CI70" s="37"/>
+      <c r="CJ70" s="37"/>
+      <c r="CK70" s="37"/>
+      <c r="CL70" s="37"/>
+      <c r="CM70" s="37"/>
+      <c r="CN70" s="37"/>
+      <c r="CO70" s="37"/>
+      <c r="CP70" s="37"/>
+      <c r="CQ70" s="37"/>
+      <c r="CR70" s="37"/>
+      <c r="CS70" s="37"/>
+      <c r="CT70" s="37"/>
+    </row>
+    <row r="71" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT71" s="37"/>
+      <c r="AU71" s="37"/>
+      <c r="AV71" s="37"/>
+      <c r="AW71" s="37"/>
+      <c r="AX71" s="37"/>
+      <c r="AY71" s="37"/>
+      <c r="AZ71" s="37"/>
+      <c r="BA71" s="37"/>
+      <c r="BB71" s="37"/>
+      <c r="BC71" s="37"/>
+      <c r="BD71" s="37"/>
+      <c r="BE71" s="37"/>
+      <c r="BF71" s="37"/>
+      <c r="BG71" s="37"/>
+      <c r="BH71" s="37"/>
+      <c r="BI71" s="37"/>
+      <c r="BJ71" s="37"/>
+      <c r="BK71" s="37"/>
+      <c r="BL71" s="37"/>
+      <c r="BM71" s="37"/>
+      <c r="BN71" s="37"/>
+      <c r="BO71" s="37"/>
+      <c r="BP71" s="37"/>
+      <c r="BQ71" s="37"/>
+      <c r="BR71" s="37"/>
+      <c r="BS71" s="37"/>
+      <c r="BT71" s="37"/>
+      <c r="BU71" s="37"/>
+      <c r="BV71" s="37"/>
+      <c r="BW71" s="37"/>
+      <c r="BX71" s="37"/>
+      <c r="BY71" s="37"/>
+      <c r="BZ71" s="37"/>
+      <c r="CA71" s="37"/>
+      <c r="CB71" s="37"/>
+      <c r="CC71" s="37"/>
+      <c r="CD71" s="37"/>
+      <c r="CE71" s="37"/>
+      <c r="CF71" s="37"/>
+      <c r="CG71" s="37"/>
+      <c r="CH71" s="37"/>
+      <c r="CI71" s="37"/>
+      <c r="CJ71" s="37"/>
+      <c r="CK71" s="37"/>
+      <c r="CL71" s="37"/>
+      <c r="CM71" s="37"/>
+      <c r="CN71" s="37"/>
+      <c r="CO71" s="37"/>
+      <c r="CP71" s="37"/>
+      <c r="CQ71" s="37"/>
+      <c r="CR71" s="37"/>
+      <c r="CS71" s="37"/>
+      <c r="CT71" s="37"/>
+    </row>
+    <row r="72" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT72" s="37"/>
+      <c r="AU72" s="37"/>
+      <c r="AV72" s="37"/>
+      <c r="AW72" s="37"/>
+      <c r="AX72" s="37"/>
+      <c r="AY72" s="37"/>
+      <c r="AZ72" s="37"/>
+      <c r="BA72" s="37"/>
+      <c r="BB72" s="37"/>
+      <c r="BC72" s="37"/>
+      <c r="BD72" s="37"/>
+      <c r="BE72" s="37"/>
+      <c r="BF72" s="37"/>
+      <c r="BG72" s="37"/>
+      <c r="BH72" s="37"/>
+      <c r="BI72" s="37"/>
+      <c r="BJ72" s="37"/>
+      <c r="BK72" s="37"/>
+      <c r="BL72" s="37"/>
+      <c r="BM72" s="37"/>
+      <c r="BN72" s="37"/>
+      <c r="BO72" s="37"/>
+      <c r="BP72" s="37"/>
+      <c r="BQ72" s="37"/>
+      <c r="BR72" s="37"/>
+      <c r="BS72" s="37"/>
+      <c r="BT72" s="37"/>
+      <c r="BU72" s="37"/>
+      <c r="BV72" s="37"/>
+      <c r="BW72" s="37"/>
+      <c r="BX72" s="37"/>
+      <c r="BY72" s="37"/>
+      <c r="BZ72" s="37"/>
+      <c r="CA72" s="37"/>
+      <c r="CB72" s="37"/>
+      <c r="CC72" s="37"/>
+      <c r="CD72" s="37"/>
+      <c r="CE72" s="37"/>
+      <c r="CF72" s="37"/>
+      <c r="CG72" s="37"/>
+      <c r="CH72" s="37"/>
+      <c r="CI72" s="37"/>
+      <c r="CJ72" s="37"/>
+      <c r="CK72" s="37"/>
+      <c r="CL72" s="37"/>
+      <c r="CM72" s="37"/>
+      <c r="CN72" s="37"/>
+      <c r="CO72" s="37"/>
+      <c r="CP72" s="37"/>
+      <c r="CQ72" s="37"/>
+      <c r="CR72" s="37"/>
+      <c r="CS72" s="37"/>
+      <c r="CT72" s="37"/>
+    </row>
+    <row r="73" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT73" s="37"/>
+      <c r="AU73" s="37"/>
+      <c r="AV73" s="37"/>
+      <c r="AW73" s="37"/>
+      <c r="AX73" s="37"/>
+      <c r="AY73" s="37"/>
+      <c r="AZ73" s="37"/>
+      <c r="BA73" s="37"/>
+      <c r="BB73" s="37"/>
+      <c r="BC73" s="37"/>
+      <c r="BD73" s="37"/>
+      <c r="BE73" s="37"/>
+      <c r="BF73" s="37"/>
+      <c r="BG73" s="37"/>
+      <c r="BH73" s="37"/>
+      <c r="BI73" s="37"/>
+      <c r="BJ73" s="37"/>
+      <c r="BK73" s="37"/>
+      <c r="BL73" s="37"/>
+      <c r="BM73" s="37"/>
+      <c r="BN73" s="37"/>
+      <c r="BO73" s="37"/>
+      <c r="BP73" s="37"/>
+      <c r="BQ73" s="37"/>
+      <c r="BR73" s="37"/>
+      <c r="BS73" s="37"/>
+      <c r="BT73" s="37"/>
+      <c r="BU73" s="37"/>
+      <c r="BV73" s="37"/>
+      <c r="BW73" s="37"/>
+      <c r="BX73" s="37"/>
+      <c r="BY73" s="37"/>
+      <c r="BZ73" s="37"/>
+      <c r="CA73" s="37"/>
+      <c r="CB73" s="37"/>
+      <c r="CC73" s="37"/>
+      <c r="CD73" s="37"/>
+      <c r="CE73" s="37"/>
+      <c r="CF73" s="37"/>
+      <c r="CG73" s="37"/>
+      <c r="CH73" s="37"/>
+      <c r="CI73" s="37"/>
+      <c r="CJ73" s="37"/>
+      <c r="CK73" s="37"/>
+      <c r="CL73" s="37"/>
+      <c r="CM73" s="37"/>
+      <c r="CN73" s="37"/>
+      <c r="CO73" s="37"/>
+      <c r="CP73" s="37"/>
+      <c r="CQ73" s="37"/>
+      <c r="CR73" s="37"/>
+      <c r="CS73" s="37"/>
+      <c r="CT73" s="37"/>
+    </row>
+    <row r="74" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT74" s="37"/>
+      <c r="AU74" s="37"/>
+      <c r="AV74" s="37"/>
+      <c r="AW74" s="37"/>
+      <c r="AX74" s="37"/>
+      <c r="AY74" s="37"/>
+      <c r="AZ74" s="37"/>
+      <c r="BA74" s="37"/>
+      <c r="BB74" s="37"/>
+      <c r="BC74" s="37"/>
+      <c r="BD74" s="37"/>
+      <c r="BE74" s="37"/>
+      <c r="BF74" s="37"/>
+      <c r="BG74" s="37"/>
+      <c r="BH74" s="37"/>
+      <c r="BI74" s="37"/>
+      <c r="BJ74" s="37"/>
+      <c r="BK74" s="37"/>
+      <c r="BL74" s="37"/>
+      <c r="BM74" s="37"/>
+      <c r="BN74" s="37"/>
+      <c r="BO74" s="37"/>
+      <c r="BP74" s="37"/>
+      <c r="BQ74" s="37"/>
+      <c r="BR74" s="37"/>
+      <c r="BS74" s="37"/>
+      <c r="BT74" s="37"/>
+      <c r="BU74" s="37"/>
+      <c r="BV74" s="37"/>
+      <c r="BW74" s="37"/>
+      <c r="BX74" s="37"/>
+      <c r="BY74" s="37"/>
+      <c r="BZ74" s="37"/>
+      <c r="CA74" s="37"/>
+      <c r="CB74" s="37"/>
+      <c r="CC74" s="37"/>
+      <c r="CD74" s="37"/>
+      <c r="CE74" s="37"/>
+      <c r="CF74" s="37"/>
+      <c r="CG74" s="37"/>
+      <c r="CH74" s="37"/>
+      <c r="CI74" s="37"/>
+      <c r="CJ74" s="37"/>
+      <c r="CK74" s="37"/>
+      <c r="CL74" s="37"/>
+      <c r="CM74" s="37"/>
+      <c r="CN74" s="37"/>
+      <c r="CO74" s="37"/>
+      <c r="CP74" s="37"/>
+      <c r="CQ74" s="37"/>
+      <c r="CR74" s="37"/>
+      <c r="CS74" s="37"/>
+      <c r="CT74" s="37"/>
+    </row>
+    <row r="75" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT75" s="37"/>
+      <c r="AU75" s="37"/>
+      <c r="AV75" s="37"/>
+      <c r="AW75" s="37"/>
+      <c r="AX75" s="37"/>
+      <c r="AY75" s="37"/>
+      <c r="AZ75" s="37"/>
+      <c r="BA75" s="37"/>
+      <c r="BB75" s="37"/>
+      <c r="BC75" s="37"/>
+      <c r="BD75" s="37"/>
+      <c r="BE75" s="37"/>
+      <c r="BF75" s="37"/>
+      <c r="BG75" s="37"/>
+      <c r="BH75" s="37"/>
+      <c r="BI75" s="37"/>
+      <c r="BJ75" s="37"/>
+      <c r="BK75" s="37"/>
+      <c r="BL75" s="37"/>
+      <c r="BM75" s="37"/>
+      <c r="BN75" s="37"/>
+      <c r="BO75" s="37"/>
+      <c r="BP75" s="37"/>
+      <c r="BQ75" s="37"/>
+      <c r="BR75" s="37"/>
+      <c r="BS75" s="37"/>
+      <c r="BT75" s="37"/>
+      <c r="BU75" s="37"/>
+      <c r="BV75" s="37"/>
+      <c r="BW75" s="37"/>
+      <c r="BX75" s="37"/>
+      <c r="BY75" s="37"/>
+      <c r="BZ75" s="37"/>
+      <c r="CA75" s="37"/>
+      <c r="CB75" s="37"/>
+      <c r="CC75" s="37"/>
+      <c r="CD75" s="37"/>
+      <c r="CE75" s="37"/>
+      <c r="CF75" s="37"/>
+      <c r="CG75" s="37"/>
+      <c r="CH75" s="37"/>
+      <c r="CI75" s="37"/>
+      <c r="CJ75" s="37"/>
+      <c r="CK75" s="37"/>
+      <c r="CL75" s="37"/>
+      <c r="CM75" s="37"/>
+      <c r="CN75" s="37"/>
+      <c r="CO75" s="37"/>
+      <c r="CP75" s="37"/>
+      <c r="CQ75" s="37"/>
+      <c r="CR75" s="37"/>
+      <c r="CS75" s="37"/>
+      <c r="CT75" s="37"/>
+    </row>
+    <row r="76" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT76" s="37"/>
+      <c r="AU76" s="37"/>
+      <c r="AV76" s="37"/>
+      <c r="AW76" s="37"/>
+      <c r="AX76" s="37"/>
+      <c r="AY76" s="37"/>
+      <c r="AZ76" s="37"/>
+      <c r="BA76" s="37"/>
+      <c r="BB76" s="37"/>
+      <c r="BC76" s="37"/>
+      <c r="BD76" s="37"/>
+      <c r="BE76" s="37"/>
+      <c r="BF76" s="37"/>
+      <c r="BG76" s="37"/>
+      <c r="BH76" s="37"/>
+      <c r="BI76" s="37"/>
+      <c r="BJ76" s="37"/>
+      <c r="BK76" s="37"/>
+      <c r="BL76" s="37"/>
+      <c r="BM76" s="37"/>
+      <c r="BN76" s="37"/>
+      <c r="BO76" s="37"/>
+      <c r="BP76" s="37"/>
+      <c r="BQ76" s="37"/>
+      <c r="BR76" s="37"/>
+      <c r="BS76" s="37"/>
+      <c r="BT76" s="37"/>
+      <c r="BU76" s="37"/>
+      <c r="BV76" s="37"/>
+      <c r="BW76" s="37"/>
+      <c r="BX76" s="37"/>
+      <c r="BY76" s="37"/>
+      <c r="BZ76" s="37"/>
+      <c r="CA76" s="37"/>
+      <c r="CB76" s="37"/>
+      <c r="CC76" s="37"/>
+      <c r="CD76" s="37"/>
+      <c r="CE76" s="37"/>
+      <c r="CF76" s="37"/>
+      <c r="CG76" s="37"/>
+      <c r="CH76" s="37"/>
+      <c r="CI76" s="37"/>
+      <c r="CJ76" s="37"/>
+      <c r="CK76" s="37"/>
+      <c r="CL76" s="37"/>
+      <c r="CM76" s="37"/>
+      <c r="CN76" s="37"/>
+      <c r="CO76" s="37"/>
+      <c r="CP76" s="37"/>
+      <c r="CQ76" s="37"/>
+      <c r="CR76" s="37"/>
+      <c r="CS76" s="37"/>
+      <c r="CT76" s="37"/>
+    </row>
+    <row r="77" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT77" s="37"/>
+      <c r="AU77" s="37"/>
+      <c r="AV77" s="37"/>
+      <c r="AW77" s="37"/>
+      <c r="AX77" s="37"/>
+      <c r="AY77" s="37"/>
+      <c r="AZ77" s="37"/>
+      <c r="BA77" s="37"/>
+      <c r="BB77" s="37"/>
+      <c r="BC77" s="37"/>
+      <c r="BD77" s="37"/>
+      <c r="BE77" s="37"/>
+      <c r="BF77" s="37"/>
+      <c r="BG77" s="37"/>
+      <c r="BH77" s="37"/>
+      <c r="BI77" s="37"/>
+      <c r="BJ77" s="37"/>
+      <c r="BK77" s="37"/>
+      <c r="BL77" s="37"/>
+      <c r="BM77" s="37"/>
+      <c r="BN77" s="37"/>
+      <c r="BO77" s="37"/>
+      <c r="BP77" s="37"/>
+      <c r="BQ77" s="37"/>
+      <c r="BR77" s="37"/>
+      <c r="BS77" s="37"/>
+      <c r="BT77" s="37"/>
+      <c r="BU77" s="37"/>
+      <c r="BV77" s="37"/>
+      <c r="BW77" s="37"/>
+      <c r="BX77" s="37"/>
+      <c r="BY77" s="37"/>
+      <c r="BZ77" s="37"/>
+      <c r="CA77" s="37"/>
+      <c r="CB77" s="37"/>
+      <c r="CC77" s="37"/>
+      <c r="CD77" s="37"/>
+      <c r="CE77" s="37"/>
+      <c r="CF77" s="37"/>
+      <c r="CG77" s="37"/>
+      <c r="CH77" s="37"/>
+      <c r="CI77" s="37"/>
+      <c r="CJ77" s="37"/>
+      <c r="CK77" s="37"/>
+      <c r="CL77" s="37"/>
+      <c r="CM77" s="37"/>
+      <c r="CN77" s="37"/>
+      <c r="CO77" s="37"/>
+      <c r="CP77" s="37"/>
+      <c r="CQ77" s="37"/>
+      <c r="CR77" s="37"/>
+      <c r="CS77" s="37"/>
+      <c r="CT77" s="37"/>
+    </row>
+    <row r="78" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT78" s="37"/>
+      <c r="AU78" s="37"/>
+      <c r="AV78" s="37"/>
+      <c r="AW78" s="37"/>
+      <c r="AX78" s="37"/>
+      <c r="AY78" s="37"/>
+      <c r="AZ78" s="37"/>
+      <c r="BA78" s="37"/>
+      <c r="BB78" s="37"/>
+      <c r="BC78" s="37"/>
+      <c r="BD78" s="37"/>
+      <c r="BE78" s="37"/>
+      <c r="BF78" s="37"/>
+      <c r="BG78" s="37"/>
+      <c r="BH78" s="37"/>
+      <c r="BI78" s="37"/>
+      <c r="BJ78" s="37"/>
+      <c r="BK78" s="37"/>
+      <c r="BL78" s="37"/>
+      <c r="BM78" s="37"/>
+      <c r="BN78" s="37"/>
+      <c r="BO78" s="37"/>
+      <c r="BP78" s="37"/>
+      <c r="BQ78" s="37"/>
+      <c r="BR78" s="37"/>
+      <c r="BS78" s="37"/>
+      <c r="BT78" s="37"/>
+      <c r="BU78" s="37"/>
+      <c r="BV78" s="37"/>
+      <c r="BW78" s="37"/>
+      <c r="BX78" s="37"/>
+      <c r="BY78" s="37"/>
+      <c r="BZ78" s="37"/>
+      <c r="CA78" s="37"/>
+      <c r="CB78" s="37"/>
+      <c r="CC78" s="37"/>
+      <c r="CD78" s="37"/>
+      <c r="CE78" s="37"/>
+      <c r="CF78" s="37"/>
+      <c r="CG78" s="37"/>
+      <c r="CH78" s="37"/>
+      <c r="CI78" s="37"/>
+      <c r="CJ78" s="37"/>
+      <c r="CK78" s="37"/>
+      <c r="CL78" s="37"/>
+      <c r="CM78" s="37"/>
+      <c r="CN78" s="37"/>
+      <c r="CO78" s="37"/>
+      <c r="CP78" s="37"/>
+      <c r="CQ78" s="37"/>
+      <c r="CR78" s="37"/>
+      <c r="CS78" s="37"/>
+      <c r="CT78" s="37"/>
+    </row>
+    <row r="79" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT79" s="37"/>
+      <c r="AU79" s="37"/>
+      <c r="AV79" s="37"/>
+      <c r="AW79" s="37"/>
+      <c r="AX79" s="37"/>
+      <c r="AY79" s="37"/>
+      <c r="AZ79" s="37"/>
+      <c r="BA79" s="37"/>
+      <c r="BB79" s="37"/>
+      <c r="BC79" s="37"/>
+      <c r="BD79" s="37"/>
+      <c r="BE79" s="37"/>
+      <c r="BF79" s="37"/>
+      <c r="BG79" s="37"/>
+      <c r="BH79" s="37"/>
+      <c r="BI79" s="37"/>
+      <c r="BJ79" s="37"/>
+      <c r="BK79" s="37"/>
+      <c r="BL79" s="37"/>
+      <c r="BM79" s="37"/>
+      <c r="BN79" s="37"/>
+      <c r="BO79" s="37"/>
+      <c r="BP79" s="37"/>
+      <c r="BQ79" s="37"/>
+      <c r="BR79" s="37"/>
+      <c r="BS79" s="37"/>
+      <c r="BT79" s="37"/>
+      <c r="BU79" s="37"/>
+      <c r="BV79" s="37"/>
+      <c r="BW79" s="37"/>
+      <c r="BX79" s="37"/>
+      <c r="BY79" s="37"/>
+      <c r="BZ79" s="37"/>
+      <c r="CA79" s="37"/>
+      <c r="CB79" s="37"/>
+      <c r="CC79" s="37"/>
+      <c r="CD79" s="37"/>
+      <c r="CE79" s="37"/>
+      <c r="CF79" s="37"/>
+      <c r="CG79" s="37"/>
+      <c r="CH79" s="37"/>
+      <c r="CI79" s="37"/>
+      <c r="CJ79" s="37"/>
+      <c r="CK79" s="37"/>
+      <c r="CL79" s="37"/>
+      <c r="CM79" s="37"/>
+      <c r="CN79" s="37"/>
+      <c r="CO79" s="37"/>
+      <c r="CP79" s="37"/>
+      <c r="CQ79" s="37"/>
+      <c r="CR79" s="37"/>
+      <c r="CS79" s="37"/>
+      <c r="CT79" s="37"/>
+    </row>
+    <row r="80" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT80" s="37"/>
+      <c r="AU80" s="37"/>
+      <c r="AV80" s="37"/>
+      <c r="AW80" s="37"/>
+      <c r="AX80" s="37"/>
+      <c r="AY80" s="37"/>
+      <c r="AZ80" s="37"/>
+      <c r="BA80" s="37"/>
+      <c r="BB80" s="37"/>
+      <c r="BC80" s="37"/>
+      <c r="BD80" s="37"/>
+      <c r="BE80" s="37"/>
+      <c r="BF80" s="37"/>
+      <c r="BG80" s="37"/>
+      <c r="BH80" s="37"/>
+      <c r="BI80" s="37"/>
+      <c r="BJ80" s="37"/>
+      <c r="BK80" s="37"/>
+      <c r="BL80" s="37"/>
+      <c r="BM80" s="37"/>
+      <c r="BN80" s="37"/>
+      <c r="BO80" s="37"/>
+      <c r="BP80" s="37"/>
+      <c r="BQ80" s="37"/>
+      <c r="BR80" s="37"/>
+      <c r="BS80" s="37"/>
+      <c r="BT80" s="37"/>
+      <c r="BU80" s="37"/>
+      <c r="BV80" s="37"/>
+      <c r="BW80" s="37"/>
+      <c r="BX80" s="37"/>
+      <c r="BY80" s="37"/>
+      <c r="BZ80" s="37"/>
+      <c r="CA80" s="37"/>
+      <c r="CB80" s="37"/>
+      <c r="CC80" s="37"/>
+      <c r="CD80" s="37"/>
+      <c r="CE80" s="37"/>
+      <c r="CF80" s="37"/>
+      <c r="CG80" s="37"/>
+      <c r="CH80" s="37"/>
+      <c r="CI80" s="37"/>
+      <c r="CJ80" s="37"/>
+      <c r="CK80" s="37"/>
+      <c r="CL80" s="37"/>
+      <c r="CM80" s="37"/>
+      <c r="CN80" s="37"/>
+      <c r="CO80" s="37"/>
+      <c r="CP80" s="37"/>
+      <c r="CQ80" s="37"/>
+      <c r="CR80" s="37"/>
+      <c r="CS80" s="37"/>
+      <c r="CT80" s="37"/>
+    </row>
+    <row r="81" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT81" s="37"/>
+      <c r="AU81" s="37"/>
+      <c r="AV81" s="37"/>
+      <c r="AW81" s="37"/>
+      <c r="AX81" s="37"/>
+      <c r="AY81" s="37"/>
+      <c r="AZ81" s="37"/>
+      <c r="BA81" s="37"/>
+      <c r="BB81" s="37"/>
+      <c r="BC81" s="37"/>
+      <c r="BD81" s="37"/>
+      <c r="BE81" s="37"/>
+      <c r="BF81" s="37"/>
+      <c r="BG81" s="37"/>
+      <c r="BH81" s="37"/>
+      <c r="BI81" s="37"/>
+      <c r="BJ81" s="37"/>
+      <c r="BK81" s="37"/>
+      <c r="BL81" s="37"/>
+      <c r="BM81" s="37"/>
+      <c r="BN81" s="37"/>
+      <c r="BO81" s="37"/>
+      <c r="BP81" s="37"/>
+      <c r="BQ81" s="37"/>
+      <c r="BR81" s="37"/>
+      <c r="BS81" s="37"/>
+      <c r="BT81" s="37"/>
+      <c r="BU81" s="37"/>
+      <c r="BV81" s="37"/>
+      <c r="BW81" s="37"/>
+      <c r="BX81" s="37"/>
+      <c r="BY81" s="37"/>
+      <c r="BZ81" s="37"/>
+      <c r="CA81" s="37"/>
+      <c r="CB81" s="37"/>
+      <c r="CC81" s="37"/>
+      <c r="CD81" s="37"/>
+      <c r="CE81" s="37"/>
+      <c r="CF81" s="37"/>
+      <c r="CG81" s="37"/>
+      <c r="CH81" s="37"/>
+      <c r="CI81" s="37"/>
+      <c r="CJ81" s="37"/>
+      <c r="CK81" s="37"/>
+      <c r="CL81" s="37"/>
+      <c r="CM81" s="37"/>
+      <c r="CN81" s="37"/>
+      <c r="CO81" s="37"/>
+      <c r="CP81" s="37"/>
+      <c r="CQ81" s="37"/>
+      <c r="CR81" s="37"/>
+      <c r="CS81" s="37"/>
+      <c r="CT81" s="37"/>
+    </row>
+    <row r="82" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT82" s="37"/>
+      <c r="AU82" s="37"/>
+      <c r="AV82" s="37"/>
+      <c r="AW82" s="37"/>
+      <c r="AX82" s="37"/>
+      <c r="AY82" s="37"/>
+      <c r="AZ82" s="37"/>
+      <c r="BA82" s="37"/>
+      <c r="BB82" s="37"/>
+      <c r="BC82" s="37"/>
+      <c r="BD82" s="37"/>
+      <c r="BE82" s="37"/>
+      <c r="BF82" s="37"/>
+      <c r="BG82" s="37"/>
+      <c r="BH82" s="37"/>
+      <c r="BI82" s="37"/>
+      <c r="BJ82" s="37"/>
+      <c r="BK82" s="37"/>
+      <c r="BL82" s="37"/>
+      <c r="BM82" s="37"/>
+      <c r="BN82" s="37"/>
+      <c r="BO82" s="37"/>
+      <c r="BP82" s="37"/>
+      <c r="BQ82" s="37"/>
+      <c r="BR82" s="37"/>
+      <c r="BS82" s="37"/>
+      <c r="BT82" s="37"/>
+      <c r="BU82" s="37"/>
+      <c r="BV82" s="37"/>
+      <c r="BW82" s="37"/>
+      <c r="BX82" s="37"/>
+      <c r="BY82" s="37"/>
+      <c r="BZ82" s="37"/>
+      <c r="CA82" s="37"/>
+      <c r="CB82" s="37"/>
+      <c r="CC82" s="37"/>
+      <c r="CD82" s="37"/>
+      <c r="CE82" s="37"/>
+      <c r="CF82" s="37"/>
+      <c r="CG82" s="37"/>
+      <c r="CH82" s="37"/>
+      <c r="CI82" s="37"/>
+      <c r="CJ82" s="37"/>
+      <c r="CK82" s="37"/>
+      <c r="CL82" s="37"/>
+      <c r="CM82" s="37"/>
+      <c r="CN82" s="37"/>
+      <c r="CO82" s="37"/>
+      <c r="CP82" s="37"/>
+      <c r="CQ82" s="37"/>
+      <c r="CR82" s="37"/>
+      <c r="CS82" s="37"/>
+      <c r="CT82" s="37"/>
+    </row>
+    <row r="83" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT83" s="37"/>
+      <c r="AU83" s="37"/>
+      <c r="AV83" s="37"/>
+      <c r="AW83" s="37"/>
+      <c r="AX83" s="37"/>
+      <c r="AY83" s="37"/>
+      <c r="AZ83" s="37"/>
+      <c r="BA83" s="37"/>
+      <c r="BB83" s="37"/>
+      <c r="BC83" s="37"/>
+      <c r="BD83" s="37"/>
+      <c r="BE83" s="37"/>
+      <c r="BF83" s="37"/>
+      <c r="BG83" s="37"/>
+      <c r="BH83" s="37"/>
+      <c r="BI83" s="37"/>
+      <c r="BJ83" s="37"/>
+      <c r="BK83" s="37"/>
+      <c r="BL83" s="37"/>
+      <c r="BM83" s="37"/>
+      <c r="BN83" s="37"/>
+      <c r="BO83" s="37"/>
+      <c r="BP83" s="37"/>
+      <c r="BQ83" s="37"/>
+      <c r="BR83" s="37"/>
+      <c r="BS83" s="37"/>
+      <c r="BT83" s="37"/>
+      <c r="BU83" s="37"/>
+      <c r="BV83" s="37"/>
+      <c r="BW83" s="37"/>
+      <c r="BX83" s="37"/>
+      <c r="BY83" s="37"/>
+      <c r="BZ83" s="37"/>
+      <c r="CA83" s="37"/>
+      <c r="CB83" s="37"/>
+      <c r="CC83" s="37"/>
+      <c r="CD83" s="37"/>
+      <c r="CE83" s="37"/>
+      <c r="CF83" s="37"/>
+      <c r="CG83" s="37"/>
+      <c r="CH83" s="37"/>
+      <c r="CI83" s="37"/>
+      <c r="CJ83" s="37"/>
+      <c r="CK83" s="37"/>
+      <c r="CL83" s="37"/>
+      <c r="CM83" s="37"/>
+      <c r="CN83" s="37"/>
+      <c r="CO83" s="37"/>
+      <c r="CP83" s="37"/>
+      <c r="CQ83" s="37"/>
+      <c r="CR83" s="37"/>
+      <c r="CS83" s="37"/>
+      <c r="CT83" s="37"/>
+    </row>
+    <row r="84" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT84" s="37"/>
+      <c r="AU84" s="37"/>
+      <c r="AV84" s="37"/>
+      <c r="AW84" s="37"/>
+      <c r="AX84" s="37"/>
+      <c r="AY84" s="37"/>
+      <c r="AZ84" s="37"/>
+      <c r="BA84" s="37"/>
+      <c r="BB84" s="37"/>
+      <c r="BC84" s="37"/>
+      <c r="BD84" s="37"/>
+      <c r="BE84" s="37"/>
+      <c r="BF84" s="37"/>
+      <c r="BG84" s="37"/>
+      <c r="BH84" s="37"/>
+      <c r="BI84" s="37"/>
+      <c r="BJ84" s="37"/>
+      <c r="BK84" s="37"/>
+      <c r="BL84" s="37"/>
+      <c r="BM84" s="37"/>
+      <c r="BN84" s="37"/>
+      <c r="BO84" s="37"/>
+      <c r="BP84" s="37"/>
+      <c r="BQ84" s="37"/>
+      <c r="BR84" s="37"/>
+      <c r="BS84" s="37"/>
+      <c r="BT84" s="37"/>
+      <c r="BU84" s="37"/>
+      <c r="BV84" s="37"/>
+      <c r="BW84" s="37"/>
+      <c r="BX84" s="37"/>
+      <c r="BY84" s="37"/>
+      <c r="BZ84" s="37"/>
+      <c r="CA84" s="37"/>
+      <c r="CB84" s="37"/>
+      <c r="CC84" s="37"/>
+      <c r="CD84" s="37"/>
+      <c r="CE84" s="37"/>
+      <c r="CF84" s="37"/>
+      <c r="CG84" s="37"/>
+      <c r="CH84" s="37"/>
+      <c r="CI84" s="37"/>
+      <c r="CJ84" s="37"/>
+      <c r="CK84" s="37"/>
+      <c r="CL84" s="37"/>
+      <c r="CM84" s="37"/>
+      <c r="CN84" s="37"/>
+      <c r="CO84" s="37"/>
+      <c r="CP84" s="37"/>
+      <c r="CQ84" s="37"/>
+      <c r="CR84" s="37"/>
+      <c r="CS84" s="37"/>
+      <c r="CT84" s="37"/>
+    </row>
+    <row r="85" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT85" s="37"/>
+      <c r="AU85" s="37"/>
+      <c r="AV85" s="37"/>
+      <c r="AW85" s="37"/>
+      <c r="AX85" s="37"/>
+      <c r="AY85" s="37"/>
+      <c r="AZ85" s="37"/>
+      <c r="BA85" s="37"/>
+      <c r="BB85" s="37"/>
+      <c r="BC85" s="37"/>
+      <c r="BD85" s="37"/>
+      <c r="BE85" s="37"/>
+      <c r="BF85" s="37"/>
+      <c r="BG85" s="37"/>
+      <c r="BH85" s="37"/>
+      <c r="BI85" s="37"/>
+      <c r="BJ85" s="37"/>
+      <c r="BK85" s="37"/>
+      <c r="BL85" s="37"/>
+      <c r="BM85" s="37"/>
+      <c r="BN85" s="37"/>
+      <c r="BO85" s="37"/>
+      <c r="BP85" s="37"/>
+      <c r="BQ85" s="37"/>
+      <c r="BR85" s="37"/>
+      <c r="BS85" s="37"/>
+      <c r="BT85" s="37"/>
+      <c r="BU85" s="37"/>
+      <c r="BV85" s="37"/>
+      <c r="BW85" s="37"/>
+      <c r="BX85" s="37"/>
+      <c r="BY85" s="37"/>
+      <c r="BZ85" s="37"/>
+      <c r="CA85" s="37"/>
+      <c r="CB85" s="37"/>
+      <c r="CC85" s="37"/>
+      <c r="CD85" s="37"/>
+      <c r="CE85" s="37"/>
+      <c r="CF85" s="37"/>
+      <c r="CG85" s="37"/>
+      <c r="CH85" s="37"/>
+      <c r="CI85" s="37"/>
+      <c r="CJ85" s="37"/>
+      <c r="CK85" s="37"/>
+      <c r="CL85" s="37"/>
+      <c r="CM85" s="37"/>
+      <c r="CN85" s="37"/>
+      <c r="CO85" s="37"/>
+      <c r="CP85" s="37"/>
+      <c r="CQ85" s="37"/>
+      <c r="CR85" s="37"/>
+      <c r="CS85" s="37"/>
+      <c r="CT85" s="37"/>
+    </row>
+    <row r="86" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT86" s="37"/>
+      <c r="AU86" s="37"/>
+      <c r="AV86" s="37"/>
+      <c r="AW86" s="37"/>
+      <c r="AX86" s="37"/>
+      <c r="AY86" s="37"/>
+      <c r="AZ86" s="37"/>
+      <c r="BA86" s="37"/>
+      <c r="BB86" s="37"/>
+      <c r="BC86" s="37"/>
+      <c r="BD86" s="37"/>
+      <c r="BE86" s="37"/>
+      <c r="BF86" s="37"/>
+      <c r="BG86" s="37"/>
+      <c r="BH86" s="37"/>
+      <c r="BI86" s="37"/>
+      <c r="BJ86" s="37"/>
+      <c r="BK86" s="37"/>
+      <c r="BL86" s="37"/>
+      <c r="BM86" s="37"/>
+      <c r="BN86" s="37"/>
+      <c r="BO86" s="37"/>
+      <c r="BP86" s="37"/>
+      <c r="BQ86" s="37"/>
+      <c r="BR86" s="37"/>
+      <c r="BS86" s="37"/>
+      <c r="BT86" s="37"/>
+      <c r="BU86" s="37"/>
+      <c r="BV86" s="37"/>
+      <c r="BW86" s="37"/>
+      <c r="BX86" s="37"/>
+      <c r="BY86" s="37"/>
+      <c r="BZ86" s="37"/>
+      <c r="CA86" s="37"/>
+      <c r="CB86" s="37"/>
+      <c r="CC86" s="37"/>
+      <c r="CD86" s="37"/>
+      <c r="CE86" s="37"/>
+      <c r="CF86" s="37"/>
+      <c r="CG86" s="37"/>
+      <c r="CH86" s="37"/>
+      <c r="CI86" s="37"/>
+      <c r="CJ86" s="37"/>
+      <c r="CK86" s="37"/>
+      <c r="CL86" s="37"/>
+      <c r="CM86" s="37"/>
+      <c r="CN86" s="37"/>
+      <c r="CO86" s="37"/>
+      <c r="CP86" s="37"/>
+      <c r="CQ86" s="37"/>
+      <c r="CR86" s="37"/>
+      <c r="CS86" s="37"/>
+      <c r="CT86" s="37"/>
+    </row>
+    <row r="87" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT87" s="37"/>
+      <c r="AU87" s="37"/>
+      <c r="AV87" s="37"/>
+      <c r="AW87" s="37"/>
+      <c r="AX87" s="37"/>
+      <c r="AY87" s="37"/>
+      <c r="AZ87" s="37"/>
+      <c r="BA87" s="37"/>
+      <c r="BB87" s="37"/>
+      <c r="BC87" s="37"/>
+      <c r="BD87" s="37"/>
+      <c r="BE87" s="37"/>
+      <c r="BF87" s="37"/>
+      <c r="BG87" s="37"/>
+      <c r="BH87" s="37"/>
+      <c r="BI87" s="37"/>
+      <c r="BJ87" s="37"/>
+      <c r="BK87" s="37"/>
+      <c r="BL87" s="37"/>
+      <c r="BM87" s="37"/>
+      <c r="BN87" s="37"/>
+      <c r="BO87" s="37"/>
+      <c r="BP87" s="37"/>
+      <c r="BQ87" s="37"/>
+      <c r="BR87" s="37"/>
+      <c r="BS87" s="37"/>
+      <c r="BT87" s="37"/>
+      <c r="BU87" s="37"/>
+      <c r="BV87" s="37"/>
+      <c r="BW87" s="37"/>
+      <c r="BX87" s="37"/>
+      <c r="BY87" s="37"/>
+      <c r="BZ87" s="37"/>
+      <c r="CA87" s="37"/>
+      <c r="CB87" s="37"/>
+      <c r="CC87" s="37"/>
+      <c r="CD87" s="37"/>
+      <c r="CE87" s="37"/>
+      <c r="CF87" s="37"/>
+      <c r="CG87" s="37"/>
+      <c r="CH87" s="37"/>
+      <c r="CI87" s="37"/>
+      <c r="CJ87" s="37"/>
+      <c r="CK87" s="37"/>
+      <c r="CL87" s="37"/>
+      <c r="CM87" s="37"/>
+      <c r="CN87" s="37"/>
+      <c r="CO87" s="37"/>
+      <c r="CP87" s="37"/>
+      <c r="CQ87" s="37"/>
+      <c r="CR87" s="37"/>
+      <c r="CS87" s="37"/>
+      <c r="CT87" s="37"/>
+    </row>
+    <row r="88" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT88" s="37"/>
+      <c r="AU88" s="37"/>
+      <c r="AV88" s="37"/>
+      <c r="AW88" s="37"/>
+      <c r="AX88" s="37"/>
+      <c r="AY88" s="37"/>
+      <c r="AZ88" s="37"/>
+      <c r="BA88" s="37"/>
+      <c r="BB88" s="37"/>
+      <c r="BC88" s="37"/>
+      <c r="BD88" s="37"/>
+      <c r="BE88" s="37"/>
+      <c r="BF88" s="37"/>
+      <c r="BG88" s="37"/>
+      <c r="BH88" s="37"/>
+      <c r="BI88" s="37"/>
+      <c r="BJ88" s="37"/>
+      <c r="BK88" s="37"/>
+      <c r="BL88" s="37"/>
+      <c r="BM88" s="37"/>
+      <c r="BN88" s="37"/>
+      <c r="BO88" s="37"/>
+      <c r="BP88" s="37"/>
+      <c r="BQ88" s="37"/>
+      <c r="BR88" s="37"/>
+      <c r="BS88" s="37"/>
+      <c r="BT88" s="37"/>
+      <c r="BU88" s="37"/>
+      <c r="BV88" s="37"/>
+      <c r="BW88" s="37"/>
+      <c r="BX88" s="37"/>
+      <c r="BY88" s="37"/>
+      <c r="BZ88" s="37"/>
+      <c r="CA88" s="37"/>
+      <c r="CB88" s="37"/>
+      <c r="CC88" s="37"/>
+      <c r="CD88" s="37"/>
+      <c r="CE88" s="37"/>
+      <c r="CF88" s="37"/>
+      <c r="CG88" s="37"/>
+      <c r="CH88" s="37"/>
+      <c r="CI88" s="37"/>
+      <c r="CJ88" s="37"/>
+      <c r="CK88" s="37"/>
+      <c r="CL88" s="37"/>
+      <c r="CM88" s="37"/>
+      <c r="CN88" s="37"/>
+      <c r="CO88" s="37"/>
+      <c r="CP88" s="37"/>
+      <c r="CQ88" s="37"/>
+      <c r="CR88" s="37"/>
+      <c r="CS88" s="37"/>
+      <c r="CT88" s="37"/>
+    </row>
+    <row r="89" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT89" s="37"/>
+      <c r="AU89" s="37"/>
+      <c r="AV89" s="37"/>
+      <c r="AW89" s="37"/>
+      <c r="AX89" s="37"/>
+      <c r="AY89" s="37"/>
+      <c r="AZ89" s="37"/>
+      <c r="BA89" s="37"/>
+      <c r="BB89" s="37"/>
+      <c r="BC89" s="37"/>
+      <c r="BD89" s="37"/>
+      <c r="BE89" s="37"/>
+      <c r="BF89" s="37"/>
+      <c r="BG89" s="37"/>
+      <c r="BH89" s="37"/>
+      <c r="BI89" s="37"/>
+      <c r="BJ89" s="37"/>
+      <c r="BK89" s="37"/>
+      <c r="BL89" s="37"/>
+      <c r="BM89" s="37"/>
+      <c r="BN89" s="37"/>
+      <c r="BO89" s="37"/>
+      <c r="BP89" s="37"/>
+      <c r="BQ89" s="37"/>
+      <c r="BR89" s="37"/>
+      <c r="BS89" s="37"/>
+      <c r="BT89" s="37"/>
+      <c r="BU89" s="37"/>
+      <c r="BV89" s="37"/>
+      <c r="BW89" s="37"/>
+      <c r="BX89" s="37"/>
+      <c r="BY89" s="37"/>
+      <c r="BZ89" s="37"/>
+      <c r="CA89" s="37"/>
+      <c r="CB89" s="37"/>
+      <c r="CC89" s="37"/>
+      <c r="CD89" s="37"/>
+      <c r="CE89" s="37"/>
+      <c r="CF89" s="37"/>
+      <c r="CG89" s="37"/>
+      <c r="CH89" s="37"/>
+      <c r="CI89" s="37"/>
+      <c r="CJ89" s="37"/>
+      <c r="CK89" s="37"/>
+      <c r="CL89" s="37"/>
+      <c r="CM89" s="37"/>
+      <c r="CN89" s="37"/>
+      <c r="CO89" s="37"/>
+      <c r="CP89" s="37"/>
+      <c r="CQ89" s="37"/>
+      <c r="CR89" s="37"/>
+      <c r="CS89" s="37"/>
+      <c r="CT89" s="37"/>
+    </row>
+    <row r="90" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT90" s="37"/>
+      <c r="AU90" s="37"/>
+      <c r="AV90" s="37"/>
+      <c r="AW90" s="37"/>
+      <c r="AX90" s="37"/>
+      <c r="AY90" s="37"/>
+      <c r="AZ90" s="37"/>
+      <c r="BA90" s="37"/>
+      <c r="BB90" s="37"/>
+      <c r="BC90" s="37"/>
+      <c r="BD90" s="37"/>
+      <c r="BE90" s="37"/>
+      <c r="BF90" s="37"/>
+      <c r="BG90" s="37"/>
+      <c r="BH90" s="37"/>
+      <c r="BI90" s="37"/>
+      <c r="BJ90" s="37"/>
+      <c r="BK90" s="37"/>
+      <c r="BL90" s="37"/>
+      <c r="BM90" s="37"/>
+      <c r="BN90" s="37"/>
+      <c r="BO90" s="37"/>
+      <c r="BP90" s="37"/>
+      <c r="BQ90" s="37"/>
+      <c r="BR90" s="37"/>
+      <c r="BS90" s="37"/>
+      <c r="BT90" s="37"/>
+      <c r="BU90" s="37"/>
+      <c r="BV90" s="37"/>
+      <c r="BW90" s="37"/>
+      <c r="BX90" s="37"/>
+      <c r="BY90" s="37"/>
+      <c r="BZ90" s="37"/>
+      <c r="CA90" s="37"/>
+      <c r="CB90" s="37"/>
+      <c r="CC90" s="37"/>
+      <c r="CD90" s="37"/>
+      <c r="CE90" s="37"/>
+      <c r="CF90" s="37"/>
+      <c r="CG90" s="37"/>
+      <c r="CH90" s="37"/>
+      <c r="CI90" s="37"/>
+      <c r="CJ90" s="37"/>
+      <c r="CK90" s="37"/>
+      <c r="CL90" s="37"/>
+      <c r="CM90" s="37"/>
+      <c r="CN90" s="37"/>
+      <c r="CO90" s="37"/>
+      <c r="CP90" s="37"/>
+      <c r="CQ90" s="37"/>
+      <c r="CR90" s="37"/>
+      <c r="CS90" s="37"/>
+      <c r="CT90" s="37"/>
+    </row>
+    <row r="91" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT91" s="37"/>
+      <c r="AU91" s="37"/>
+      <c r="AV91" s="37"/>
+      <c r="AW91" s="37"/>
+      <c r="AX91" s="37"/>
+      <c r="AY91" s="37"/>
+      <c r="AZ91" s="37"/>
+      <c r="BA91" s="37"/>
+      <c r="BB91" s="37"/>
+      <c r="BC91" s="37"/>
+      <c r="BD91" s="37"/>
+      <c r="BE91" s="37"/>
+      <c r="BF91" s="37"/>
+      <c r="BG91" s="37"/>
+      <c r="BH91" s="37"/>
+      <c r="BI91" s="37"/>
+      <c r="BJ91" s="37"/>
+      <c r="BK91" s="37"/>
+      <c r="BL91" s="37"/>
+      <c r="BM91" s="37"/>
+      <c r="BN91" s="37"/>
+      <c r="BO91" s="37"/>
+      <c r="BP91" s="37"/>
+      <c r="BQ91" s="37"/>
+      <c r="BR91" s="37"/>
+      <c r="BS91" s="37"/>
+      <c r="BT91" s="37"/>
+      <c r="BU91" s="37"/>
+      <c r="BV91" s="37"/>
+      <c r="BW91" s="37"/>
+      <c r="BX91" s="37"/>
+      <c r="BY91" s="37"/>
+      <c r="BZ91" s="37"/>
+      <c r="CA91" s="37"/>
+      <c r="CB91" s="37"/>
+      <c r="CC91" s="37"/>
+      <c r="CD91" s="37"/>
+      <c r="CE91" s="37"/>
+      <c r="CF91" s="37"/>
+      <c r="CG91" s="37"/>
+      <c r="CH91" s="37"/>
+      <c r="CI91" s="37"/>
+      <c r="CJ91" s="37"/>
+      <c r="CK91" s="37"/>
+      <c r="CL91" s="37"/>
+      <c r="CM91" s="37"/>
+      <c r="CN91" s="37"/>
+      <c r="CO91" s="37"/>
+      <c r="CP91" s="37"/>
+      <c r="CQ91" s="37"/>
+      <c r="CR91" s="37"/>
+      <c r="CS91" s="37"/>
+      <c r="CT91" s="37"/>
+    </row>
+    <row r="92" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT92" s="37"/>
+      <c r="AU92" s="37"/>
+      <c r="AV92" s="37"/>
+      <c r="AW92" s="37"/>
+      <c r="AX92" s="37"/>
+      <c r="AY92" s="37"/>
+      <c r="AZ92" s="37"/>
+      <c r="BA92" s="37"/>
+      <c r="BB92" s="37"/>
+      <c r="BC92" s="37"/>
+      <c r="BD92" s="37"/>
+      <c r="BE92" s="37"/>
+      <c r="BF92" s="37"/>
+      <c r="BG92" s="37"/>
+      <c r="BH92" s="37"/>
+      <c r="BI92" s="37"/>
+      <c r="BJ92" s="37"/>
+      <c r="BK92" s="37"/>
+      <c r="BL92" s="37"/>
+      <c r="BM92" s="37"/>
+      <c r="BN92" s="37"/>
+      <c r="BO92" s="37"/>
+      <c r="BP92" s="37"/>
+      <c r="BQ92" s="37"/>
+      <c r="BR92" s="37"/>
+      <c r="BS92" s="37"/>
+      <c r="BT92" s="37"/>
+      <c r="BU92" s="37"/>
+      <c r="BV92" s="37"/>
+      <c r="BW92" s="37"/>
+      <c r="BX92" s="37"/>
+      <c r="BY92" s="37"/>
+      <c r="BZ92" s="37"/>
+      <c r="CA92" s="37"/>
+      <c r="CB92" s="37"/>
+      <c r="CC92" s="37"/>
+      <c r="CD92" s="37"/>
+      <c r="CE92" s="37"/>
+      <c r="CF92" s="37"/>
+      <c r="CG92" s="37"/>
+      <c r="CH92" s="37"/>
+      <c r="CI92" s="37"/>
+      <c r="CJ92" s="37"/>
+      <c r="CK92" s="37"/>
+      <c r="CL92" s="37"/>
+      <c r="CM92" s="37"/>
+      <c r="CN92" s="37"/>
+      <c r="CO92" s="37"/>
+      <c r="CP92" s="37"/>
+      <c r="CQ92" s="37"/>
+      <c r="CR92" s="37"/>
+      <c r="CS92" s="37"/>
+      <c r="CT92" s="37"/>
+    </row>
+    <row r="93" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT93" s="37"/>
+      <c r="AU93" s="37"/>
+      <c r="AV93" s="37"/>
+      <c r="AW93" s="37"/>
+      <c r="AX93" s="37"/>
+      <c r="AY93" s="37"/>
+      <c r="AZ93" s="37"/>
+      <c r="BA93" s="37"/>
+      <c r="BB93" s="37"/>
+      <c r="BC93" s="37"/>
+      <c r="BD93" s="37"/>
+      <c r="BE93" s="37"/>
+      <c r="BF93" s="37"/>
+      <c r="BG93" s="37"/>
+      <c r="BH93" s="37"/>
+      <c r="BI93" s="37"/>
+      <c r="BJ93" s="37"/>
+      <c r="BK93" s="37"/>
+      <c r="BL93" s="37"/>
+      <c r="BM93" s="37"/>
+      <c r="BN93" s="37"/>
+      <c r="BO93" s="37"/>
+      <c r="BP93" s="37"/>
+      <c r="BQ93" s="37"/>
+      <c r="BR93" s="37"/>
+      <c r="BS93" s="37"/>
+      <c r="BT93" s="37"/>
+      <c r="BU93" s="37"/>
+      <c r="BV93" s="37"/>
+      <c r="BW93" s="37"/>
+      <c r="BX93" s="37"/>
+      <c r="BY93" s="37"/>
+      <c r="BZ93" s="37"/>
+      <c r="CA93" s="37"/>
+      <c r="CB93" s="37"/>
+      <c r="CC93" s="37"/>
+      <c r="CD93" s="37"/>
+      <c r="CE93" s="37"/>
+      <c r="CF93" s="37"/>
+      <c r="CG93" s="37"/>
+      <c r="CH93" s="37"/>
+      <c r="CI93" s="37"/>
+      <c r="CJ93" s="37"/>
+      <c r="CK93" s="37"/>
+      <c r="CL93" s="37"/>
+      <c r="CM93" s="37"/>
+      <c r="CN93" s="37"/>
+      <c r="CO93" s="37"/>
+      <c r="CP93" s="37"/>
+      <c r="CQ93" s="37"/>
+      <c r="CR93" s="37"/>
+      <c r="CS93" s="37"/>
+      <c r="CT93" s="37"/>
+    </row>
+    <row r="94" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT94" s="37"/>
+      <c r="AU94" s="37"/>
+      <c r="AV94" s="37"/>
+      <c r="AW94" s="37"/>
+      <c r="AX94" s="37"/>
+      <c r="AY94" s="37"/>
+      <c r="AZ94" s="37"/>
+      <c r="BA94" s="37"/>
+      <c r="BB94" s="37"/>
+      <c r="BC94" s="37"/>
+      <c r="BD94" s="37"/>
+      <c r="BE94" s="37"/>
+      <c r="BF94" s="37"/>
+      <c r="BG94" s="37"/>
+      <c r="BH94" s="37"/>
+      <c r="BI94" s="37"/>
+      <c r="BJ94" s="37"/>
+      <c r="BK94" s="37"/>
+      <c r="BL94" s="37"/>
+      <c r="BM94" s="37"/>
+      <c r="BN94" s="37"/>
+      <c r="BO94" s="37"/>
+      <c r="BP94" s="37"/>
+      <c r="BQ94" s="37"/>
+      <c r="BR94" s="37"/>
+      <c r="BS94" s="37"/>
+      <c r="BT94" s="37"/>
+      <c r="BU94" s="37"/>
+      <c r="BV94" s="37"/>
+      <c r="BW94" s="37"/>
+      <c r="BX94" s="37"/>
+      <c r="BY94" s="37"/>
+      <c r="BZ94" s="37"/>
+      <c r="CA94" s="37"/>
+      <c r="CB94" s="37"/>
+      <c r="CC94" s="37"/>
+      <c r="CD94" s="37"/>
+      <c r="CE94" s="37"/>
+      <c r="CF94" s="37"/>
+      <c r="CG94" s="37"/>
+      <c r="CH94" s="37"/>
+      <c r="CI94" s="37"/>
+      <c r="CJ94" s="37"/>
+      <c r="CK94" s="37"/>
+      <c r="CL94" s="37"/>
+      <c r="CM94" s="37"/>
+      <c r="CN94" s="37"/>
+      <c r="CO94" s="37"/>
+      <c r="CP94" s="37"/>
+      <c r="CQ94" s="37"/>
+      <c r="CR94" s="37"/>
+      <c r="CS94" s="37"/>
+      <c r="CT94" s="37"/>
+    </row>
+    <row r="95" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT95" s="37"/>
+      <c r="AU95" s="37"/>
+      <c r="AV95" s="37"/>
+      <c r="AW95" s="37"/>
+      <c r="AX95" s="37"/>
+      <c r="AY95" s="37"/>
+      <c r="AZ95" s="37"/>
+      <c r="BA95" s="37"/>
+      <c r="BB95" s="37"/>
+      <c r="BC95" s="37"/>
+      <c r="BD95" s="37"/>
+      <c r="BE95" s="37"/>
+      <c r="BF95" s="37"/>
+      <c r="BG95" s="37"/>
+      <c r="BH95" s="37"/>
+      <c r="BI95" s="37"/>
+      <c r="BJ95" s="37"/>
+      <c r="BK95" s="37"/>
+      <c r="BL95" s="37"/>
+      <c r="BM95" s="37"/>
+      <c r="BN95" s="37"/>
+      <c r="BO95" s="37"/>
+      <c r="BP95" s="37"/>
+      <c r="BQ95" s="37"/>
+      <c r="BR95" s="37"/>
+      <c r="BS95" s="37"/>
+      <c r="BT95" s="37"/>
+      <c r="BU95" s="37"/>
+      <c r="BV95" s="37"/>
+      <c r="BW95" s="37"/>
+      <c r="BX95" s="37"/>
+      <c r="BY95" s="37"/>
+      <c r="BZ95" s="37"/>
+      <c r="CA95" s="37"/>
+      <c r="CB95" s="37"/>
+      <c r="CC95" s="37"/>
+      <c r="CD95" s="37"/>
+      <c r="CE95" s="37"/>
+      <c r="CF95" s="37"/>
+      <c r="CG95" s="37"/>
+      <c r="CH95" s="37"/>
+      <c r="CI95" s="37"/>
+      <c r="CJ95" s="37"/>
+      <c r="CK95" s="37"/>
+      <c r="CL95" s="37"/>
+      <c r="CM95" s="37"/>
+      <c r="CN95" s="37"/>
+      <c r="CO95" s="37"/>
+      <c r="CP95" s="37"/>
+      <c r="CQ95" s="37"/>
+      <c r="CR95" s="37"/>
+      <c r="CS95" s="37"/>
+      <c r="CT95" s="37"/>
+    </row>
+    <row r="96" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT96" s="37"/>
+      <c r="AU96" s="37"/>
+      <c r="AV96" s="37"/>
+      <c r="AW96" s="37"/>
+      <c r="AX96" s="37"/>
+      <c r="AY96" s="37"/>
+      <c r="AZ96" s="37"/>
+      <c r="BA96" s="37"/>
+      <c r="BB96" s="37"/>
+      <c r="BC96" s="37"/>
+      <c r="BD96" s="37"/>
+      <c r="BE96" s="37"/>
+      <c r="BF96" s="37"/>
+      <c r="BG96" s="37"/>
+      <c r="BH96" s="37"/>
+      <c r="BI96" s="37"/>
+      <c r="BJ96" s="37"/>
+      <c r="BK96" s="37"/>
+      <c r="BL96" s="37"/>
+      <c r="BM96" s="37"/>
+      <c r="BN96" s="37"/>
+      <c r="BO96" s="37"/>
+      <c r="BP96" s="37"/>
+      <c r="BQ96" s="37"/>
+      <c r="BR96" s="37"/>
+      <c r="BS96" s="37"/>
+      <c r="BT96" s="37"/>
+      <c r="BU96" s="37"/>
+      <c r="BV96" s="37"/>
+      <c r="BW96" s="37"/>
+      <c r="BX96" s="37"/>
+      <c r="BY96" s="37"/>
+      <c r="BZ96" s="37"/>
+      <c r="CA96" s="37"/>
+      <c r="CB96" s="37"/>
+      <c r="CC96" s="37"/>
+      <c r="CD96" s="37"/>
+      <c r="CE96" s="37"/>
+      <c r="CF96" s="37"/>
+      <c r="CG96" s="37"/>
+      <c r="CH96" s="37"/>
+      <c r="CI96" s="37"/>
+      <c r="CJ96" s="37"/>
+      <c r="CK96" s="37"/>
+      <c r="CL96" s="37"/>
+      <c r="CM96" s="37"/>
+      <c r="CN96" s="37"/>
+      <c r="CO96" s="37"/>
+      <c r="CP96" s="37"/>
+      <c r="CQ96" s="37"/>
+      <c r="CR96" s="37"/>
+      <c r="CS96" s="37"/>
+      <c r="CT96" s="37"/>
+    </row>
+    <row r="97" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT97" s="37"/>
+      <c r="AU97" s="37"/>
+      <c r="AV97" s="37"/>
+      <c r="AW97" s="37"/>
+      <c r="AX97" s="37"/>
+      <c r="AY97" s="37"/>
+      <c r="AZ97" s="37"/>
+      <c r="BA97" s="37"/>
+      <c r="BB97" s="37"/>
+      <c r="BC97" s="37"/>
+      <c r="BD97" s="37"/>
+      <c r="BE97" s="37"/>
+      <c r="BF97" s="37"/>
+      <c r="BG97" s="37"/>
+      <c r="BH97" s="37"/>
+      <c r="BI97" s="37"/>
+      <c r="BJ97" s="37"/>
+      <c r="BK97" s="37"/>
+      <c r="BL97" s="37"/>
+      <c r="BM97" s="37"/>
+      <c r="BN97" s="37"/>
+      <c r="BO97" s="37"/>
+      <c r="BP97" s="37"/>
+      <c r="BQ97" s="37"/>
+      <c r="BR97" s="37"/>
+      <c r="BS97" s="37"/>
+      <c r="BT97" s="37"/>
+      <c r="BU97" s="37"/>
+      <c r="BV97" s="37"/>
+      <c r="BW97" s="37"/>
+      <c r="BX97" s="37"/>
+      <c r="BY97" s="37"/>
+      <c r="BZ97" s="37"/>
+      <c r="CA97" s="37"/>
+      <c r="CB97" s="37"/>
+      <c r="CC97" s="37"/>
+      <c r="CD97" s="37"/>
+      <c r="CE97" s="37"/>
+      <c r="CF97" s="37"/>
+      <c r="CG97" s="37"/>
+      <c r="CH97" s="37"/>
+      <c r="CI97" s="37"/>
+      <c r="CJ97" s="37"/>
+      <c r="CK97" s="37"/>
+      <c r="CL97" s="37"/>
+      <c r="CM97" s="37"/>
+      <c r="CN97" s="37"/>
+      <c r="CO97" s="37"/>
+      <c r="CP97" s="37"/>
+      <c r="CQ97" s="37"/>
+      <c r="CR97" s="37"/>
+      <c r="CS97" s="37"/>
+      <c r="CT97" s="37"/>
+    </row>
+    <row r="98" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT98" s="37"/>
+      <c r="AU98" s="37"/>
+      <c r="AV98" s="37"/>
+      <c r="AW98" s="37"/>
+      <c r="AX98" s="37"/>
+      <c r="AY98" s="37"/>
+      <c r="AZ98" s="37"/>
+      <c r="BA98" s="37"/>
+      <c r="BB98" s="37"/>
+      <c r="BC98" s="37"/>
+      <c r="BD98" s="37"/>
+      <c r="BE98" s="37"/>
+      <c r="BF98" s="37"/>
+      <c r="BG98" s="37"/>
+      <c r="BH98" s="37"/>
+      <c r="BI98" s="37"/>
+      <c r="BJ98" s="37"/>
+      <c r="BK98" s="37"/>
+      <c r="BL98" s="37"/>
+      <c r="BM98" s="37"/>
+      <c r="BN98" s="37"/>
+      <c r="BO98" s="37"/>
+      <c r="BP98" s="37"/>
+      <c r="BQ98" s="37"/>
+      <c r="BR98" s="37"/>
+      <c r="BS98" s="37"/>
+      <c r="BT98" s="37"/>
+      <c r="BU98" s="37"/>
+      <c r="BV98" s="37"/>
+      <c r="BW98" s="37"/>
+      <c r="BX98" s="37"/>
+      <c r="BY98" s="37"/>
+      <c r="BZ98" s="37"/>
+      <c r="CA98" s="37"/>
+      <c r="CB98" s="37"/>
+      <c r="CC98" s="37"/>
+      <c r="CD98" s="37"/>
+      <c r="CE98" s="37"/>
+      <c r="CF98" s="37"/>
+      <c r="CG98" s="37"/>
+      <c r="CH98" s="37"/>
+      <c r="CI98" s="37"/>
+      <c r="CJ98" s="37"/>
+      <c r="CK98" s="37"/>
+      <c r="CL98" s="37"/>
+      <c r="CM98" s="37"/>
+      <c r="CN98" s="37"/>
+      <c r="CO98" s="37"/>
+      <c r="CP98" s="37"/>
+      <c r="CQ98" s="37"/>
+      <c r="CR98" s="37"/>
+      <c r="CS98" s="37"/>
+      <c r="CT98" s="37"/>
+    </row>
+    <row r="99" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT99" s="37"/>
+      <c r="AU99" s="37"/>
+      <c r="AV99" s="37"/>
+      <c r="AW99" s="37"/>
+      <c r="AX99" s="37"/>
+      <c r="AY99" s="37"/>
+      <c r="AZ99" s="37"/>
+      <c r="BA99" s="37"/>
+      <c r="BB99" s="37"/>
+      <c r="BC99" s="37"/>
+      <c r="BD99" s="37"/>
+      <c r="BE99" s="37"/>
+      <c r="BF99" s="37"/>
+      <c r="BG99" s="37"/>
+      <c r="BH99" s="37"/>
+      <c r="BI99" s="37"/>
+      <c r="BJ99" s="37"/>
+      <c r="BK99" s="37"/>
+      <c r="BL99" s="37"/>
+      <c r="BM99" s="37"/>
+      <c r="BN99" s="37"/>
+      <c r="BO99" s="37"/>
+      <c r="BP99" s="37"/>
+      <c r="BQ99" s="37"/>
+      <c r="BR99" s="37"/>
+      <c r="BS99" s="37"/>
+      <c r="BT99" s="37"/>
+      <c r="BU99" s="37"/>
+      <c r="BV99" s="37"/>
+      <c r="BW99" s="37"/>
+      <c r="BX99" s="37"/>
+      <c r="BY99" s="37"/>
+      <c r="BZ99" s="37"/>
+      <c r="CA99" s="37"/>
+      <c r="CB99" s="37"/>
+      <c r="CC99" s="37"/>
+      <c r="CD99" s="37"/>
+      <c r="CE99" s="37"/>
+      <c r="CF99" s="37"/>
+      <c r="CG99" s="37"/>
+      <c r="CH99" s="37"/>
+      <c r="CI99" s="37"/>
+      <c r="CJ99" s="37"/>
+      <c r="CK99" s="37"/>
+      <c r="CL99" s="37"/>
+      <c r="CM99" s="37"/>
+      <c r="CN99" s="37"/>
+      <c r="CO99" s="37"/>
+      <c r="CP99" s="37"/>
+      <c r="CQ99" s="37"/>
+      <c r="CR99" s="37"/>
+      <c r="CS99" s="37"/>
+      <c r="CT99" s="37"/>
+    </row>
+    <row r="100" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT100" s="37"/>
+      <c r="AU100" s="37"/>
+      <c r="AV100" s="37"/>
+      <c r="AW100" s="37"/>
+      <c r="AX100" s="37"/>
+      <c r="AY100" s="37"/>
+      <c r="AZ100" s="37"/>
+      <c r="BA100" s="37"/>
+      <c r="BB100" s="37"/>
+      <c r="BC100" s="37"/>
+      <c r="BD100" s="37"/>
+      <c r="BE100" s="37"/>
+      <c r="BF100" s="37"/>
+      <c r="BG100" s="37"/>
+      <c r="BH100" s="37"/>
+      <c r="BI100" s="37"/>
+      <c r="BJ100" s="37"/>
+      <c r="BK100" s="37"/>
+      <c r="BL100" s="37"/>
+      <c r="BM100" s="37"/>
+      <c r="BN100" s="37"/>
+      <c r="BO100" s="37"/>
+      <c r="BP100" s="37"/>
+      <c r="BQ100" s="37"/>
+      <c r="BR100" s="37"/>
+      <c r="BS100" s="37"/>
+      <c r="BT100" s="37"/>
+      <c r="BU100" s="37"/>
+      <c r="BV100" s="37"/>
+      <c r="BW100" s="37"/>
+      <c r="BX100" s="37"/>
+      <c r="BY100" s="37"/>
+      <c r="BZ100" s="37"/>
+      <c r="CA100" s="37"/>
+      <c r="CB100" s="37"/>
+      <c r="CC100" s="37"/>
+      <c r="CD100" s="37"/>
+      <c r="CE100" s="37"/>
+      <c r="CF100" s="37"/>
+      <c r="CG100" s="37"/>
+      <c r="CH100" s="37"/>
+      <c r="CI100" s="37"/>
+      <c r="CJ100" s="37"/>
+      <c r="CK100" s="37"/>
+      <c r="CL100" s="37"/>
+      <c r="CM100" s="37"/>
+      <c r="CN100" s="37"/>
+      <c r="CO100" s="37"/>
+      <c r="CP100" s="37"/>
+      <c r="CQ100" s="37"/>
+      <c r="CR100" s="37"/>
+      <c r="CS100" s="37"/>
+      <c r="CT100" s="37"/>
+    </row>
+    <row r="101" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT101" s="37"/>
+      <c r="AU101" s="37"/>
+      <c r="AV101" s="37"/>
+      <c r="AW101" s="37"/>
+      <c r="AX101" s="37"/>
+      <c r="AY101" s="37"/>
+      <c r="AZ101" s="37"/>
+      <c r="BA101" s="37"/>
+      <c r="BB101" s="37"/>
+      <c r="BC101" s="37"/>
+      <c r="BD101" s="37"/>
+      <c r="BE101" s="37"/>
+      <c r="BF101" s="37"/>
+      <c r="BG101" s="37"/>
+      <c r="BH101" s="37"/>
+      <c r="BI101" s="37"/>
+      <c r="BJ101" s="37"/>
+      <c r="BK101" s="37"/>
+      <c r="BL101" s="37"/>
+      <c r="BM101" s="37"/>
+      <c r="BN101" s="37"/>
+      <c r="BO101" s="37"/>
+      <c r="BP101" s="37"/>
+      <c r="BQ101" s="37"/>
+      <c r="BR101" s="37"/>
+      <c r="BS101" s="37"/>
+      <c r="BT101" s="37"/>
+      <c r="BU101" s="37"/>
+      <c r="BV101" s="37"/>
+      <c r="BW101" s="37"/>
+      <c r="BX101" s="37"/>
+      <c r="BY101" s="37"/>
+      <c r="BZ101" s="37"/>
+      <c r="CA101" s="37"/>
+      <c r="CB101" s="37"/>
+      <c r="CC101" s="37"/>
+      <c r="CD101" s="37"/>
+      <c r="CE101" s="37"/>
+      <c r="CF101" s="37"/>
+      <c r="CG101" s="37"/>
+      <c r="CH101" s="37"/>
+      <c r="CI101" s="37"/>
+      <c r="CJ101" s="37"/>
+      <c r="CK101" s="37"/>
+      <c r="CL101" s="37"/>
+      <c r="CM101" s="37"/>
+      <c r="CN101" s="37"/>
+      <c r="CO101" s="37"/>
+      <c r="CP101" s="37"/>
+      <c r="CQ101" s="37"/>
+      <c r="CR101" s="37"/>
+      <c r="CS101" s="37"/>
+      <c r="CT101" s="37"/>
+    </row>
+    <row r="102" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT102" s="37"/>
+      <c r="AU102" s="37"/>
+      <c r="AV102" s="37"/>
+      <c r="AW102" s="37"/>
+      <c r="AX102" s="37"/>
+      <c r="AY102" s="37"/>
+      <c r="AZ102" s="37"/>
+      <c r="BA102" s="37"/>
+      <c r="BB102" s="37"/>
+      <c r="BC102" s="37"/>
+      <c r="BD102" s="37"/>
+      <c r="BE102" s="37"/>
+      <c r="BF102" s="37"/>
+      <c r="BG102" s="37"/>
+      <c r="BH102" s="37"/>
+      <c r="BI102" s="37"/>
+      <c r="BJ102" s="37"/>
+      <c r="BK102" s="37"/>
+      <c r="BL102" s="37"/>
+      <c r="BM102" s="37"/>
+      <c r="BN102" s="37"/>
+      <c r="BO102" s="37"/>
+      <c r="BP102" s="37"/>
+      <c r="BQ102" s="37"/>
+      <c r="BR102" s="37"/>
+      <c r="BS102" s="37"/>
+      <c r="BT102" s="37"/>
+      <c r="BU102" s="37"/>
+      <c r="BV102" s="37"/>
+      <c r="BW102" s="37"/>
+      <c r="BX102" s="37"/>
+      <c r="BY102" s="37"/>
+      <c r="BZ102" s="37"/>
+      <c r="CA102" s="37"/>
+      <c r="CB102" s="37"/>
+      <c r="CC102" s="37"/>
+      <c r="CD102" s="37"/>
+      <c r="CE102" s="37"/>
+      <c r="CF102" s="37"/>
+      <c r="CG102" s="37"/>
+      <c r="CH102" s="37"/>
+      <c r="CI102" s="37"/>
+      <c r="CJ102" s="37"/>
+      <c r="CK102" s="37"/>
+      <c r="CL102" s="37"/>
+      <c r="CM102" s="37"/>
+      <c r="CN102" s="37"/>
+      <c r="CO102" s="37"/>
+      <c r="CP102" s="37"/>
+      <c r="CQ102" s="37"/>
+      <c r="CR102" s="37"/>
+      <c r="CS102" s="37"/>
+      <c r="CT102" s="37"/>
+    </row>
+    <row r="103" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT103" s="37"/>
+      <c r="AU103" s="37"/>
+      <c r="AV103" s="37"/>
+      <c r="AW103" s="37"/>
+      <c r="AX103" s="37"/>
+      <c r="AY103" s="37"/>
+      <c r="AZ103" s="37"/>
+      <c r="BA103" s="37"/>
+      <c r="BB103" s="37"/>
+      <c r="BC103" s="37"/>
+      <c r="BD103" s="37"/>
+      <c r="BE103" s="37"/>
+      <c r="BF103" s="37"/>
+      <c r="BG103" s="37"/>
+      <c r="BH103" s="37"/>
+      <c r="BI103" s="37"/>
+      <c r="BJ103" s="37"/>
+      <c r="BK103" s="37"/>
+      <c r="BL103" s="37"/>
+      <c r="BM103" s="37"/>
+      <c r="BN103" s="37"/>
+      <c r="BO103" s="37"/>
+      <c r="BP103" s="37"/>
+      <c r="BQ103" s="37"/>
+      <c r="BR103" s="37"/>
+      <c r="BS103" s="37"/>
+      <c r="BT103" s="37"/>
+      <c r="BU103" s="37"/>
+      <c r="BV103" s="37"/>
+      <c r="BW103" s="37"/>
+      <c r="BX103" s="37"/>
+      <c r="BY103" s="37"/>
+      <c r="BZ103" s="37"/>
+      <c r="CA103" s="37"/>
+      <c r="CB103" s="37"/>
+      <c r="CC103" s="37"/>
+      <c r="CD103" s="37"/>
+      <c r="CE103" s="37"/>
+      <c r="CF103" s="37"/>
+      <c r="CG103" s="37"/>
+      <c r="CH103" s="37"/>
+      <c r="CI103" s="37"/>
+      <c r="CJ103" s="37"/>
+      <c r="CK103" s="37"/>
+      <c r="CL103" s="37"/>
+      <c r="CM103" s="37"/>
+      <c r="CN103" s="37"/>
+      <c r="CO103" s="37"/>
+      <c r="CP103" s="37"/>
+      <c r="CQ103" s="37"/>
+      <c r="CR103" s="37"/>
+      <c r="CS103" s="37"/>
+      <c r="CT103" s="37"/>
+    </row>
+    <row r="104" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT104" s="37"/>
+      <c r="AU104" s="37"/>
+      <c r="AV104" s="37"/>
+      <c r="AW104" s="37"/>
+      <c r="AX104" s="37"/>
+      <c r="AY104" s="37"/>
+      <c r="AZ104" s="37"/>
+      <c r="BA104" s="37"/>
+      <c r="BB104" s="37"/>
+      <c r="BC104" s="37"/>
+      <c r="BD104" s="37"/>
+      <c r="BE104" s="37"/>
+      <c r="BF104" s="37"/>
+      <c r="BG104" s="37"/>
+      <c r="BH104" s="37"/>
+      <c r="BI104" s="37"/>
+      <c r="BJ104" s="37"/>
+      <c r="BK104" s="37"/>
+      <c r="BL104" s="37"/>
+      <c r="BM104" s="37"/>
+      <c r="BN104" s="37"/>
+      <c r="BO104" s="37"/>
+      <c r="BP104" s="37"/>
+      <c r="BQ104" s="37"/>
+      <c r="BR104" s="37"/>
+      <c r="BS104" s="37"/>
+      <c r="BT104" s="37"/>
+      <c r="BU104" s="37"/>
+      <c r="BV104" s="37"/>
+      <c r="BW104" s="37"/>
+      <c r="BX104" s="37"/>
+      <c r="BY104" s="37"/>
+      <c r="BZ104" s="37"/>
+      <c r="CA104" s="37"/>
+      <c r="CB104" s="37"/>
+      <c r="CC104" s="37"/>
+      <c r="CD104" s="37"/>
+      <c r="CE104" s="37"/>
+      <c r="CF104" s="37"/>
+      <c r="CG104" s="37"/>
+      <c r="CH104" s="37"/>
+      <c r="CI104" s="37"/>
+      <c r="CJ104" s="37"/>
+      <c r="CK104" s="37"/>
+      <c r="CL104" s="37"/>
+      <c r="CM104" s="37"/>
+      <c r="CN104" s="37"/>
+      <c r="CO104" s="37"/>
+      <c r="CP104" s="37"/>
+      <c r="CQ104" s="37"/>
+      <c r="CR104" s="37"/>
+      <c r="CS104" s="37"/>
+      <c r="CT104" s="37"/>
+    </row>
+    <row r="105" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT105" s="37"/>
+      <c r="AU105" s="37"/>
+      <c r="AV105" s="37"/>
+      <c r="AW105" s="37"/>
+      <c r="AX105" s="37"/>
+      <c r="AY105" s="37"/>
+      <c r="AZ105" s="37"/>
+      <c r="BA105" s="37"/>
+      <c r="BB105" s="37"/>
+      <c r="BC105" s="37"/>
+      <c r="BD105" s="37"/>
+      <c r="BE105" s="37"/>
+      <c r="BF105" s="37"/>
+      <c r="BG105" s="37"/>
+      <c r="BH105" s="37"/>
+      <c r="BI105" s="37"/>
+      <c r="BJ105" s="37"/>
+      <c r="BK105" s="37"/>
+      <c r="BL105" s="37"/>
+      <c r="BM105" s="37"/>
+      <c r="BN105" s="37"/>
+      <c r="BO105" s="37"/>
+      <c r="BP105" s="37"/>
+      <c r="BQ105" s="37"/>
+      <c r="BR105" s="37"/>
+      <c r="BS105" s="37"/>
+      <c r="BT105" s="37"/>
+      <c r="BU105" s="37"/>
+      <c r="BV105" s="37"/>
+      <c r="BW105" s="37"/>
+      <c r="BX105" s="37"/>
+      <c r="BY105" s="37"/>
+      <c r="BZ105" s="37"/>
+      <c r="CA105" s="37"/>
+      <c r="CB105" s="37"/>
+      <c r="CC105" s="37"/>
+      <c r="CD105" s="37"/>
+      <c r="CE105" s="37"/>
+      <c r="CF105" s="37"/>
+      <c r="CG105" s="37"/>
+      <c r="CH105" s="37"/>
+      <c r="CI105" s="37"/>
+      <c r="CJ105" s="37"/>
+      <c r="CK105" s="37"/>
+      <c r="CL105" s="37"/>
+      <c r="CM105" s="37"/>
+      <c r="CN105" s="37"/>
+      <c r="CO105" s="37"/>
+      <c r="CP105" s="37"/>
+      <c r="CQ105" s="37"/>
+      <c r="CR105" s="37"/>
+      <c r="CS105" s="37"/>
+      <c r="CT105" s="37"/>
+    </row>
+    <row r="106" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT106" s="37"/>
+      <c r="AU106" s="37"/>
+      <c r="AV106" s="37"/>
+      <c r="AW106" s="37"/>
+      <c r="AX106" s="37"/>
+      <c r="AY106" s="37"/>
+      <c r="AZ106" s="37"/>
+      <c r="BA106" s="37"/>
+      <c r="BB106" s="37"/>
+      <c r="BC106" s="37"/>
+      <c r="BD106" s="37"/>
+      <c r="BE106" s="37"/>
+      <c r="BF106" s="37"/>
+      <c r="BG106" s="37"/>
+      <c r="BH106" s="37"/>
+      <c r="BI106" s="37"/>
+      <c r="BJ106" s="37"/>
+      <c r="BK106" s="37"/>
+      <c r="BL106" s="37"/>
+      <c r="BM106" s="37"/>
+      <c r="BN106" s="37"/>
+      <c r="BO106" s="37"/>
+      <c r="BP106" s="37"/>
+      <c r="BQ106" s="37"/>
+      <c r="BR106" s="37"/>
+      <c r="BS106" s="37"/>
+      <c r="BT106" s="37"/>
+      <c r="BU106" s="37"/>
+      <c r="BV106" s="37"/>
+      <c r="BW106" s="37"/>
+      <c r="BX106" s="37"/>
+      <c r="BY106" s="37"/>
+      <c r="BZ106" s="37"/>
+      <c r="CA106" s="37"/>
+      <c r="CB106" s="37"/>
+      <c r="CC106" s="37"/>
+      <c r="CD106" s="37"/>
+      <c r="CE106" s="37"/>
+      <c r="CF106" s="37"/>
+      <c r="CG106" s="37"/>
+      <c r="CH106" s="37"/>
+      <c r="CI106" s="37"/>
+      <c r="CJ106" s="37"/>
+      <c r="CK106" s="37"/>
+      <c r="CL106" s="37"/>
+      <c r="CM106" s="37"/>
+      <c r="CN106" s="37"/>
+      <c r="CO106" s="37"/>
+      <c r="CP106" s="37"/>
+      <c r="CQ106" s="37"/>
+      <c r="CR106" s="37"/>
+      <c r="CS106" s="37"/>
+      <c r="CT106" s="37"/>
+    </row>
+    <row r="107" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT107" s="37"/>
+      <c r="AU107" s="37"/>
+      <c r="AV107" s="37"/>
+      <c r="AW107" s="37"/>
+      <c r="AX107" s="37"/>
+      <c r="AY107" s="37"/>
+      <c r="AZ107" s="37"/>
+      <c r="BA107" s="37"/>
+      <c r="BB107" s="37"/>
+      <c r="BC107" s="37"/>
+      <c r="BD107" s="37"/>
+      <c r="BE107" s="37"/>
+      <c r="BF107" s="37"/>
+      <c r="BG107" s="37"/>
+      <c r="BH107" s="37"/>
+      <c r="BI107" s="37"/>
+      <c r="BJ107" s="37"/>
+      <c r="BK107" s="37"/>
+      <c r="BL107" s="37"/>
+      <c r="BM107" s="37"/>
+      <c r="BN107" s="37"/>
+      <c r="BO107" s="37"/>
+      <c r="BP107" s="37"/>
+      <c r="BQ107" s="37"/>
+      <c r="BR107" s="37"/>
+      <c r="BS107" s="37"/>
+      <c r="BT107" s="37"/>
+      <c r="BU107" s="37"/>
+      <c r="BV107" s="37"/>
+      <c r="BW107" s="37"/>
+      <c r="BX107" s="37"/>
+      <c r="BY107" s="37"/>
+      <c r="BZ107" s="37"/>
+      <c r="CA107" s="37"/>
+      <c r="CB107" s="37"/>
+      <c r="CC107" s="37"/>
+      <c r="CD107" s="37"/>
+      <c r="CE107" s="37"/>
+      <c r="CF107" s="37"/>
+      <c r="CG107" s="37"/>
+      <c r="CH107" s="37"/>
+      <c r="CI107" s="37"/>
+      <c r="CJ107" s="37"/>
+      <c r="CK107" s="37"/>
+      <c r="CL107" s="37"/>
+      <c r="CM107" s="37"/>
+      <c r="CN107" s="37"/>
+      <c r="CO107" s="37"/>
+      <c r="CP107" s="37"/>
+      <c r="CQ107" s="37"/>
+      <c r="CR107" s="37"/>
+      <c r="CS107" s="37"/>
+      <c r="CT107" s="37"/>
+    </row>
+    <row r="108" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT108" s="37"/>
+      <c r="AU108" s="37"/>
+      <c r="AV108" s="37"/>
+      <c r="AW108" s="37"/>
+      <c r="AX108" s="37"/>
+      <c r="AY108" s="37"/>
+      <c r="AZ108" s="37"/>
+      <c r="BA108" s="37"/>
+      <c r="BB108" s="37"/>
+      <c r="BC108" s="37"/>
+      <c r="BD108" s="37"/>
+      <c r="BE108" s="37"/>
+      <c r="BF108" s="37"/>
+      <c r="BG108" s="37"/>
+      <c r="BH108" s="37"/>
+      <c r="BI108" s="37"/>
+      <c r="BJ108" s="37"/>
+      <c r="BK108" s="37"/>
+      <c r="BL108" s="37"/>
+      <c r="BM108" s="37"/>
+      <c r="BN108" s="37"/>
+      <c r="BO108" s="37"/>
+      <c r="BP108" s="37"/>
+      <c r="BQ108" s="37"/>
+      <c r="BR108" s="37"/>
+      <c r="BS108" s="37"/>
+      <c r="BT108" s="37"/>
+      <c r="BU108" s="37"/>
+      <c r="BV108" s="37"/>
+      <c r="BW108" s="37"/>
+      <c r="BX108" s="37"/>
+      <c r="BY108" s="37"/>
+      <c r="BZ108" s="37"/>
+      <c r="CA108" s="37"/>
+      <c r="CB108" s="37"/>
+      <c r="CC108" s="37"/>
+      <c r="CD108" s="37"/>
+      <c r="CE108" s="37"/>
+      <c r="CF108" s="37"/>
+      <c r="CG108" s="37"/>
+      <c r="CH108" s="37"/>
+      <c r="CI108" s="37"/>
+      <c r="CJ108" s="37"/>
+      <c r="CK108" s="37"/>
+      <c r="CL108" s="37"/>
+      <c r="CM108" s="37"/>
+      <c r="CN108" s="37"/>
+      <c r="CO108" s="37"/>
+      <c r="CP108" s="37"/>
+      <c r="CQ108" s="37"/>
+      <c r="CR108" s="37"/>
+      <c r="CS108" s="37"/>
+      <c r="CT108" s="37"/>
+    </row>
+    <row r="109" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT109" s="37"/>
+      <c r="AU109" s="37"/>
+      <c r="AV109" s="37"/>
+      <c r="AW109" s="37"/>
+      <c r="AX109" s="37"/>
+      <c r="AY109" s="37"/>
+      <c r="AZ109" s="37"/>
+      <c r="BA109" s="37"/>
+      <c r="BB109" s="37"/>
+      <c r="BC109" s="37"/>
+      <c r="BD109" s="37"/>
+      <c r="BE109" s="37"/>
+      <c r="BF109" s="37"/>
+      <c r="BG109" s="37"/>
+      <c r="BH109" s="37"/>
+      <c r="BI109" s="37"/>
+      <c r="BJ109" s="37"/>
+      <c r="BK109" s="37"/>
+      <c r="BL109" s="37"/>
+      <c r="BM109" s="37"/>
+      <c r="BN109" s="37"/>
+      <c r="BO109" s="37"/>
+      <c r="BP109" s="37"/>
+      <c r="BQ109" s="37"/>
+      <c r="BR109" s="37"/>
+      <c r="BS109" s="37"/>
+      <c r="BT109" s="37"/>
+      <c r="BU109" s="37"/>
+      <c r="BV109" s="37"/>
+      <c r="BW109" s="37"/>
+      <c r="BX109" s="37"/>
+      <c r="BY109" s="37"/>
+      <c r="BZ109" s="37"/>
+      <c r="CA109" s="37"/>
+      <c r="CB109" s="37"/>
+      <c r="CC109" s="37"/>
+      <c r="CD109" s="37"/>
+      <c r="CE109" s="37"/>
+      <c r="CF109" s="37"/>
+      <c r="CG109" s="37"/>
+      <c r="CH109" s="37"/>
+      <c r="CI109" s="37"/>
+      <c r="CJ109" s="37"/>
+      <c r="CK109" s="37"/>
+      <c r="CL109" s="37"/>
+      <c r="CM109" s="37"/>
+      <c r="CN109" s="37"/>
+      <c r="CO109" s="37"/>
+      <c r="CP109" s="37"/>
+      <c r="CQ109" s="37"/>
+      <c r="CR109" s="37"/>
+      <c r="CS109" s="37"/>
+      <c r="CT109" s="37"/>
+    </row>
+    <row r="110" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT110" s="37"/>
+      <c r="AU110" s="37"/>
+      <c r="AV110" s="37"/>
+      <c r="AW110" s="37"/>
+      <c r="AX110" s="37"/>
+      <c r="AY110" s="37"/>
+      <c r="AZ110" s="37"/>
+      <c r="BA110" s="37"/>
+      <c r="BB110" s="37"/>
+      <c r="BC110" s="37"/>
+      <c r="BD110" s="37"/>
+      <c r="BE110" s="37"/>
+      <c r="BF110" s="37"/>
+      <c r="BG110" s="37"/>
+      <c r="BH110" s="37"/>
+      <c r="BI110" s="37"/>
+      <c r="BJ110" s="37"/>
+      <c r="BK110" s="37"/>
+      <c r="BL110" s="37"/>
+      <c r="BM110" s="37"/>
+      <c r="BN110" s="37"/>
+      <c r="BO110" s="37"/>
+      <c r="BP110" s="37"/>
+      <c r="BQ110" s="37"/>
+      <c r="BR110" s="37"/>
+      <c r="BS110" s="37"/>
+      <c r="BT110" s="37"/>
+      <c r="BU110" s="37"/>
+      <c r="BV110" s="37"/>
+      <c r="BW110" s="37"/>
+      <c r="BX110" s="37"/>
+      <c r="BY110" s="37"/>
+      <c r="BZ110" s="37"/>
+      <c r="CA110" s="37"/>
+      <c r="CB110" s="37"/>
+      <c r="CC110" s="37"/>
+      <c r="CD110" s="37"/>
+      <c r="CE110" s="37"/>
+      <c r="CF110" s="37"/>
+      <c r="CG110" s="37"/>
+      <c r="CH110" s="37"/>
+      <c r="CI110" s="37"/>
+      <c r="CJ110" s="37"/>
+      <c r="CK110" s="37"/>
+      <c r="CL110" s="37"/>
+      <c r="CM110" s="37"/>
+      <c r="CN110" s="37"/>
+      <c r="CO110" s="37"/>
+      <c r="CP110" s="37"/>
+      <c r="CQ110" s="37"/>
+      <c r="CR110" s="37"/>
+      <c r="CS110" s="37"/>
+      <c r="CT110" s="37"/>
+    </row>
+    <row r="111" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT111" s="37"/>
+      <c r="AU111" s="37"/>
+      <c r="AV111" s="37"/>
+      <c r="AW111" s="37"/>
+      <c r="AX111" s="37"/>
+      <c r="AY111" s="37"/>
+      <c r="AZ111" s="37"/>
+      <c r="BA111" s="37"/>
+      <c r="BB111" s="37"/>
+      <c r="BC111" s="37"/>
+      <c r="BD111" s="37"/>
+      <c r="BE111" s="37"/>
+      <c r="BF111" s="37"/>
+      <c r="BG111" s="37"/>
+      <c r="BH111" s="37"/>
+      <c r="BI111" s="37"/>
+      <c r="BJ111" s="37"/>
+      <c r="BK111" s="37"/>
+      <c r="BL111" s="37"/>
+      <c r="BM111" s="37"/>
+      <c r="BN111" s="37"/>
+      <c r="BO111" s="37"/>
+      <c r="BP111" s="37"/>
+      <c r="BQ111" s="37"/>
+      <c r="BR111" s="37"/>
+      <c r="BS111" s="37"/>
+      <c r="BT111" s="37"/>
+      <c r="BU111" s="37"/>
+      <c r="BV111" s="37"/>
+      <c r="BW111" s="37"/>
+      <c r="BX111" s="37"/>
+      <c r="BY111" s="37"/>
+      <c r="BZ111" s="37"/>
+      <c r="CA111" s="37"/>
+      <c r="CB111" s="37"/>
+      <c r="CC111" s="37"/>
+      <c r="CD111" s="37"/>
+      <c r="CE111" s="37"/>
+      <c r="CF111" s="37"/>
+      <c r="CG111" s="37"/>
+      <c r="CH111" s="37"/>
+      <c r="CI111" s="37"/>
+      <c r="CJ111" s="37"/>
+      <c r="CK111" s="37"/>
+      <c r="CL111" s="37"/>
+      <c r="CM111" s="37"/>
+      <c r="CN111" s="37"/>
+      <c r="CO111" s="37"/>
+      <c r="CP111" s="37"/>
+      <c r="CQ111" s="37"/>
+      <c r="CR111" s="37"/>
+      <c r="CS111" s="37"/>
+      <c r="CT111" s="37"/>
+    </row>
+    <row r="112" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT112" s="37"/>
+      <c r="AU112" s="37"/>
+      <c r="AV112" s="37"/>
+      <c r="AW112" s="37"/>
+      <c r="AX112" s="37"/>
+      <c r="AY112" s="37"/>
+      <c r="AZ112" s="37"/>
+      <c r="BA112" s="37"/>
+      <c r="BB112" s="37"/>
+      <c r="BC112" s="37"/>
+      <c r="BD112" s="37"/>
+      <c r="BE112" s="37"/>
+      <c r="BF112" s="37"/>
+      <c r="BG112" s="37"/>
+      <c r="BH112" s="37"/>
+      <c r="BI112" s="37"/>
+      <c r="BJ112" s="37"/>
+      <c r="BK112" s="37"/>
+      <c r="BL112" s="37"/>
+      <c r="BM112" s="37"/>
+      <c r="BN112" s="37"/>
+      <c r="BO112" s="37"/>
+      <c r="BP112" s="37"/>
+      <c r="BQ112" s="37"/>
+      <c r="BR112" s="37"/>
+      <c r="BS112" s="37"/>
+      <c r="BT112" s="37"/>
+      <c r="BU112" s="37"/>
+      <c r="BV112" s="37"/>
+      <c r="BW112" s="37"/>
+      <c r="BX112" s="37"/>
+      <c r="BY112" s="37"/>
+      <c r="BZ112" s="37"/>
+      <c r="CA112" s="37"/>
+      <c r="CB112" s="37"/>
+      <c r="CC112" s="37"/>
+      <c r="CD112" s="37"/>
+      <c r="CE112" s="37"/>
+      <c r="CF112" s="37"/>
+      <c r="CG112" s="37"/>
+      <c r="CH112" s="37"/>
+      <c r="CI112" s="37"/>
+      <c r="CJ112" s="37"/>
+      <c r="CK112" s="37"/>
+      <c r="CL112" s="37"/>
+      <c r="CM112" s="37"/>
+      <c r="CN112" s="37"/>
+      <c r="CO112" s="37"/>
+      <c r="CP112" s="37"/>
+      <c r="CQ112" s="37"/>
+      <c r="CR112" s="37"/>
+      <c r="CS112" s="37"/>
+      <c r="CT112" s="37"/>
+    </row>
+    <row r="113" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT113" s="37"/>
+      <c r="AU113" s="37"/>
+      <c r="AV113" s="37"/>
+      <c r="AW113" s="37"/>
+      <c r="AX113" s="37"/>
+      <c r="AY113" s="37"/>
+      <c r="AZ113" s="37"/>
+      <c r="BA113" s="37"/>
+      <c r="BB113" s="37"/>
+      <c r="BC113" s="37"/>
+      <c r="BD113" s="37"/>
+      <c r="BE113" s="37"/>
+      <c r="BF113" s="37"/>
+      <c r="BG113" s="37"/>
+      <c r="BH113" s="37"/>
+      <c r="BI113" s="37"/>
+      <c r="BJ113" s="37"/>
+      <c r="BK113" s="37"/>
+      <c r="BL113" s="37"/>
+      <c r="BM113" s="37"/>
+      <c r="BN113" s="37"/>
+      <c r="BO113" s="37"/>
+      <c r="BP113" s="37"/>
+      <c r="BQ113" s="37"/>
+      <c r="BR113" s="37"/>
+      <c r="BS113" s="37"/>
+      <c r="BT113" s="37"/>
+      <c r="BU113" s="37"/>
+      <c r="BV113" s="37"/>
+      <c r="BW113" s="37"/>
+      <c r="BX113" s="37"/>
+      <c r="BY113" s="37"/>
+      <c r="BZ113" s="37"/>
+      <c r="CA113" s="37"/>
+      <c r="CB113" s="37"/>
+      <c r="CC113" s="37"/>
+      <c r="CD113" s="37"/>
+      <c r="CE113" s="37"/>
+      <c r="CF113" s="37"/>
+      <c r="CG113" s="37"/>
+      <c r="CH113" s="37"/>
+      <c r="CI113" s="37"/>
+      <c r="CJ113" s="37"/>
+      <c r="CK113" s="37"/>
+      <c r="CL113" s="37"/>
+      <c r="CM113" s="37"/>
+      <c r="CN113" s="37"/>
+      <c r="CO113" s="37"/>
+      <c r="CP113" s="37"/>
+      <c r="CQ113" s="37"/>
+      <c r="CR113" s="37"/>
+      <c r="CS113" s="37"/>
+      <c r="CT113" s="37"/>
+    </row>
+    <row r="114" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT114" s="37"/>
+      <c r="AU114" s="37"/>
+      <c r="AV114" s="37"/>
+      <c r="AW114" s="37"/>
+      <c r="AX114" s="37"/>
+      <c r="AY114" s="37"/>
+      <c r="AZ114" s="37"/>
+      <c r="BA114" s="37"/>
+      <c r="BB114" s="37"/>
+      <c r="BC114" s="37"/>
+      <c r="BD114" s="37"/>
+      <c r="BE114" s="37"/>
+      <c r="BF114" s="37"/>
+      <c r="BG114" s="37"/>
+      <c r="BH114" s="37"/>
+      <c r="BI114" s="37"/>
+      <c r="BJ114" s="37"/>
+      <c r="BK114" s="37"/>
+      <c r="BL114" s="37"/>
+      <c r="BM114" s="37"/>
+      <c r="BN114" s="37"/>
+      <c r="BO114" s="37"/>
+      <c r="BP114" s="37"/>
+      <c r="BQ114" s="37"/>
+      <c r="BR114" s="37"/>
+      <c r="BS114" s="37"/>
+      <c r="BT114" s="37"/>
+      <c r="BU114" s="37"/>
+      <c r="BV114" s="37"/>
+      <c r="BW114" s="37"/>
+      <c r="BX114" s="37"/>
+      <c r="BY114" s="37"/>
+      <c r="BZ114" s="37"/>
+      <c r="CA114" s="37"/>
+      <c r="CB114" s="37"/>
+      <c r="CC114" s="37"/>
+      <c r="CD114" s="37"/>
+      <c r="CE114" s="37"/>
+      <c r="CF114" s="37"/>
+      <c r="CG114" s="37"/>
+      <c r="CH114" s="37"/>
+      <c r="CI114" s="37"/>
+      <c r="CJ114" s="37"/>
+      <c r="CK114" s="37"/>
+      <c r="CL114" s="37"/>
+      <c r="CM114" s="37"/>
+      <c r="CN114" s="37"/>
+      <c r="CO114" s="37"/>
+      <c r="CP114" s="37"/>
+      <c r="CQ114" s="37"/>
+      <c r="CR114" s="37"/>
+      <c r="CS114" s="37"/>
+      <c r="CT114" s="37"/>
+    </row>
+    <row r="115" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT115" s="37"/>
+      <c r="AU115" s="37"/>
+      <c r="AV115" s="37"/>
+      <c r="AW115" s="37"/>
+      <c r="AX115" s="37"/>
+      <c r="AY115" s="37"/>
+      <c r="AZ115" s="37"/>
+      <c r="BA115" s="37"/>
+      <c r="BB115" s="37"/>
+      <c r="BC115" s="37"/>
+      <c r="BD115" s="37"/>
+      <c r="BE115" s="37"/>
+      <c r="BF115" s="37"/>
+      <c r="BG115" s="37"/>
+      <c r="BH115" s="37"/>
+      <c r="BI115" s="37"/>
+      <c r="BJ115" s="37"/>
+      <c r="BK115" s="37"/>
+      <c r="BL115" s="37"/>
+      <c r="BM115" s="37"/>
+      <c r="BN115" s="37"/>
+      <c r="BO115" s="37"/>
+      <c r="BP115" s="37"/>
+      <c r="BQ115" s="37"/>
+      <c r="BR115" s="37"/>
+      <c r="BS115" s="37"/>
+      <c r="BT115" s="37"/>
+      <c r="BU115" s="37"/>
+      <c r="BV115" s="37"/>
+      <c r="BW115" s="37"/>
+      <c r="BX115" s="37"/>
+      <c r="BY115" s="37"/>
+      <c r="BZ115" s="37"/>
+      <c r="CA115" s="37"/>
+      <c r="CB115" s="37"/>
+      <c r="CC115" s="37"/>
+      <c r="CD115" s="37"/>
+      <c r="CE115" s="37"/>
+      <c r="CF115" s="37"/>
+      <c r="CG115" s="37"/>
+      <c r="CH115" s="37"/>
+      <c r="CI115" s="37"/>
+      <c r="CJ115" s="37"/>
+      <c r="CK115" s="37"/>
+      <c r="CL115" s="37"/>
+      <c r="CM115" s="37"/>
+      <c r="CN115" s="37"/>
+      <c r="CO115" s="37"/>
+      <c r="CP115" s="37"/>
+      <c r="CQ115" s="37"/>
+      <c r="CR115" s="37"/>
+      <c r="CS115" s="37"/>
+      <c r="CT115" s="37"/>
+    </row>
+    <row r="116" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT116" s="37"/>
+      <c r="AU116" s="37"/>
+      <c r="AV116" s="37"/>
+      <c r="AW116" s="37"/>
+      <c r="AX116" s="37"/>
+      <c r="AY116" s="37"/>
+      <c r="AZ116" s="37"/>
+      <c r="BA116" s="37"/>
+      <c r="BB116" s="37"/>
+      <c r="BC116" s="37"/>
+      <c r="BD116" s="37"/>
+      <c r="BE116" s="37"/>
+      <c r="BF116" s="37"/>
+      <c r="BG116" s="37"/>
+      <c r="BH116" s="37"/>
+      <c r="BI116" s="37"/>
+      <c r="BJ116" s="37"/>
+      <c r="BK116" s="37"/>
+      <c r="BL116" s="37"/>
+      <c r="BM116" s="37"/>
+      <c r="BN116" s="37"/>
+      <c r="BO116" s="37"/>
+      <c r="BP116" s="37"/>
+      <c r="BQ116" s="37"/>
+      <c r="BR116" s="37"/>
+      <c r="BS116" s="37"/>
+      <c r="BT116" s="37"/>
+      <c r="BU116" s="37"/>
+      <c r="BV116" s="37"/>
+      <c r="BW116" s="37"/>
+      <c r="BX116" s="37"/>
+      <c r="BY116" s="37"/>
+      <c r="BZ116" s="37"/>
+      <c r="CA116" s="37"/>
+      <c r="CB116" s="37"/>
+      <c r="CC116" s="37"/>
+      <c r="CD116" s="37"/>
+      <c r="CE116" s="37"/>
+      <c r="CF116" s="37"/>
+      <c r="CG116" s="37"/>
+      <c r="CH116" s="37"/>
+      <c r="CI116" s="37"/>
+      <c r="CJ116" s="37"/>
+      <c r="CK116" s="37"/>
+      <c r="CL116" s="37"/>
+      <c r="CM116" s="37"/>
+      <c r="CN116" s="37"/>
+      <c r="CO116" s="37"/>
+      <c r="CP116" s="37"/>
+      <c r="CQ116" s="37"/>
+      <c r="CR116" s="37"/>
+      <c r="CS116" s="37"/>
+      <c r="CT116" s="37"/>
+    </row>
+    <row r="117" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT117" s="37"/>
+      <c r="AU117" s="37"/>
+      <c r="AV117" s="37"/>
+      <c r="AW117" s="37"/>
+      <c r="AX117" s="37"/>
+      <c r="AY117" s="37"/>
+      <c r="AZ117" s="37"/>
+      <c r="BA117" s="37"/>
+      <c r="BB117" s="37"/>
+      <c r="BC117" s="37"/>
+      <c r="BD117" s="37"/>
+      <c r="BE117" s="37"/>
+      <c r="BF117" s="37"/>
+      <c r="BG117" s="37"/>
+      <c r="BH117" s="37"/>
+      <c r="BI117" s="37"/>
+      <c r="BJ117" s="37"/>
+      <c r="BK117" s="37"/>
+      <c r="BL117" s="37"/>
+      <c r="BM117" s="37"/>
+      <c r="BN117" s="37"/>
+      <c r="BO117" s="37"/>
+      <c r="BP117" s="37"/>
+      <c r="BQ117" s="37"/>
+      <c r="BR117" s="37"/>
+      <c r="BS117" s="37"/>
+      <c r="BT117" s="37"/>
+      <c r="BU117" s="37"/>
+      <c r="BV117" s="37"/>
+      <c r="BW117" s="37"/>
+      <c r="BX117" s="37"/>
+      <c r="BY117" s="37"/>
+      <c r="BZ117" s="37"/>
+      <c r="CA117" s="37"/>
+      <c r="CB117" s="37"/>
+      <c r="CC117" s="37"/>
+      <c r="CD117" s="37"/>
+      <c r="CE117" s="37"/>
+      <c r="CF117" s="37"/>
+      <c r="CG117" s="37"/>
+      <c r="CH117" s="37"/>
+      <c r="CI117" s="37"/>
+      <c r="CJ117" s="37"/>
+      <c r="CK117" s="37"/>
+      <c r="CL117" s="37"/>
+      <c r="CM117" s="37"/>
+      <c r="CN117" s="37"/>
+      <c r="CO117" s="37"/>
+      <c r="CP117" s="37"/>
+      <c r="CQ117" s="37"/>
+      <c r="CR117" s="37"/>
+      <c r="CS117" s="37"/>
+      <c r="CT117" s="37"/>
+    </row>
+    <row r="118" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT118" s="37"/>
+      <c r="AU118" s="37"/>
+      <c r="AV118" s="37"/>
+      <c r="AW118" s="37"/>
+      <c r="AX118" s="37"/>
+      <c r="AY118" s="37"/>
+      <c r="AZ118" s="37"/>
+      <c r="BA118" s="37"/>
+      <c r="BB118" s="37"/>
+      <c r="BC118" s="37"/>
+      <c r="BD118" s="37"/>
+      <c r="BE118" s="37"/>
+      <c r="BF118" s="37"/>
+      <c r="BG118" s="37"/>
+      <c r="BH118" s="37"/>
+      <c r="BI118" s="37"/>
+      <c r="BJ118" s="37"/>
+      <c r="BK118" s="37"/>
+      <c r="BL118" s="37"/>
+      <c r="BM118" s="37"/>
+      <c r="BN118" s="37"/>
+      <c r="BO118" s="37"/>
+      <c r="BP118" s="37"/>
+      <c r="BQ118" s="37"/>
+      <c r="BR118" s="37"/>
+      <c r="BS118" s="37"/>
+      <c r="BT118" s="37"/>
+      <c r="BU118" s="37"/>
+      <c r="BV118" s="37"/>
+      <c r="BW118" s="37"/>
+      <c r="BX118" s="37"/>
+      <c r="BY118" s="37"/>
+      <c r="BZ118" s="37"/>
+      <c r="CA118" s="37"/>
+      <c r="CB118" s="37"/>
+      <c r="CC118" s="37"/>
+      <c r="CD118" s="37"/>
+      <c r="CE118" s="37"/>
+      <c r="CF118" s="37"/>
+      <c r="CG118" s="37"/>
+      <c r="CH118" s="37"/>
+      <c r="CI118" s="37"/>
+      <c r="CJ118" s="37"/>
+      <c r="CK118" s="37"/>
+      <c r="CL118" s="37"/>
+      <c r="CM118" s="37"/>
+      <c r="CN118" s="37"/>
+      <c r="CO118" s="37"/>
+      <c r="CP118" s="37"/>
+      <c r="CQ118" s="37"/>
+      <c r="CR118" s="37"/>
+      <c r="CS118" s="37"/>
+      <c r="CT118" s="37"/>
+    </row>
+    <row r="119" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT119" s="37"/>
+      <c r="AU119" s="37"/>
+      <c r="AV119" s="37"/>
+      <c r="AW119" s="37"/>
+      <c r="AX119" s="37"/>
+      <c r="AY119" s="37"/>
+      <c r="AZ119" s="37"/>
+      <c r="BA119" s="37"/>
+      <c r="BB119" s="37"/>
+      <c r="BC119" s="37"/>
+      <c r="BD119" s="37"/>
+      <c r="BE119" s="37"/>
+      <c r="BF119" s="37"/>
+      <c r="BG119" s="37"/>
+      <c r="BH119" s="37"/>
+      <c r="BI119" s="37"/>
+      <c r="BJ119" s="37"/>
+      <c r="BK119" s="37"/>
+      <c r="BL119" s="37"/>
+      <c r="BM119" s="37"/>
+      <c r="BN119" s="37"/>
+      <c r="BO119" s="37"/>
+      <c r="BP119" s="37"/>
+      <c r="BQ119" s="37"/>
+      <c r="BR119" s="37"/>
+      <c r="BS119" s="37"/>
+      <c r="BT119" s="37"/>
+      <c r="BU119" s="37"/>
+      <c r="BV119" s="37"/>
+      <c r="BW119" s="37"/>
+      <c r="BX119" s="37"/>
+      <c r="BY119" s="37"/>
+      <c r="BZ119" s="37"/>
+      <c r="CA119" s="37"/>
+      <c r="CB119" s="37"/>
+      <c r="CC119" s="37"/>
+      <c r="CD119" s="37"/>
+      <c r="CE119" s="37"/>
+      <c r="CF119" s="37"/>
+      <c r="CG119" s="37"/>
+      <c r="CH119" s="37"/>
+      <c r="CI119" s="37"/>
+      <c r="CJ119" s="37"/>
+      <c r="CK119" s="37"/>
+      <c r="CL119" s="37"/>
+      <c r="CM119" s="37"/>
+      <c r="CN119" s="37"/>
+      <c r="CO119" s="37"/>
+      <c r="CP119" s="37"/>
+      <c r="CQ119" s="37"/>
+      <c r="CR119" s="37"/>
+      <c r="CS119" s="37"/>
+      <c r="CT119" s="37"/>
+    </row>
+    <row r="120" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT120" s="37"/>
+      <c r="AU120" s="37"/>
+      <c r="AV120" s="37"/>
+      <c r="AW120" s="37"/>
+      <c r="AX120" s="37"/>
+      <c r="AY120" s="37"/>
+      <c r="AZ120" s="37"/>
+      <c r="BA120" s="37"/>
+      <c r="BB120" s="37"/>
+      <c r="BC120" s="37"/>
+      <c r="BD120" s="37"/>
+      <c r="BE120" s="37"/>
+      <c r="BF120" s="37"/>
+      <c r="BG120" s="37"/>
+      <c r="BH120" s="37"/>
+      <c r="BI120" s="37"/>
+      <c r="BJ120" s="37"/>
+      <c r="BK120" s="37"/>
+      <c r="BL120" s="37"/>
+      <c r="BM120" s="37"/>
+      <c r="BN120" s="37"/>
+      <c r="BO120" s="37"/>
+      <c r="BP120" s="37"/>
+      <c r="BQ120" s="37"/>
+      <c r="BR120" s="37"/>
+      <c r="BS120" s="37"/>
+      <c r="BT120" s="37"/>
+      <c r="BU120" s="37"/>
+      <c r="BV120" s="37"/>
+      <c r="BW120" s="37"/>
+      <c r="BX120" s="37"/>
+      <c r="BY120" s="37"/>
+      <c r="BZ120" s="37"/>
+      <c r="CA120" s="37"/>
+      <c r="CB120" s="37"/>
+      <c r="CC120" s="37"/>
+      <c r="CD120" s="37"/>
+      <c r="CE120" s="37"/>
+      <c r="CF120" s="37"/>
+      <c r="CG120" s="37"/>
+      <c r="CH120" s="37"/>
+      <c r="CI120" s="37"/>
+      <c r="CJ120" s="37"/>
+      <c r="CK120" s="37"/>
+      <c r="CL120" s="37"/>
+      <c r="CM120" s="37"/>
+      <c r="CN120" s="37"/>
+      <c r="CO120" s="37"/>
+      <c r="CP120" s="37"/>
+      <c r="CQ120" s="37"/>
+      <c r="CR120" s="37"/>
+      <c r="CS120" s="37"/>
+      <c r="CT120" s="37"/>
+    </row>
+    <row r="121" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT121" s="37"/>
+      <c r="AU121" s="37"/>
+      <c r="AV121" s="37"/>
+      <c r="AW121" s="37"/>
+      <c r="AX121" s="37"/>
+      <c r="AY121" s="37"/>
+      <c r="AZ121" s="37"/>
+      <c r="BA121" s="37"/>
+      <c r="BB121" s="37"/>
+      <c r="BC121" s="37"/>
+      <c r="BD121" s="37"/>
+      <c r="BE121" s="37"/>
+      <c r="BF121" s="37"/>
+      <c r="BG121" s="37"/>
+      <c r="BH121" s="37"/>
+      <c r="BI121" s="37"/>
+      <c r="BJ121" s="37"/>
+      <c r="BK121" s="37"/>
+      <c r="BL121" s="37"/>
+      <c r="BM121" s="37"/>
+      <c r="BN121" s="37"/>
+      <c r="BO121" s="37"/>
+      <c r="BP121" s="37"/>
+      <c r="BQ121" s="37"/>
+      <c r="BR121" s="37"/>
+      <c r="BS121" s="37"/>
+      <c r="BT121" s="37"/>
+      <c r="BU121" s="37"/>
+      <c r="BV121" s="37"/>
+      <c r="BW121" s="37"/>
+      <c r="BX121" s="37"/>
+      <c r="BY121" s="37"/>
+      <c r="BZ121" s="37"/>
+      <c r="CA121" s="37"/>
+      <c r="CB121" s="37"/>
+      <c r="CC121" s="37"/>
+      <c r="CD121" s="37"/>
+      <c r="CE121" s="37"/>
+      <c r="CF121" s="37"/>
+      <c r="CG121" s="37"/>
+      <c r="CH121" s="37"/>
+      <c r="CI121" s="37"/>
+      <c r="CJ121" s="37"/>
+      <c r="CK121" s="37"/>
+      <c r="CL121" s="37"/>
+      <c r="CM121" s="37"/>
+      <c r="CN121" s="37"/>
+      <c r="CO121" s="37"/>
+      <c r="CP121" s="37"/>
+      <c r="CQ121" s="37"/>
+      <c r="CR121" s="37"/>
+      <c r="CS121" s="37"/>
+      <c r="CT121" s="37"/>
+    </row>
+    <row r="122" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT122" s="37"/>
+      <c r="AU122" s="37"/>
+      <c r="AV122" s="37"/>
+      <c r="AW122" s="37"/>
+      <c r="AX122" s="37"/>
+      <c r="AY122" s="37"/>
+      <c r="AZ122" s="37"/>
+      <c r="BA122" s="37"/>
+      <c r="BB122" s="37"/>
+      <c r="BC122" s="37"/>
+      <c r="BD122" s="37"/>
+      <c r="BE122" s="37"/>
+      <c r="BF122" s="37"/>
+      <c r="BG122" s="37"/>
+      <c r="BH122" s="37"/>
+      <c r="BI122" s="37"/>
+      <c r="BJ122" s="37"/>
+      <c r="BK122" s="37"/>
+      <c r="BL122" s="37"/>
+      <c r="BM122" s="37"/>
+      <c r="BN122" s="37"/>
+      <c r="BO122" s="37"/>
+      <c r="BP122" s="37"/>
+      <c r="BQ122" s="37"/>
+      <c r="BR122" s="37"/>
+      <c r="BS122" s="37"/>
+      <c r="BT122" s="37"/>
+      <c r="BU122" s="37"/>
+      <c r="BV122" s="37"/>
+      <c r="BW122" s="37"/>
+      <c r="BX122" s="37"/>
+      <c r="BY122" s="37"/>
+      <c r="BZ122" s="37"/>
+      <c r="CA122" s="37"/>
+      <c r="CB122" s="37"/>
+      <c r="CC122" s="37"/>
+      <c r="CD122" s="37"/>
+      <c r="CE122" s="37"/>
+      <c r="CF122" s="37"/>
+      <c r="CG122" s="37"/>
+      <c r="CH122" s="37"/>
+      <c r="CI122" s="37"/>
+      <c r="CJ122" s="37"/>
+      <c r="CK122" s="37"/>
+      <c r="CL122" s="37"/>
+      <c r="CM122" s="37"/>
+      <c r="CN122" s="37"/>
+      <c r="CO122" s="37"/>
+      <c r="CP122" s="37"/>
+      <c r="CQ122" s="37"/>
+      <c r="CR122" s="37"/>
+      <c r="CS122" s="37"/>
+      <c r="CT122" s="37"/>
+    </row>
+    <row r="123" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT123" s="37"/>
+      <c r="AU123" s="37"/>
+      <c r="AV123" s="37"/>
+      <c r="AW123" s="37"/>
+      <c r="AX123" s="37"/>
+      <c r="AY123" s="37"/>
+      <c r="AZ123" s="37"/>
+      <c r="BA123" s="37"/>
+      <c r="BB123" s="37"/>
+      <c r="BC123" s="37"/>
+      <c r="BD123" s="37"/>
+      <c r="BE123" s="37"/>
+      <c r="BF123" s="37"/>
+      <c r="BG123" s="37"/>
+      <c r="BH123" s="37"/>
+      <c r="BI123" s="37"/>
+      <c r="BJ123" s="37"/>
+      <c r="BK123" s="37"/>
+      <c r="BL123" s="37"/>
+      <c r="BM123" s="37"/>
+      <c r="BN123" s="37"/>
+      <c r="BO123" s="37"/>
+      <c r="BP123" s="37"/>
+      <c r="BQ123" s="37"/>
+      <c r="BR123" s="37"/>
+      <c r="BS123" s="37"/>
+      <c r="BT123" s="37"/>
+      <c r="BU123" s="37"/>
+      <c r="BV123" s="37"/>
+      <c r="BW123" s="37"/>
+      <c r="BX123" s="37"/>
+      <c r="BY123" s="37"/>
+      <c r="BZ123" s="37"/>
+      <c r="CA123" s="37"/>
+      <c r="CB123" s="37"/>
+      <c r="CC123" s="37"/>
+      <c r="CD123" s="37"/>
+      <c r="CE123" s="37"/>
+      <c r="CF123" s="37"/>
+      <c r="CG123" s="37"/>
+      <c r="CH123" s="37"/>
+      <c r="CI123" s="37"/>
+      <c r="CJ123" s="37"/>
+      <c r="CK123" s="37"/>
+      <c r="CL123" s="37"/>
+      <c r="CM123" s="37"/>
+      <c r="CN123" s="37"/>
+      <c r="CO123" s="37"/>
+      <c r="CP123" s="37"/>
+      <c r="CQ123" s="37"/>
+      <c r="CR123" s="37"/>
+      <c r="CS123" s="37"/>
+      <c r="CT123" s="37"/>
+    </row>
+    <row r="124" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT124" s="37"/>
+      <c r="AU124" s="37"/>
+      <c r="AV124" s="37"/>
+      <c r="AW124" s="37"/>
+      <c r="AX124" s="37"/>
+      <c r="AY124" s="37"/>
+      <c r="AZ124" s="37"/>
+      <c r="BA124" s="37"/>
+      <c r="BB124" s="37"/>
+      <c r="BC124" s="37"/>
+      <c r="BD124" s="37"/>
+      <c r="BE124" s="37"/>
+      <c r="BF124" s="37"/>
+      <c r="BG124" s="37"/>
+      <c r="BH124" s="37"/>
+      <c r="BI124" s="37"/>
+      <c r="BJ124" s="37"/>
+      <c r="BK124" s="37"/>
+      <c r="BL124" s="37"/>
+      <c r="BM124" s="37"/>
+      <c r="BN124" s="37"/>
+      <c r="BO124" s="37"/>
+      <c r="BP124" s="37"/>
+      <c r="BQ124" s="37"/>
+      <c r="BR124" s="37"/>
+      <c r="BS124" s="37"/>
+      <c r="BT124" s="37"/>
+      <c r="BU124" s="37"/>
+      <c r="BV124" s="37"/>
+      <c r="BW124" s="37"/>
+      <c r="BX124" s="37"/>
+      <c r="BY124" s="37"/>
+      <c r="BZ124" s="37"/>
+      <c r="CA124" s="37"/>
+      <c r="CB124" s="37"/>
+      <c r="CC124" s="37"/>
+      <c r="CD124" s="37"/>
+      <c r="CE124" s="37"/>
+      <c r="CF124" s="37"/>
+      <c r="CG124" s="37"/>
+      <c r="CH124" s="37"/>
+      <c r="CI124" s="37"/>
+      <c r="CJ124" s="37"/>
+      <c r="CK124" s="37"/>
+      <c r="CL124" s="37"/>
+      <c r="CM124" s="37"/>
+      <c r="CN124" s="37"/>
+      <c r="CO124" s="37"/>
+      <c r="CP124" s="37"/>
+      <c r="CQ124" s="37"/>
+      <c r="CR124" s="37"/>
+      <c r="CS124" s="37"/>
+      <c r="CT124" s="37"/>
+    </row>
+    <row r="125" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT125" s="37"/>
+      <c r="AU125" s="37"/>
+      <c r="AV125" s="37"/>
+      <c r="AW125" s="37"/>
+      <c r="AX125" s="37"/>
+      <c r="AY125" s="37"/>
+      <c r="AZ125" s="37"/>
+      <c r="BA125" s="37"/>
+      <c r="BB125" s="37"/>
+      <c r="BC125" s="37"/>
+      <c r="BD125" s="37"/>
+      <c r="BE125" s="37"/>
+      <c r="BF125" s="37"/>
+      <c r="BG125" s="37"/>
+      <c r="BH125" s="37"/>
+      <c r="BI125" s="37"/>
+      <c r="BJ125" s="37"/>
+      <c r="BK125" s="37"/>
+      <c r="BL125" s="37"/>
+      <c r="BM125" s="37"/>
+      <c r="BN125" s="37"/>
+      <c r="BO125" s="37"/>
+      <c r="BP125" s="37"/>
+      <c r="BQ125" s="37"/>
+      <c r="BR125" s="37"/>
+      <c r="BS125" s="37"/>
+      <c r="BT125" s="37"/>
+      <c r="BU125" s="37"/>
+      <c r="BV125" s="37"/>
+      <c r="BW125" s="37"/>
+      <c r="BX125" s="37"/>
+      <c r="BY125" s="37"/>
+      <c r="BZ125" s="37"/>
+      <c r="CA125" s="37"/>
+      <c r="CB125" s="37"/>
+      <c r="CC125" s="37"/>
+      <c r="CD125" s="37"/>
+      <c r="CE125" s="37"/>
+      <c r="CF125" s="37"/>
+      <c r="CG125" s="37"/>
+      <c r="CH125" s="37"/>
+      <c r="CI125" s="37"/>
+      <c r="CJ125" s="37"/>
+      <c r="CK125" s="37"/>
+      <c r="CL125" s="37"/>
+      <c r="CM125" s="37"/>
+      <c r="CN125" s="37"/>
+      <c r="CO125" s="37"/>
+      <c r="CP125" s="37"/>
+      <c r="CQ125" s="37"/>
+      <c r="CR125" s="37"/>
+      <c r="CS125" s="37"/>
+      <c r="CT125" s="37"/>
+    </row>
+    <row r="126" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT126" s="37"/>
+      <c r="AU126" s="37"/>
+      <c r="AV126" s="37"/>
+      <c r="AW126" s="37"/>
+      <c r="AX126" s="37"/>
+      <c r="AY126" s="37"/>
+      <c r="AZ126" s="37"/>
+      <c r="BA126" s="37"/>
+      <c r="BB126" s="37"/>
+      <c r="BC126" s="37"/>
+      <c r="BD126" s="37"/>
+      <c r="BE126" s="37"/>
+      <c r="BF126" s="37"/>
+      <c r="BG126" s="37"/>
+      <c r="BH126" s="37"/>
+      <c r="BI126" s="37"/>
+      <c r="BJ126" s="37"/>
+      <c r="BK126" s="37"/>
+      <c r="BL126" s="37"/>
+      <c r="BM126" s="37"/>
+      <c r="BN126" s="37"/>
+      <c r="BO126" s="37"/>
+      <c r="BP126" s="37"/>
+      <c r="BQ126" s="37"/>
+      <c r="BR126" s="37"/>
+      <c r="BS126" s="37"/>
+      <c r="BT126" s="37"/>
+      <c r="BU126" s="37"/>
+      <c r="BV126" s="37"/>
+      <c r="BW126" s="37"/>
+      <c r="BX126" s="37"/>
+      <c r="BY126" s="37"/>
+      <c r="BZ126" s="37"/>
+      <c r="CA126" s="37"/>
+      <c r="CB126" s="37"/>
+      <c r="CC126" s="37"/>
+      <c r="CD126" s="37"/>
+      <c r="CE126" s="37"/>
+      <c r="CF126" s="37"/>
+      <c r="CG126" s="37"/>
+      <c r="CH126" s="37"/>
+      <c r="CI126" s="37"/>
+      <c r="CJ126" s="37"/>
+      <c r="CK126" s="37"/>
+      <c r="CL126" s="37"/>
+      <c r="CM126" s="37"/>
+      <c r="CN126" s="37"/>
+      <c r="CO126" s="37"/>
+      <c r="CP126" s="37"/>
+      <c r="CQ126" s="37"/>
+      <c r="CR126" s="37"/>
+      <c r="CS126" s="37"/>
+      <c r="CT126" s="37"/>
+    </row>
+    <row r="127" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT127" s="37"/>
+      <c r="AU127" s="37"/>
+      <c r="AV127" s="37"/>
+      <c r="AW127" s="37"/>
+      <c r="AX127" s="37"/>
+      <c r="AY127" s="37"/>
+      <c r="AZ127" s="37"/>
+      <c r="BA127" s="37"/>
+      <c r="BB127" s="37"/>
+      <c r="BC127" s="37"/>
+      <c r="BD127" s="37"/>
+      <c r="BE127" s="37"/>
+      <c r="BF127" s="37"/>
+      <c r="BG127" s="37"/>
+      <c r="BH127" s="37"/>
+      <c r="BI127" s="37"/>
+      <c r="BJ127" s="37"/>
+      <c r="BK127" s="37"/>
+      <c r="BL127" s="37"/>
+      <c r="BM127" s="37"/>
+      <c r="BN127" s="37"/>
+      <c r="BO127" s="37"/>
+      <c r="BP127" s="37"/>
+      <c r="BQ127" s="37"/>
+      <c r="BR127" s="37"/>
+      <c r="BS127" s="37"/>
+      <c r="BT127" s="37"/>
+      <c r="BU127" s="37"/>
+      <c r="BV127" s="37"/>
+      <c r="BW127" s="37"/>
+      <c r="BX127" s="37"/>
+      <c r="BY127" s="37"/>
+      <c r="BZ127" s="37"/>
+      <c r="CA127" s="37"/>
+      <c r="CB127" s="37"/>
+      <c r="CC127" s="37"/>
+      <c r="CD127" s="37"/>
+      <c r="CE127" s="37"/>
+      <c r="CF127" s="37"/>
+      <c r="CG127" s="37"/>
+      <c r="CH127" s="37"/>
+      <c r="CI127" s="37"/>
+      <c r="CJ127" s="37"/>
+      <c r="CK127" s="37"/>
+      <c r="CL127" s="37"/>
+      <c r="CM127" s="37"/>
+      <c r="CN127" s="37"/>
+      <c r="CO127" s="37"/>
+      <c r="CP127" s="37"/>
+      <c r="CQ127" s="37"/>
+      <c r="CR127" s="37"/>
+      <c r="CS127" s="37"/>
+      <c r="CT127" s="37"/>
+    </row>
+    <row r="128" spans="46:98" x14ac:dyDescent="0.25">
+      <c r="AT128" s="37"/>
+      <c r="AU128" s="37"/>
+      <c r="AV128" s="37"/>
+      <c r="AW128" s="37"/>
+      <c r="AX128" s="37"/>
+      <c r="AY128" s="37"/>
+      <c r="AZ128" s="37"/>
+      <c r="BA128" s="37"/>
+      <c r="BB128" s="37"/>
+      <c r="BC128" s="37"/>
+      <c r="BD128" s="37"/>
+      <c r="BE128" s="37"/>
+      <c r="BF128" s="37"/>
+      <c r="BG128" s="37"/>
+      <c r="BH128" s="37"/>
+      <c r="BI128" s="37"/>
+      <c r="BJ128" s="37"/>
+      <c r="BK128" s="37"/>
+      <c r="BL128" s="37"/>
+      <c r="BM128" s="37"/>
+      <c r="BN128" s="37"/>
+      <c r="BO128" s="37"/>
+      <c r="BP128" s="37"/>
+      <c r="BQ128" s="37"/>
+      <c r="BR128" s="37"/>
+      <c r="BS128" s="37"/>
+      <c r="BT128" s="37"/>
+      <c r="BU128" s="37"/>
+      <c r="BV128" s="37"/>
+      <c r="BW128" s="37"/>
+      <c r="BX128" s="37"/>
+      <c r="BY128" s="37"/>
+      <c r="BZ128" s="37"/>
+      <c r="CA128" s="37"/>
+      <c r="CB128" s="37"/>
+      <c r="CC128" s="37"/>
+      <c r="CD128" s="37"/>
+      <c r="CE128" s="37"/>
+      <c r="CF128" s="37"/>
+      <c r="CG128" s="37"/>
+      <c r="CH128" s="37"/>
+      <c r="CI128" s="37"/>
+      <c r="CJ128" s="37"/>
+      <c r="CK128" s="37"/>
+      <c r="CL128" s="37"/>
+      <c r="CM128" s="37"/>
+      <c r="CN128" s="37"/>
+      <c r="CO128" s="37"/>
+      <c r="CP128" s="37"/>
+      <c r="CQ128" s="37"/>
+      <c r="CR128" s="37"/>
+      <c r="CS128" s="37"/>
+      <c r="CT128" s="37"/>
+    </row>
     <row r="439" spans="85:85" ht="69" x14ac:dyDescent="0.25">
       <c r="CG439" s="2"/>
     </row>
@@ -21898,56 +28979,56 @@
       <c r="E7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="27" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
       <c r="AE7" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="32" t="s">
+      <c r="AG7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="24" t="s">
+      <c r="AH7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="22" t="s">
+      <c r="AI7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="24" t="s">
+      <c r="AJ7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="24" t="s">
+      <c r="AK7" s="29" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="25" t="s">
@@ -22037,11 +29118,11 @@
       </c>
       <c r="AE8" s="26"/>
       <c r="AF8" s="26"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
       <c r="AL8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -22635,12 +29716,6 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -22651,6 +29726,12 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -761,6 +761,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,12 +783,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,15 +804,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22094,6 +22094,282 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5109156" cy="1031629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rectangle 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34480500" y="78447900"/>
+          <a:ext cx="5109156" cy="1031629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="6000" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="6000" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> tổng quan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="6000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3962944" cy="1031629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rectangle 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40081200" y="78409800"/>
+          <a:ext cx="3962944" cy="1031629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="6000" b="1">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="6000" b="1" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> địa chỉ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="6000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35928300" y="80048100"/>
+          <a:ext cx="7429500" cy="10934700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="34899600" y="80352900"/>
+          <a:ext cx="8496300" cy="9944100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Right Arrow 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45796200" y="83934300"/>
+          <a:ext cx="4305300" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22655,7 +22931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
@@ -22685,7 +22961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BG41" sqref="BG41"/>
     </sheetView>
   </sheetViews>
@@ -22715,8 +22991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AT4:CT439"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O368" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="DH410" sqref="DH410"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A306" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AB421" sqref="AB421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29613,8 +29889,8 @@
   </sheetPr>
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8:AD8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29911,56 +30187,56 @@
       <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="28" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="31" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
       <c r="AE7" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="33" t="s">
+      <c r="AG7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="25" t="s">
+      <c r="AH7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="23" t="s">
+      <c r="AI7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="AJ7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="25" t="s">
+      <c r="AK7" s="30" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="26" t="s">
@@ -30050,11 +30326,11 @@
       </c>
       <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
       <c r="AL8" s="27"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -30648,12 +30924,6 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -30664,6 +30934,12 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chuannn@dolphinsolutions.vn\MyGitLap\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5507,6 +5507,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5514,12 +5529,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5541,15 +5550,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -27384,6 +27384,260 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42443400" y="66865500"/>
+          <a:ext cx="5372100" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>187963</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>140785</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6710683" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48193963" y="66434785"/>
+          <a:ext cx="6710683" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Sửa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> thông tin cửa hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29946600" y="58178700"/>
+          <a:ext cx="5372100" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>8956</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>178885</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5620899" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rectangle 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24697756" y="58471885"/>
+          <a:ext cx="5620899" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Thêm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> tên cửa hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41601,7 +41855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -41938,56 +42192,56 @@
       <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="28" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="31" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
       <c r="AE7" s="26" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="33" t="s">
+      <c r="AG7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="25" t="s">
+      <c r="AH7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="23" t="s">
+      <c r="AI7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="AJ7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="25" t="s">
+      <c r="AK7" s="30" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="26" t="s">
@@ -42077,11 +42331,11 @@
       </c>
       <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
       <c r="AL8" s="27"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -42678,12 +42932,6 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -42694,6 +42942,12 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -42706,8 +42960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AT4:CT439"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A315" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="X364" sqref="X364"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O243" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AQ296" sqref="AQ296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5544,6 +5544,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5551,12 +5575,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5580,24 +5598,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -5606,6 +5606,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE9E9EF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -25847,8 +25852,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="58482370" y="77876400"/>
-          <a:ext cx="2706230" cy="1116514"/>
+          <a:off x="56863120" y="77876400"/>
+          <a:ext cx="2630030" cy="1116514"/>
           <a:chOff x="58177570" y="79286100"/>
           <a:chExt cx="2706230" cy="1116514"/>
         </a:xfrm>
@@ -26157,8 +26162,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="58101370" y="82486500"/>
-          <a:ext cx="2706230" cy="1116514"/>
+          <a:off x="56501170" y="82486500"/>
+          <a:ext cx="2630030" cy="1116514"/>
           <a:chOff x="58101370" y="82486500"/>
           <a:chExt cx="2706230" cy="1116514"/>
         </a:xfrm>
@@ -28495,8 +28500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="58139470" y="87515700"/>
-          <a:ext cx="2706230" cy="1116514"/>
+          <a:off x="56539270" y="87496650"/>
+          <a:ext cx="2630030" cy="1116514"/>
           <a:chOff x="58101370" y="82486500"/>
           <a:chExt cx="2706230" cy="1116514"/>
         </a:xfrm>
@@ -29931,6 +29936,3369 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>465386</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72732900" y="49987200"/>
+          <a:ext cx="10714286" cy="22898100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectangle 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73190100" y="68122800"/>
+          <a:ext cx="9906000" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E9E9EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>19929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectangle 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79629000" y="65361429"/>
+          <a:ext cx="3314700" cy="780172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E9E9EF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>111763</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>140785</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6710683" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rectangle 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76235563" y="65291785"/>
+          <a:ext cx="6710683" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Sửa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> thông tin cửa hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rounded Rectangle 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73571100" y="71132700"/>
+          <a:ext cx="9105900" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>Chụp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" baseline="0"/>
+            <a:t> Ảnh Cửa Hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Notched Right Arrow 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84810600" y="71513700"/>
+          <a:ext cx="6477000" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>151</xdr:col>
+      <xdr:colOff>351086</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="101" name="Group 100"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="90620850" y="49872900"/>
+          <a:ext cx="10409486" cy="22898100"/>
+          <a:chOff x="93192600" y="49872900"/>
+          <a:chExt cx="10714286" cy="22898100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="99" name="Picture 98"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93192600" y="49872900"/>
+            <a:ext cx="10714286" cy="22898100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="Rectangle 99"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93649800" y="52882800"/>
+            <a:ext cx="9906000" cy="19431000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E9E9EF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:noFill/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>151</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93726001" y="53263800"/>
+          <a:ext cx="9829800" cy="4533898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>150</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Rounded Rectangle 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94183200" y="71056500"/>
+          <a:ext cx="9105900" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>Chụp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" baseline="0"/>
+            <a:t> Ảnh POSM</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4124591" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Rectangle 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94373700" y="57950100"/>
+          <a:ext cx="4124591" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> tổng quan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>145</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3135217" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rectangle 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99631500" y="57950100"/>
+          <a:ext cx="3135217" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hình</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> địa chỉ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>163</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Notched Right Arrow 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105613200" y="71247000"/>
+          <a:ext cx="6477000" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>165</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>181</xdr:col>
+      <xdr:colOff>160586</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="Group 106"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="110432850" y="49758600"/>
+          <a:ext cx="10409486" cy="22898100"/>
+          <a:chOff x="93192600" y="49872900"/>
+          <a:chExt cx="10714286" cy="22898100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="108" name="Picture 107"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93192600" y="49872900"/>
+            <a:ext cx="10714286" cy="22898100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="Rectangle 108"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93649800" y="52882800"/>
+            <a:ext cx="9906000" cy="19431000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E9E9EF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:noFill/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>178885</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5576591" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="113995200" y="53518885"/>
+          <a:ext cx="5576591" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Tranh Pepsi &amp; 7Up </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>421756</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3225178" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Rectangle 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114264556" y="57073800"/>
+          <a:ext cx="3225178" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Thêm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>  Ảnh</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>665424</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>170</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Rectangle 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114508224" y="60121800"/>
+          <a:ext cx="2687376" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>448888</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>178885</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1957074" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Rectangle 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114977488" y="62091385"/>
+          <a:ext cx="1957074" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Ký</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> PXN</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>171</xdr:col>
+      <xdr:colOff>242894</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>169360</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3073918" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Rectangle 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="117514694" y="62272360"/>
+          <a:ext cx="3073918" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>PXN đầy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> đủ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>64585</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3559692" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rectangle 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114376200" y="58548085"/>
+          <a:ext cx="3559692" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Sticker 7Up </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>176</xdr:col>
+      <xdr:colOff>111030</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>125274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>179</xdr:col>
+      <xdr:colOff>513839</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>140352</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="122" name="Group 121"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="117459030" y="58418274"/>
+          <a:ext cx="2403059" cy="967578"/>
+          <a:chOff x="58101370" y="82382531"/>
+          <a:chExt cx="2706230" cy="1170769"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="Rectangle 122"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="58140600" y="82486500"/>
+            <a:ext cx="2667000" cy="1066800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="Isosceles Triangle 123"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="60067012" y="82743124"/>
+            <a:ext cx="566777" cy="629752"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="Rectangle 124"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="58101370" y="82382531"/>
+            <a:ext cx="1601329" cy="1134531"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>176</xdr:col>
+      <xdr:colOff>397787</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>93160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2611741" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rectangle 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121098587" y="62196160"/>
+          <a:ext cx="2611741" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Ảnh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>SPVB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>217749</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>169</xdr:col>
+      <xdr:colOff>484449</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Cross 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115432149" y="60693300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>382300</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2887392" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="Rectangle 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114225100" y="65265300"/>
+          <a:ext cx="2887392" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Thêm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>  Ảnh</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>436824</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>170</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rectangle 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114279624" y="54787800"/>
+          <a:ext cx="2687376" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>171</xdr:col>
+      <xdr:colOff>436824</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>175</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Rectangle 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="117708624" y="60121800"/>
+          <a:ext cx="2687376" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>176</xdr:col>
+      <xdr:colOff>208224</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>180</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rectangle 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120909024" y="60121800"/>
+          <a:ext cx="2687376" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>627324</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>170</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Rectangle 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114470124" y="63093600"/>
+          <a:ext cx="2687376" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>172</xdr:col>
+      <xdr:colOff>522549</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>174</xdr:col>
+      <xdr:colOff>103449</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Cross 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="118480149" y="60655200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>177</xdr:col>
+      <xdr:colOff>293949</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>178</xdr:col>
+      <xdr:colOff>560649</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Cross 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121680549" y="60693300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>141549</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>169</xdr:col>
+      <xdr:colOff>408249</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Cross 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115355949" y="63550800"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>598749</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>169</xdr:col>
+      <xdr:colOff>179649</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Cross 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115127349" y="55359300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>180</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rounded Rectangle 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114338100" y="67856100"/>
+          <a:ext cx="9372600" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>479245</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2083904" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Rectangle 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114322045" y="66903600"/>
+          <a:ext cx="2083904" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Ghi chú</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>175</xdr:col>
+      <xdr:colOff>606330</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>87174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>179</xdr:col>
+      <xdr:colOff>323339</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>102252</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="147" name="Group 146"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="117287580" y="53427174"/>
+          <a:ext cx="2384009" cy="967578"/>
+          <a:chOff x="58101370" y="82382531"/>
+          <a:chExt cx="2706230" cy="1170769"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="Rectangle 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="58140600" y="82486500"/>
+            <a:ext cx="2667000" cy="1066800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="Isosceles Triangle 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="60067012" y="82743124"/>
+            <a:ext cx="566777" cy="629752"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="Rectangle 149"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="58101370" y="82382531"/>
+            <a:ext cx="1601329" cy="1134531"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5279330" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rectangle 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74637900" y="69951600"/>
+          <a:ext cx="5279330" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Không</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> thành công</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Rectangle 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73799700" y="69989700"/>
+          <a:ext cx="647700" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>151</xdr:col>
+      <xdr:colOff>351086</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="155" name="Group 154"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="90620850" y="75590400"/>
+          <a:ext cx="10409486" cy="22879050"/>
+          <a:chOff x="93192600" y="49872900"/>
+          <a:chExt cx="10714286" cy="22898100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="156" name="Picture 155"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93192600" y="49872900"/>
+            <a:ext cx="10714286" cy="22898100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="157" name="Rectangle 156"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93649800" y="52882800"/>
+            <a:ext cx="9906000" cy="19431000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E9E9EF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:noFill/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>555973</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>140785</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8032072" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Rectangle 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94510573" y="79198285"/>
+          <a:ext cx="8032072" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>HÌNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> KHÔNG THÀNH CÔNG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>142</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>73961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Picture 158"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93840300" y="80657700"/>
+          <a:ext cx="3733800" cy="2855261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>150</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Rounded Rectangle 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93802200" y="96621600"/>
+          <a:ext cx="9105900" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>Hoàn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" baseline="0"/>
+            <a:t> thành Báo Cáo</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Notched Right Arrow 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2183511">
+          <a:off x="83858100" y="75514200"/>
+          <a:ext cx="6477000" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2686889" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rectangle 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94107000" y="83629500"/>
+          <a:ext cx="2686889" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Thêm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" b="0" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="30000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ảnh</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>182</xdr:col>
+      <xdr:colOff>8186</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="165" name="Group 164"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="110947200" y="79819500"/>
+          <a:ext cx="10409486" cy="22879050"/>
+          <a:chOff x="93192600" y="49872900"/>
+          <a:chExt cx="10714286" cy="22898100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="166" name="Picture 165"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93192600" y="49872900"/>
+            <a:ext cx="10714286" cy="22898100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="167" name="Rectangle 166"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="93649800" y="52882800"/>
+            <a:ext cx="9906000" cy="19431000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E9E9EF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:noFill/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>180</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>530</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Rounded Rectangle 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114909600" y="100660200"/>
+          <a:ext cx="9105900" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>Lưu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" baseline="0"/>
+            <a:t> Báo Cáo</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>181</xdr:col>
+      <xdr:colOff>410300</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Picture 168"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115023900" y="85496400"/>
+          <a:ext cx="9516200" cy="7277100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>301789</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>864685</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7854651" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Rectangle 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115516189" y="84303685"/>
+          <a:ext cx="7854651" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>HÌNH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> CHẤM CÔNG ĐẦU RA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>240887</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3730765" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="Rectangle 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83222687" y="75857100"/>
+          <a:ext cx="3730765" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>nếu checked</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>153</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>163</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="Notched Right Arrow 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105498900" y="82981800"/>
+          <a:ext cx="6477000" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>173</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>174</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Notched Right Arrow 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="116357400" y="75704700"/>
+          <a:ext cx="6477000" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>180</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="Rounded Rectangle 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114528600" y="70827900"/>
+          <a:ext cx="9105900" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>Hoàn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800" baseline="0"/>
+            <a:t> thành Báo Cáo</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="4800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -44148,7 +47516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AZ4:BC15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA116" sqref="AA116"/>
     </sheetView>
   </sheetViews>
@@ -44262,12 +47630,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -44304,10 +47672,10 @@
       <c r="AL1" s="5"/>
     </row>
     <row r="2" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -44344,12 +47712,12 @@
       <c r="AL2" s="5"/>
     </row>
     <row r="3" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -44386,12 +47754,12 @@
       <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -44512,83 +47880,83 @@
       <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="26" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29" t="s">
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="24" t="s">
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="24" t="s">
+      <c r="AF7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="31" t="s">
+      <c r="AG7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="23" t="s">
+      <c r="AH7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="21" t="s">
+      <c r="AI7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="23" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="23" t="s">
+      <c r="AK7" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AL7" s="24" t="s">
+      <c r="AL7" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
@@ -44664,14 +48032,14 @@
       <c r="AD8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="25"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="28"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -45267,12 +48635,6 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -45283,6 +48645,12 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -45295,8 +48663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AT4:CT439"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O452" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AQ296" sqref="AQ296"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="IO374" sqref="IO374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5553,21 +5553,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5575,6 +5560,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5596,6 +5587,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22473,11 +22473,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>346520</xdr:colOff>
+      <xdr:colOff>436167</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190243</xdr:rowOff>
+      <xdr:rowOff>145420</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2115836" cy="468077"/>
+    <xdr:ext cx="2473691" cy="843821"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Rectangle 7"/>
@@ -22485,8 +22485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10658368" y="1979286"/>
-          <a:ext cx="2115836" cy="468077"/>
+          <a:off x="10689549" y="1960773"/>
+          <a:ext cx="2473691" cy="843821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22498,6 +22498,67 @@
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Không thành công - (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Store</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Status = 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -22530,7 +22591,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t> công - (Status = 1)</a:t>
+            <a:t> công - (StoreStatus = 1)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -22549,7 +22610,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t> Không thành công - </a:t>
+            <a:t>Đang thực hiện - (</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -22564,7 +22625,42 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(Status = 0)</a:t>
+            <a:t>StoreStatus = 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0" cap="none" spc="0">
             <a:ln w="0"/>
@@ -47516,8 +47612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AZ4:BC15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA116" sqref="AA116"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -47895,56 +47991,56 @@
       <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="32" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="35" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
       <c r="AE7" s="27" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="37" t="s">
+      <c r="AG7" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="31" t="s">
+      <c r="AH7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="29" t="s">
+      <c r="AI7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="31" t="s">
+      <c r="AK7" s="26" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="27" t="s">
@@ -48034,11 +48130,11 @@
       </c>
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
       <c r="AL8" s="28"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -48635,6 +48731,12 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -48645,12 +48747,6 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -48663,8 +48759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AT4:CT439"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="IO374" sqref="IO374"/>
+    <sheetView showGridLines="0" topLeftCell="A254" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="GR396" sqref="GR396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chuannn@dolphinsolutions.vn\MyGitLap\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5553,6 +5553,21 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5560,12 +5575,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5587,15 +5596,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22477,7 +22477,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>145420</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2473691" cy="843821"/>
+    <xdr:ext cx="2445862" cy="655949"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Rectangle 7"/>
@@ -22486,7 +22486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10689549" y="1960773"/>
-          <a:ext cx="2473691" cy="843821"/>
+          <a:ext cx="2445862" cy="655949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22592,56 +22592,6 @@
               </a:effectLst>
             </a:rPr>
             <a:t> công - (StoreStatus = 1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Đang thực hiện - (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>StoreStatus = 2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -47991,56 +47941,56 @@
       <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="29" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32" t="s">
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
       <c r="AE7" s="27" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="34" t="s">
+      <c r="AG7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="26" t="s">
+      <c r="AH7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="24" t="s">
+      <c r="AI7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="26" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="26" t="s">
+      <c r="AK7" s="31" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="27" t="s">
@@ -48130,11 +48080,11 @@
       </c>
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
       <c r="AL8" s="28"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -48731,12 +48681,6 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -48747,6 +48691,12 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5553,21 +5553,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5575,6 +5560,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5596,6 +5587,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -47941,56 +47941,56 @@
       <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="32" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="35" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
       <c r="AE7" s="27" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="37" t="s">
+      <c r="AG7" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="31" t="s">
+      <c r="AH7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="29" t="s">
+      <c r="AI7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="31" t="s">
+      <c r="AK7" s="26" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="27" t="s">
@@ -48080,11 +48080,11 @@
       </c>
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
       <c r="AL8" s="28"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -48681,6 +48681,12 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -48691,12 +48697,6 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chuannn@dolphinsolutions.vn\MyGitLap\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="1709">
   <si>
     <t>1. Login</t>
   </si>
@@ -5220,13 +5220,40 @@
   </si>
   <si>
     <t>…..</t>
+  </si>
+  <si>
+    <t>Thông Tin POSM</t>
+  </si>
+  <si>
+    <t>Tranh Pepsi &amp; 7Up</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>Sticker 7Up</t>
+  </si>
+  <si>
+    <t>1. Filter theo Cửa Hàng</t>
+  </si>
+  <si>
+    <t>2. Download Hình Báo Cáo, không chia theo folder, change filename theo loại POSM</t>
+  </si>
+  <si>
+    <t>3. Thêm số điện thoại cửa hàng</t>
+  </si>
+  <si>
+    <t>4. Vali nhập hình cửa hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5306,8 +5333,14 @@
       <name val="Times New Roman"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5346,6 +5379,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5488,7 +5527,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5597,6 +5636,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12534,8 +12587,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>391086</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>56935</xdr:rowOff>
     </xdr:to>
@@ -12628,8 +12681,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381560</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>3248</xdr:rowOff>
     </xdr:to>
@@ -12673,7 +12726,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>65941</xdr:colOff>
+      <xdr:colOff>65942</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>188271</xdr:rowOff>
     </xdr:to>
@@ -13349,7 +13402,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>337001</xdr:colOff>
+      <xdr:colOff>337002</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
@@ -13387,9 +13440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>646836</xdr:colOff>
+      <xdr:colOff>646837</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>179932</xdr:rowOff>
+      <xdr:rowOff>112697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -22171,7 +22224,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>189100</xdr:colOff>
+      <xdr:colOff>189099</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>12426</xdr:rowOff>
     </xdr:to>
@@ -47560,13 +47613,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AZ4:BC15"/>
+  <dimension ref="B4:BC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="52:55" x14ac:dyDescent="0.25">
       <c r="AZ4" t="s">
@@ -47611,9 +47667,75 @@
         <v>1699</v>
       </c>
     </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="N36" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="C37" s="39"/>
+      <c r="N37" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="43" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="43">
+        <v>1</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="N39" s="44" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="43"/>
+    </row>
+    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B41" s="43">
+        <v>2</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -47639,8 +47761,8 @@
   </sheetPr>
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="I85" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48709,7 +48831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AT4:CT439"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A254" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A416" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
       <selection activeCell="GR396" sqref="GR396"/>
     </sheetView>
   </sheetViews>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5234,9 +5234,6 @@
     <t>Số Lượng</t>
   </si>
   <si>
-    <t>Sticker 7Up</t>
-  </si>
-  <si>
     <t>1. Filter theo Cửa Hàng</t>
   </si>
   <si>
@@ -5247,6 +5244,10 @@
   </si>
   <si>
     <t>4. Vali nhập hình cửa hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Sticker Pepsi</t>
   </si>
 </sst>
 </file>
@@ -5592,6 +5593,35 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5599,12 +5629,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5627,29 +5651,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13441,8 +13442,8 @@
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>646837</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>112697</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>79079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -24717,6 +24718,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="3619499"/>
+          <a:ext cx="7720853" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -47585,7 +47624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
@@ -47615,8 +47654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -47668,30 +47707,30 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26" t="s">
         <v>1700</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
       <c r="N36" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="C37" s="24"/>
+      <c r="N37" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C37" s="39"/>
-      <c r="N37" t="s">
-        <v>1706</v>
-      </c>
-    </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="28" t="s">
         <v>1702</v>
       </c>
       <c r="C38" t="s">
@@ -47701,32 +47740,32 @@
         <v>1703</v>
       </c>
       <c r="N38" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="28">
+        <v>1</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="N39" s="29" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43">
-        <v>1</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E39">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="28"/>
+    </row>
+    <row r="41" spans="2:14" ht="36" x14ac:dyDescent="0.25">
+      <c r="B41" s="28">
         <v>2</v>
       </c>
-      <c r="N39" s="44" t="s">
+      <c r="C41" s="24" t="s">
         <v>1708</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
-    </row>
-    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B41" s="43">
-        <v>2</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>1704</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -48048,83 +48087,83 @@
       <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="29" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="27" t="s">
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="27" t="s">
+      <c r="AF7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="34" t="s">
+      <c r="AG7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="26" t="s">
+      <c r="AH7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="24" t="s">
+      <c r="AI7" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="26" t="s">
+      <c r="AJ7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="26" t="s">
+      <c r="AK7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AL7" s="27" t="s">
+      <c r="AL7" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
@@ -48200,14 +48239,14 @@
       <c r="AD8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="28"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="34"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -48803,12 +48842,6 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -48819,6 +48852,12 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -48831,8 +48870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AT4:CT439"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A416" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="GR396" sqref="GR396"/>
+    <sheetView showGridLines="0" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="BH621" sqref="BH621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\EmployeeTracking\Document\Fit&amp;Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chuannn@dolphinsolutions.vn\MyGitLap\EmployeeTracking\Document\Fit&amp;Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Báo cáo lắp đặt'!$A$8:$AL$15</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -5607,21 +5607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5629,6 +5614,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5650,6 +5641,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -47602,7 +47602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AG89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AO101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BK91" sqref="BK91"/>
     </sheetView>
   </sheetViews>
@@ -47654,8 +47654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -48102,56 +48102,56 @@
       <c r="E7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="38" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
       <c r="AE7" s="33" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="43" t="s">
+      <c r="AG7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="37" t="s">
+      <c r="AH7" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="35" t="s">
+      <c r="AI7" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="37" t="s">
+      <c r="AJ7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="37" t="s">
+      <c r="AK7" s="32" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="33" t="s">
@@ -48241,11 +48241,11 @@
       </c>
       <c r="AE8" s="34"/>
       <c r="AF8" s="34"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
       <c r="AL8" s="34"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -48842,6 +48842,12 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -48852,12 +48858,6 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Document/Fit&Gap/Screen Design.xlsx
+++ b/Document/Fit&Gap/Screen Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9000" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5607,6 +5607,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5614,12 +5629,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5641,15 +5650,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -47602,8 +47602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AV52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AO101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BK91" sqref="BK91"/>
+    <sheetView showGridLines="0" topLeftCell="A63" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AZ122" sqref="AZ122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -47654,8 +47654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:BC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -47782,7 +47782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -47800,8 +47800,8 @@
   </sheetPr>
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView topLeftCell="I85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48102,56 +48102,56 @@
       <c r="E7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="35" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="38" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
       <c r="AE7" s="33" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="40" t="s">
+      <c r="AG7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AH7" s="32" t="s">
+      <c r="AH7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="30" t="s">
+      <c r="AI7" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AJ7" s="32" t="s">
+      <c r="AJ7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AK7" s="32" t="s">
+      <c r="AK7" s="37" t="s">
         <v>52</v>
       </c>
       <c r="AL7" s="33" t="s">
@@ -48241,11 +48241,11 @@
       </c>
       <c r="AE8" s="34"/>
       <c r="AF8" s="34"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
       <c r="AL8" s="34"/>
     </row>
     <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -48842,12 +48842,6 @@
   </sheetData>
   <autoFilter ref="A8:AL15"/>
   <mergeCells count="16">
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="AK7:AK8"/>
@@ -48858,6 +48852,12 @@
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AG7:AG8"/>
     <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
